--- a/output/abdulka01.xlsx
+++ b/output/abdulka01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="103">
   <si>
     <t>Season</t>
   </si>
@@ -263,18 +263,6 @@
   </si>
   <si>
     <t>PS</t>
-  </si>
-  <si>
-    <t>ORtg</t>
-  </si>
-  <si>
-    <t>DRtg</t>
-  </si>
-  <si>
-    <t>2 seasons</t>
-  </si>
-  <si>
-    <t>1 season</t>
   </si>
   <si>
     <t>PER</t>
@@ -6040,9854 +6028,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2">
-        <v>82</v>
-      </c>
-      <c r="I2">
-        <v>3534</v>
-      </c>
-      <c r="J2">
-        <v>9.6</v>
-      </c>
-      <c r="K2">
-        <v>18.4</v>
-      </c>
-      <c r="L2">
-        <v>0.518</v>
-      </c>
-      <c r="P2">
-        <v>9.6</v>
-      </c>
-      <c r="Q2">
-        <v>18.4</v>
-      </c>
-      <c r="R2">
-        <v>0.518</v>
-      </c>
-      <c r="S2">
-        <v>4.9</v>
-      </c>
-      <c r="T2">
-        <v>7.6</v>
-      </c>
-      <c r="U2">
-        <v>0.653</v>
-      </c>
-      <c r="X2">
-        <v>12.1</v>
-      </c>
-      <c r="Y2">
-        <v>3.4</v>
-      </c>
-      <c r="AC2">
-        <v>2.9</v>
-      </c>
-      <c r="AD2">
-        <v>24.1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>435</v>
-      </c>
-      <c r="J3">
-        <v>11.5</v>
-      </c>
-      <c r="K3">
-        <v>20.3</v>
-      </c>
-      <c r="L3">
-        <v>0.5670000000000001</v>
-      </c>
-      <c r="P3">
-        <v>11.5</v>
-      </c>
-      <c r="Q3">
-        <v>20.3</v>
-      </c>
-      <c r="R3">
-        <v>0.5670000000000001</v>
-      </c>
-      <c r="S3">
-        <v>6.1</v>
-      </c>
-      <c r="T3">
-        <v>8.4</v>
-      </c>
-      <c r="U3">
-        <v>0.733</v>
-      </c>
-      <c r="X3">
-        <v>13.9</v>
-      </c>
-      <c r="Y3">
-        <v>3.4</v>
-      </c>
-      <c r="AC3">
-        <v>2.1</v>
-      </c>
-      <c r="AD3">
-        <v>29.1</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-3099</v>
-      </c>
-      <c r="J4">
-        <v>1.9</v>
-      </c>
-      <c r="K4">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="L4">
-        <v>0.04900000000000004</v>
-      </c>
-      <c r="P4">
-        <v>1.9</v>
-      </c>
-      <c r="Q4">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="R4">
-        <v>0.04900000000000004</v>
-      </c>
-      <c r="S4">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="T4">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="U4">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="X4">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AD4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5">
-        <v>82</v>
-      </c>
-      <c r="I5">
-        <v>3288</v>
-      </c>
-      <c r="J5">
-        <v>11.6</v>
-      </c>
-      <c r="K5">
-        <v>20.2</v>
-      </c>
-      <c r="L5">
-        <v>0.5770000000000001</v>
-      </c>
-      <c r="P5">
-        <v>11.6</v>
-      </c>
-      <c r="Q5">
-        <v>20.2</v>
-      </c>
-      <c r="R5">
-        <v>0.5770000000000001</v>
-      </c>
-      <c r="S5">
-        <v>5.1</v>
-      </c>
-      <c r="T5">
-        <v>7.5</v>
-      </c>
-      <c r="U5">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X5">
-        <v>14.4</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
-        <v>2.9</v>
-      </c>
-      <c r="AD5">
-        <v>28.4</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>577</v>
-      </c>
-      <c r="J6">
-        <v>9.5</v>
-      </c>
-      <c r="K6">
-        <v>18.4</v>
-      </c>
-      <c r="L6">
-        <v>0.515</v>
-      </c>
-      <c r="P6">
-        <v>9.5</v>
-      </c>
-      <c r="Q6">
-        <v>18.4</v>
-      </c>
-      <c r="R6">
-        <v>0.515</v>
-      </c>
-      <c r="S6">
-        <v>4.2</v>
-      </c>
-      <c r="T6">
-        <v>6.3</v>
-      </c>
-      <c r="U6">
-        <v>0.6729999999999999</v>
-      </c>
-      <c r="X6">
-        <v>14.8</v>
-      </c>
-      <c r="Y6">
-        <v>2.2</v>
-      </c>
-      <c r="AC6">
-        <v>2.8</v>
-      </c>
-      <c r="AD6">
-        <v>23.2</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>-2711</v>
-      </c>
-      <c r="J7">
-        <v>-2.1</v>
-      </c>
-      <c r="K7">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="L7">
-        <v>-0.06200000000000006</v>
-      </c>
-      <c r="P7">
-        <v>-2.1</v>
-      </c>
-      <c r="Q7">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="R7">
-        <v>-0.06200000000000006</v>
-      </c>
-      <c r="S7">
-        <v>-0.8999999999999995</v>
-      </c>
-      <c r="T7">
-        <v>-1.2</v>
-      </c>
-      <c r="U7">
-        <v>-0.01700000000000002</v>
-      </c>
-      <c r="X7">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="Y7">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AC7">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AD7">
-        <v>-5.199999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8">
-        <v>81</v>
-      </c>
-      <c r="I8">
-        <v>3583</v>
-      </c>
-      <c r="J8">
-        <v>11.6</v>
-      </c>
-      <c r="K8">
-        <v>20.3</v>
-      </c>
-      <c r="L8">
-        <v>0.574</v>
-      </c>
-      <c r="P8">
-        <v>11.6</v>
-      </c>
-      <c r="Q8">
-        <v>20.3</v>
-      </c>
-      <c r="R8">
-        <v>0.574</v>
-      </c>
-      <c r="S8">
-        <v>5.1</v>
-      </c>
-      <c r="T8">
-        <v>7.4</v>
-      </c>
-      <c r="U8">
-        <v>0.6890000000000001</v>
-      </c>
-      <c r="X8">
-        <v>13.5</v>
-      </c>
-      <c r="Y8">
-        <v>3.7</v>
-      </c>
-      <c r="AC8">
-        <v>2.4</v>
-      </c>
-      <c r="AD8">
-        <v>28.4</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>510</v>
-      </c>
-      <c r="J9">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K9">
-        <v>22.4</v>
-      </c>
-      <c r="L9">
-        <v>0.4370000000000001</v>
-      </c>
-      <c r="P9">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q9">
-        <v>22.4</v>
-      </c>
-      <c r="R9">
-        <v>0.4370000000000001</v>
-      </c>
-      <c r="S9">
-        <v>2.7</v>
-      </c>
-      <c r="T9">
-        <v>3.8</v>
-      </c>
-      <c r="U9">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="X9">
-        <v>14.1</v>
-      </c>
-      <c r="Y9">
-        <v>4</v>
-      </c>
-      <c r="AC9">
-        <v>2.5</v>
-      </c>
-      <c r="AD9">
-        <v>22.3</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>-3073</v>
-      </c>
-      <c r="J10">
-        <v>-1.799999999999999</v>
-      </c>
-      <c r="K10">
-        <v>2.099999999999998</v>
-      </c>
-      <c r="L10">
-        <v>-0.1369999999999999</v>
-      </c>
-      <c r="P10">
-        <v>-1.799999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>2.099999999999998</v>
-      </c>
-      <c r="R10">
-        <v>-0.1369999999999999</v>
-      </c>
-      <c r="S10">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="T10">
-        <v>-3.600000000000001</v>
-      </c>
-      <c r="U10">
-        <v>0.01500000000000001</v>
-      </c>
-      <c r="X10">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="Y10">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AC10">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AD10">
-        <v>-6.099999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11">
-        <v>76</v>
-      </c>
-      <c r="I11">
-        <v>3254</v>
-      </c>
-      <c r="J11">
-        <v>10.9</v>
-      </c>
-      <c r="K11">
-        <v>19.6</v>
-      </c>
-      <c r="L11">
-        <v>0.5539999999999999</v>
-      </c>
-      <c r="P11">
-        <v>10.9</v>
-      </c>
-      <c r="Q11">
-        <v>19.6</v>
-      </c>
-      <c r="R11">
-        <v>0.5539999999999999</v>
-      </c>
-      <c r="S11">
-        <v>3.6</v>
-      </c>
-      <c r="T11">
-        <v>5.1</v>
-      </c>
-      <c r="U11">
-        <v>0.713</v>
-      </c>
-      <c r="X11">
-        <v>13.5</v>
-      </c>
-      <c r="Y11">
-        <v>4.2</v>
-      </c>
-      <c r="AC11">
-        <v>2.3</v>
-      </c>
-      <c r="AD11">
-        <v>25.4</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>276</v>
-      </c>
-      <c r="J12">
-        <v>7.7</v>
-      </c>
-      <c r="K12">
-        <v>18</v>
-      </c>
-      <c r="L12">
-        <v>0.428</v>
-      </c>
-      <c r="P12">
-        <v>7.7</v>
-      </c>
-      <c r="Q12">
-        <v>18</v>
-      </c>
-      <c r="R12">
-        <v>0.428</v>
-      </c>
-      <c r="S12">
-        <v>2.5</v>
-      </c>
-      <c r="T12">
-        <v>4.6</v>
-      </c>
-      <c r="U12">
-        <v>0.5429999999999999</v>
-      </c>
-      <c r="X12">
-        <v>12.7</v>
-      </c>
-      <c r="Y12">
-        <v>2.2</v>
-      </c>
-      <c r="AC12">
-        <v>3.4</v>
-      </c>
-      <c r="AD12">
-        <v>17.9</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>-2978</v>
-      </c>
-      <c r="J13">
-        <v>-3.2</v>
-      </c>
-      <c r="K13">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="L13">
-        <v>-0.1259999999999999</v>
-      </c>
-      <c r="P13">
-        <v>-3.2</v>
-      </c>
-      <c r="Q13">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="R13">
-        <v>-0.1259999999999999</v>
-      </c>
-      <c r="S13">
-        <v>-1.1</v>
-      </c>
-      <c r="T13">
-        <v>-0.5</v>
-      </c>
-      <c r="U13">
-        <v>-0.17</v>
-      </c>
-      <c r="X13">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="Y13">
-        <v>-2</v>
-      </c>
-      <c r="AC13">
-        <v>1.1</v>
-      </c>
-      <c r="AD13">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14">
-        <v>81</v>
-      </c>
-      <c r="I14">
-        <v>3548</v>
-      </c>
-      <c r="J14">
-        <v>9.6</v>
-      </c>
-      <c r="K14">
-        <v>17.8</v>
-      </c>
-      <c r="L14">
-        <v>0.539</v>
-      </c>
-      <c r="P14">
-        <v>9.6</v>
-      </c>
-      <c r="Q14">
-        <v>17.8</v>
-      </c>
-      <c r="R14">
-        <v>0.539</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>4.3</v>
-      </c>
-      <c r="U14">
-        <v>0.7020000000000001</v>
-      </c>
-      <c r="V14">
-        <v>2.9</v>
-      </c>
-      <c r="W14">
-        <v>9</v>
-      </c>
-      <c r="X14">
-        <v>12</v>
-      </c>
-      <c r="Y14">
-        <v>3.9</v>
-      </c>
-      <c r="Z14">
-        <v>1.1</v>
-      </c>
-      <c r="AA14">
-        <v>2.9</v>
-      </c>
-      <c r="AC14">
-        <v>2.4</v>
-      </c>
-      <c r="AD14">
-        <v>22.2</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <v>758</v>
-      </c>
-      <c r="J15">
-        <v>10.6</v>
-      </c>
-      <c r="K15">
-        <v>19.1</v>
-      </c>
-      <c r="L15">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="P15">
-        <v>10.6</v>
-      </c>
-      <c r="Q15">
-        <v>19.1</v>
-      </c>
-      <c r="R15">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="S15">
-        <v>3.2</v>
-      </c>
-      <c r="T15">
-        <v>4.3</v>
-      </c>
-      <c r="U15">
-        <v>0.736</v>
-      </c>
-      <c r="V15">
-        <v>3.2</v>
-      </c>
-      <c r="W15">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X15">
-        <v>12</v>
-      </c>
-      <c r="Y15">
-        <v>3.7</v>
-      </c>
-      <c r="Z15">
-        <v>0.9</v>
-      </c>
-      <c r="AA15">
-        <v>1.9</v>
-      </c>
-      <c r="AC15">
-        <v>1.9</v>
-      </c>
-      <c r="AD15">
-        <v>24.5</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="I16">
-        <v>-2790</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="L16">
-        <v>0.01800000000000002</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="R16">
-        <v>0.01800000000000002</v>
-      </c>
-      <c r="S16">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0.03399999999999992</v>
-      </c>
-      <c r="V16">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="W16">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="Z16">
-        <v>-0.2000000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>-0.5</v>
-      </c>
-      <c r="AD16">
-        <v>2.300000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17">
-        <v>65</v>
-      </c>
-      <c r="I17">
-        <v>2747</v>
-      </c>
-      <c r="J17">
-        <v>10.6</v>
-      </c>
-      <c r="K17">
-        <v>20.8</v>
-      </c>
-      <c r="L17">
-        <v>0.513</v>
-      </c>
-      <c r="P17">
-        <v>10.6</v>
-      </c>
-      <c r="Q17">
-        <v>20.8</v>
-      </c>
-      <c r="R17">
-        <v>0.513</v>
-      </c>
-      <c r="S17">
-        <v>4.3</v>
-      </c>
-      <c r="T17">
-        <v>5.6</v>
-      </c>
-      <c r="U17">
-        <v>0.763</v>
-      </c>
-      <c r="V17">
-        <v>2.5</v>
-      </c>
-      <c r="W17">
-        <v>9.4</v>
-      </c>
-      <c r="X17">
-        <v>12</v>
-      </c>
-      <c r="Y17">
-        <v>3.5</v>
-      </c>
-      <c r="Z17">
-        <v>0.9</v>
-      </c>
-      <c r="AA17">
-        <v>2.8</v>
-      </c>
-      <c r="AC17">
-        <v>2.7</v>
-      </c>
-      <c r="AD17">
-        <v>25.5</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19">
-        <v>82</v>
-      </c>
-      <c r="I19">
-        <v>3379</v>
-      </c>
-      <c r="J19">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K19">
-        <v>18.4</v>
-      </c>
-      <c r="L19">
-        <v>0.529</v>
-      </c>
-      <c r="P19">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q19">
-        <v>18.4</v>
-      </c>
-      <c r="R19">
-        <v>0.529</v>
-      </c>
-      <c r="S19">
-        <v>4.8</v>
-      </c>
-      <c r="T19">
-        <v>6.8</v>
-      </c>
-      <c r="U19">
-        <v>0.703</v>
-      </c>
-      <c r="V19">
-        <v>2.9</v>
-      </c>
-      <c r="W19">
-        <v>11.8</v>
-      </c>
-      <c r="X19">
-        <v>14.7</v>
-      </c>
-      <c r="Y19">
-        <v>4.4</v>
-      </c>
-      <c r="Z19">
-        <v>1.3</v>
-      </c>
-      <c r="AA19">
-        <v>3.6</v>
-      </c>
-      <c r="AC19">
-        <v>3.1</v>
-      </c>
-      <c r="AD19">
-        <v>24.2</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21">
-        <v>82</v>
-      </c>
-      <c r="I21">
-        <v>3016</v>
-      </c>
-      <c r="J21">
-        <v>10.6</v>
-      </c>
-      <c r="K21">
-        <v>18.3</v>
-      </c>
-      <c r="L21">
-        <v>0.579</v>
-      </c>
-      <c r="P21">
-        <v>10.6</v>
-      </c>
-      <c r="Q21">
-        <v>18.3</v>
-      </c>
-      <c r="R21">
-        <v>0.579</v>
-      </c>
-      <c r="S21">
-        <v>4.5</v>
-      </c>
-      <c r="T21">
-        <v>6.4</v>
-      </c>
-      <c r="U21">
-        <v>0.701</v>
-      </c>
-      <c r="V21">
-        <v>3.2</v>
-      </c>
-      <c r="W21">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X21">
-        <v>13</v>
-      </c>
-      <c r="Y21">
-        <v>3.8</v>
-      </c>
-      <c r="Z21">
-        <v>1.2</v>
-      </c>
-      <c r="AA21">
-        <v>3.1</v>
-      </c>
-      <c r="AC21">
-        <v>3.1</v>
-      </c>
-      <c r="AD21">
-        <v>25.7</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>467</v>
-      </c>
-      <c r="J22">
-        <v>11.3</v>
-      </c>
-      <c r="K22">
-        <v>18.7</v>
-      </c>
-      <c r="L22">
-        <v>0.607</v>
-      </c>
-      <c r="P22">
-        <v>11.3</v>
-      </c>
-      <c r="Q22">
-        <v>18.7</v>
-      </c>
-      <c r="R22">
-        <v>0.607</v>
-      </c>
-      <c r="S22">
-        <v>6.7</v>
-      </c>
-      <c r="T22">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="U22">
-        <v>0.725</v>
-      </c>
-      <c r="V22">
-        <v>3.9</v>
-      </c>
-      <c r="W22">
-        <v>11.1</v>
-      </c>
-      <c r="X22">
-        <v>15</v>
-      </c>
-      <c r="Y22">
-        <v>3.5</v>
-      </c>
-      <c r="Z22">
-        <v>1.5</v>
-      </c>
-      <c r="AA22">
-        <v>2.9</v>
-      </c>
-      <c r="AC22">
-        <v>3.2</v>
-      </c>
-      <c r="AD22">
-        <v>29.4</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="I23">
-        <v>-2549</v>
-      </c>
-      <c r="J23">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="K23">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="L23">
-        <v>0.02800000000000002</v>
-      </c>
-      <c r="P23">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="Q23">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="R23">
-        <v>0.02800000000000002</v>
-      </c>
-      <c r="S23">
-        <v>2.2</v>
-      </c>
-      <c r="T23">
-        <v>2.9</v>
-      </c>
-      <c r="U23">
-        <v>0.02400000000000002</v>
-      </c>
-      <c r="V23">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="W23">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="X23">
-        <v>2</v>
-      </c>
-      <c r="Y23">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="Z23">
-        <v>0.3</v>
-      </c>
-      <c r="AA23">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AC23">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AD23">
-        <v>3.699999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24">
-        <v>62</v>
-      </c>
-      <c r="I24">
-        <v>2265</v>
-      </c>
-      <c r="J24">
-        <v>10.5</v>
-      </c>
-      <c r="K24">
-        <v>19.2</v>
-      </c>
-      <c r="L24">
-        <v>0.55</v>
-      </c>
-      <c r="P24">
-        <v>10.5</v>
-      </c>
-      <c r="Q24">
-        <v>19.2</v>
-      </c>
-      <c r="R24">
-        <v>0.55</v>
-      </c>
-      <c r="S24">
-        <v>4.4</v>
-      </c>
-      <c r="T24">
-        <v>5.6</v>
-      </c>
-      <c r="U24">
-        <v>0.7829999999999999</v>
-      </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X24">
-        <v>12.7</v>
-      </c>
-      <c r="Y24">
-        <v>4.3</v>
-      </c>
-      <c r="Z24">
-        <v>1.6</v>
-      </c>
-      <c r="AA24">
-        <v>2.9</v>
-      </c>
-      <c r="AB24">
-        <v>3.3</v>
-      </c>
-      <c r="AC24">
-        <v>2.9</v>
-      </c>
-      <c r="AD24">
-        <v>25.4</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>134</v>
-      </c>
-      <c r="J25">
-        <v>10.2</v>
-      </c>
-      <c r="K25">
-        <v>19.6</v>
-      </c>
-      <c r="L25">
-        <v>0.521</v>
-      </c>
-      <c r="P25">
-        <v>10.2</v>
-      </c>
-      <c r="Q25">
-        <v>19.6</v>
-      </c>
-      <c r="R25">
-        <v>0.521</v>
-      </c>
-      <c r="S25">
-        <v>1.3</v>
-      </c>
-      <c r="T25">
-        <v>2.4</v>
-      </c>
-      <c r="U25">
-        <v>0.556</v>
-      </c>
-      <c r="V25">
-        <v>3.8</v>
-      </c>
-      <c r="W25">
-        <v>7.3</v>
-      </c>
-      <c r="X25">
-        <v>11</v>
-      </c>
-      <c r="Y25">
-        <v>3</v>
-      </c>
-      <c r="Z25">
-        <v>0.5</v>
-      </c>
-      <c r="AA25">
-        <v>3.2</v>
-      </c>
-      <c r="AB25">
-        <v>3.8</v>
-      </c>
-      <c r="AC25">
-        <v>3.8</v>
-      </c>
-      <c r="AD25">
-        <v>21.8</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="I26">
-        <v>-2131</v>
-      </c>
-      <c r="J26">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="K26">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="L26">
-        <v>-0.02900000000000003</v>
-      </c>
-      <c r="P26">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Q26">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="R26">
-        <v>-0.02900000000000003</v>
-      </c>
-      <c r="S26">
-        <v>-3.100000000000001</v>
-      </c>
-      <c r="T26">
-        <v>-3.2</v>
-      </c>
-      <c r="U26">
-        <v>-0.2269999999999999</v>
-      </c>
-      <c r="V26">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="W26">
-        <v>-2.500000000000001</v>
-      </c>
-      <c r="X26">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="Y26">
-        <v>-1.3</v>
-      </c>
-      <c r="Z26">
-        <v>-1.1</v>
-      </c>
-      <c r="AA26">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AB26">
-        <v>0.5</v>
-      </c>
-      <c r="AC26">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD26">
-        <v>-3.599999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27">
-        <v>80</v>
-      </c>
-      <c r="I27">
-        <v>3157</v>
-      </c>
-      <c r="J27">
-        <v>8.9</v>
-      </c>
-      <c r="K27">
-        <v>15.4</v>
-      </c>
-      <c r="L27">
-        <v>0.5770000000000001</v>
-      </c>
-      <c r="P27">
-        <v>8.9</v>
-      </c>
-      <c r="Q27">
-        <v>15.4</v>
-      </c>
-      <c r="R27">
-        <v>0.5770000000000001</v>
-      </c>
-      <c r="S27">
-        <v>4</v>
-      </c>
-      <c r="T27">
-        <v>5.4</v>
-      </c>
-      <c r="U27">
-        <v>0.736</v>
-      </c>
-      <c r="V27">
-        <v>2.4</v>
-      </c>
-      <c r="W27">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="X27">
-        <v>11.7</v>
-      </c>
-      <c r="Y27">
-        <v>4.9</v>
-      </c>
-      <c r="Z27">
-        <v>0.9</v>
-      </c>
-      <c r="AA27">
-        <v>3.6</v>
-      </c>
-      <c r="AB27">
-        <v>3.2</v>
-      </c>
-      <c r="AC27">
-        <v>2.6</v>
-      </c>
-      <c r="AD27">
-        <v>21.7</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>367</v>
-      </c>
-      <c r="J28">
-        <v>8.6</v>
-      </c>
-      <c r="K28">
-        <v>14.9</v>
-      </c>
-      <c r="L28">
-        <v>0.579</v>
-      </c>
-      <c r="P28">
-        <v>8.6</v>
-      </c>
-      <c r="Q28">
-        <v>14.9</v>
-      </c>
-      <c r="R28">
-        <v>0.579</v>
-      </c>
-      <c r="S28">
-        <v>5.1</v>
-      </c>
-      <c r="T28">
-        <v>6.1</v>
-      </c>
-      <c r="U28">
-        <v>0.8390000000000001</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
-      <c r="W28">
-        <v>8.1</v>
-      </c>
-      <c r="X28">
-        <v>9.9</v>
-      </c>
-      <c r="Y28">
-        <v>3.7</v>
-      </c>
-      <c r="Z28">
-        <v>0.8</v>
-      </c>
-      <c r="AA28">
-        <v>3.2</v>
-      </c>
-      <c r="AB28">
-        <v>2.8</v>
-      </c>
-      <c r="AC28">
-        <v>2.6</v>
-      </c>
-      <c r="AD28">
-        <v>22.4</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="I29">
-        <v>-2790</v>
-      </c>
-      <c r="J29">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="K29">
-        <v>-0.5</v>
-      </c>
-      <c r="L29">
-        <v>0.001999999999999891</v>
-      </c>
-      <c r="P29">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>0.001999999999999891</v>
-      </c>
-      <c r="S29">
-        <v>1.1</v>
-      </c>
-      <c r="T29">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="U29">
-        <v>0.1030000000000001</v>
-      </c>
-      <c r="V29">
-        <v>-0.5999999999999999</v>
-      </c>
-      <c r="W29">
-        <v>-1.200000000000001</v>
-      </c>
-      <c r="X29">
-        <v>-1.799999999999999</v>
-      </c>
-      <c r="Y29">
-        <v>-1.2</v>
-      </c>
-      <c r="Z29">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="AA29">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AB29">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0.6999999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30">
-        <v>82</v>
-      </c>
-      <c r="I30">
-        <v>3143</v>
-      </c>
-      <c r="J30">
-        <v>9.6</v>
-      </c>
-      <c r="K30">
-        <v>15.8</v>
-      </c>
-      <c r="L30">
-        <v>0.604</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>9.6</v>
-      </c>
-      <c r="Q30">
-        <v>15.8</v>
-      </c>
-      <c r="R30">
-        <v>0.604</v>
-      </c>
-      <c r="S30">
-        <v>4.2</v>
-      </c>
-      <c r="T30">
-        <v>5.5</v>
-      </c>
-      <c r="U30">
-        <v>0.765</v>
-      </c>
-      <c r="V30">
-        <v>2.2</v>
-      </c>
-      <c r="W30">
-        <v>8</v>
-      </c>
-      <c r="X30">
-        <v>10.1</v>
-      </c>
-      <c r="Y30">
-        <v>4.2</v>
-      </c>
-      <c r="Z30">
-        <v>0.9</v>
-      </c>
-      <c r="AA30">
-        <v>3.2</v>
-      </c>
-      <c r="AB30">
-        <v>3.4</v>
-      </c>
-      <c r="AC30">
-        <v>2.5</v>
-      </c>
-      <c r="AD30">
-        <v>23.3</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31">
-        <v>15</v>
-      </c>
-      <c r="I31">
-        <v>618</v>
-      </c>
-      <c r="J31">
-        <v>11.5</v>
-      </c>
-      <c r="K31">
-        <v>20.2</v>
-      </c>
-      <c r="L31">
-        <v>0.5720000000000001</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>11.5</v>
-      </c>
-      <c r="Q31">
-        <v>20.2</v>
-      </c>
-      <c r="R31">
-        <v>0.5720000000000001</v>
-      </c>
-      <c r="S31">
-        <v>4.8</v>
-      </c>
-      <c r="T31">
-        <v>6.1</v>
-      </c>
-      <c r="U31">
-        <v>0.79</v>
-      </c>
-      <c r="V31">
-        <v>3</v>
-      </c>
-      <c r="W31">
-        <v>7.6</v>
-      </c>
-      <c r="X31">
-        <v>10.5</v>
-      </c>
-      <c r="Y31">
-        <v>2.7</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>3.4</v>
-      </c>
-      <c r="AB31">
-        <v>3.2</v>
-      </c>
-      <c r="AC31">
-        <v>3</v>
-      </c>
-      <c r="AD31">
-        <v>27.9</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="I32">
-        <v>-2525</v>
-      </c>
-      <c r="J32">
-        <v>1.9</v>
-      </c>
-      <c r="K32">
-        <v>4.399999999999999</v>
-      </c>
-      <c r="L32">
-        <v>-0.03199999999999992</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>1.9</v>
-      </c>
-      <c r="Q32">
-        <v>4.399999999999999</v>
-      </c>
-      <c r="R32">
-        <v>-0.03199999999999992</v>
-      </c>
-      <c r="S32">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="T32">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="U32">
-        <v>0.02500000000000002</v>
-      </c>
-      <c r="V32">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="W32">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="X32">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="Y32">
-        <v>-1.5</v>
-      </c>
-      <c r="Z32">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="AA32">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="AB32">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AC32">
-        <v>0.5</v>
-      </c>
-      <c r="AD32">
-        <v>4.599999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33">
-        <v>80</v>
-      </c>
-      <c r="I33">
-        <v>2976</v>
-      </c>
-      <c r="J33">
-        <v>10.1</v>
-      </c>
-      <c r="K33">
-        <v>17.6</v>
-      </c>
-      <c r="L33">
-        <v>0.574</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>10.1</v>
-      </c>
-      <c r="Q33">
-        <v>17.6</v>
-      </c>
-      <c r="R33">
-        <v>0.574</v>
-      </c>
-      <c r="S33">
-        <v>5.1</v>
-      </c>
-      <c r="T33">
-        <v>6.7</v>
-      </c>
-      <c r="U33">
-        <v>0.7659999999999999</v>
-      </c>
-      <c r="V33">
-        <v>2.4</v>
-      </c>
-      <c r="W33">
-        <v>7.5</v>
-      </c>
-      <c r="X33">
-        <v>9.9</v>
-      </c>
-      <c r="Y33">
-        <v>3.3</v>
-      </c>
-      <c r="Z33">
-        <v>0.7</v>
-      </c>
-      <c r="AA33">
-        <v>2.8</v>
-      </c>
-      <c r="AB33">
-        <v>3</v>
-      </c>
-      <c r="AC33">
-        <v>3</v>
-      </c>
-      <c r="AD33">
-        <v>25.3</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>134</v>
-      </c>
-      <c r="J34">
-        <v>8.1</v>
-      </c>
-      <c r="K34">
-        <v>17.5</v>
-      </c>
-      <c r="L34">
-        <v>0.462</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>8.1</v>
-      </c>
-      <c r="Q34">
-        <v>17.5</v>
-      </c>
-      <c r="R34">
-        <v>0.462</v>
-      </c>
-      <c r="S34">
-        <v>5.4</v>
-      </c>
-      <c r="T34">
-        <v>7.5</v>
-      </c>
-      <c r="U34">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="V34">
-        <v>3.5</v>
-      </c>
-      <c r="W34">
-        <v>9.9</v>
-      </c>
-      <c r="X34">
-        <v>13.4</v>
-      </c>
-      <c r="Y34">
-        <v>3.2</v>
-      </c>
-      <c r="Z34">
-        <v>0.8</v>
-      </c>
-      <c r="AA34">
-        <v>2.1</v>
-      </c>
-      <c r="AB34">
-        <v>3</v>
-      </c>
-      <c r="AC34">
-        <v>3.8</v>
-      </c>
-      <c r="AD34">
-        <v>21.5</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="I35">
-        <v>-2842</v>
-      </c>
-      <c r="J35">
-        <v>-2</v>
-      </c>
-      <c r="K35">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="L35">
-        <v>-0.1119999999999999</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>-2</v>
-      </c>
-      <c r="Q35">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="R35">
-        <v>-0.1119999999999999</v>
-      </c>
-      <c r="S35">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="T35">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="U35">
-        <v>-0.05199999999999982</v>
-      </c>
-      <c r="V35">
-        <v>1.1</v>
-      </c>
-      <c r="W35">
-        <v>2.4</v>
-      </c>
-      <c r="X35">
-        <v>3.5</v>
-      </c>
-      <c r="Y35">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Z35">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA35">
-        <v>-0.6999999999999997</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="AD35">
-        <v>-3.800000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36">
-        <v>76</v>
-      </c>
-      <c r="H36">
-        <v>76</v>
-      </c>
-      <c r="I36">
-        <v>2677</v>
-      </c>
-      <c r="J36">
-        <v>10.1</v>
-      </c>
-      <c r="K36">
-        <v>17.5</v>
-      </c>
-      <c r="L36">
-        <v>0.579</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>10.1</v>
-      </c>
-      <c r="Q36">
-        <v>17.5</v>
-      </c>
-      <c r="R36">
-        <v>0.58</v>
-      </c>
-      <c r="S36">
-        <v>4.2</v>
-      </c>
-      <c r="T36">
-        <v>5.9</v>
-      </c>
-      <c r="U36">
-        <v>0.706</v>
-      </c>
-      <c r="V36">
-        <v>2.3</v>
-      </c>
-      <c r="W36">
-        <v>6.5</v>
-      </c>
-      <c r="X36">
-        <v>8.9</v>
-      </c>
-      <c r="Y36">
-        <v>3</v>
-      </c>
-      <c r="Z36">
-        <v>0.8</v>
-      </c>
-      <c r="AA36">
-        <v>2.8</v>
-      </c>
-      <c r="AB36">
-        <v>3.1</v>
-      </c>
-      <c r="AC36">
-        <v>3</v>
-      </c>
-      <c r="AD36">
-        <v>24.4</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37">
-        <v>14</v>
-      </c>
-      <c r="I37">
-        <v>493</v>
-      </c>
-      <c r="J37">
-        <v>8.4</v>
-      </c>
-      <c r="K37">
-        <v>16.1</v>
-      </c>
-      <c r="L37">
-        <v>0.52</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>8.4</v>
-      </c>
-      <c r="Q37">
-        <v>16.1</v>
-      </c>
-      <c r="R37">
-        <v>0.52</v>
-      </c>
-      <c r="S37">
-        <v>4</v>
-      </c>
-      <c r="T37">
-        <v>6.4</v>
-      </c>
-      <c r="U37">
-        <v>0.632</v>
-      </c>
-      <c r="V37">
-        <v>2.4</v>
-      </c>
-      <c r="W37">
-        <v>6.3</v>
-      </c>
-      <c r="X37">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y37">
-        <v>3.7</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
-      <c r="AA37">
-        <v>3.3</v>
-      </c>
-      <c r="AB37">
-        <v>3</v>
-      </c>
-      <c r="AC37">
-        <v>3.3</v>
-      </c>
-      <c r="AD37">
-        <v>20.8</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="I38">
-        <v>-2184</v>
-      </c>
-      <c r="J38">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="K38">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="L38">
-        <v>-0.05899999999999994</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="Q38">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="R38">
-        <v>-0.05999999999999994</v>
-      </c>
-      <c r="S38">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="T38">
-        <v>0.5</v>
-      </c>
-      <c r="U38">
-        <v>-0.07399999999999995</v>
-      </c>
-      <c r="V38">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="W38">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="X38">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="Y38">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="Z38">
-        <v>0.2</v>
-      </c>
-      <c r="AA38">
-        <v>0.5</v>
-      </c>
-      <c r="AB38">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AD38">
-        <v>-3.599999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39">
-        <v>79</v>
-      </c>
-      <c r="H39">
-        <v>79</v>
-      </c>
-      <c r="I39">
-        <v>2554</v>
-      </c>
-      <c r="J39">
-        <v>10.2</v>
-      </c>
-      <c r="K39">
-        <v>17.3</v>
-      </c>
-      <c r="L39">
-        <v>0.588</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>10.2</v>
-      </c>
-      <c r="Q39">
-        <v>17.3</v>
-      </c>
-      <c r="R39">
-        <v>0.589</v>
-      </c>
-      <c r="S39">
-        <v>3.9</v>
-      </c>
-      <c r="T39">
-        <v>5.2</v>
-      </c>
-      <c r="U39">
-        <v>0.7490000000000001</v>
-      </c>
-      <c r="V39">
-        <v>2.4</v>
-      </c>
-      <c r="W39">
-        <v>6</v>
-      </c>
-      <c r="X39">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Y39">
-        <v>2.8</v>
-      </c>
-      <c r="Z39">
-        <v>0.9</v>
-      </c>
-      <c r="AA39">
-        <v>2.4</v>
-      </c>
-      <c r="AB39">
-        <v>2.8</v>
-      </c>
-      <c r="AC39">
-        <v>3.1</v>
-      </c>
-      <c r="AD39">
-        <v>24.3</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40">
-        <v>15</v>
-      </c>
-      <c r="I40">
-        <v>588</v>
-      </c>
-      <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <v>17.6</v>
-      </c>
-      <c r="L40">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>10</v>
-      </c>
-      <c r="Q40">
-        <v>17.5</v>
-      </c>
-      <c r="R40">
-        <v>0.57</v>
-      </c>
-      <c r="S40">
-        <v>4.9</v>
-      </c>
-      <c r="T40">
-        <v>6.5</v>
-      </c>
-      <c r="U40">
-        <v>0.755</v>
-      </c>
-      <c r="V40">
-        <v>1.5</v>
-      </c>
-      <c r="W40">
-        <v>5.5</v>
-      </c>
-      <c r="X40">
-        <v>7</v>
-      </c>
-      <c r="Y40">
-        <v>2.6</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AA40">
-        <v>3.4</v>
-      </c>
-      <c r="AB40">
-        <v>3.1</v>
-      </c>
-      <c r="AC40">
-        <v>3.7</v>
-      </c>
-      <c r="AD40">
-        <v>24.9</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="I41">
-        <v>-1966</v>
-      </c>
-      <c r="J41">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="K41">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="L41">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0.1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="Q41">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="R41">
-        <v>-0.01900000000000002</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>1.3</v>
-      </c>
-      <c r="U41">
-        <v>0.005999999999999894</v>
-      </c>
-      <c r="V41">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="W41">
-        <v>-0.5</v>
-      </c>
-      <c r="X41">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="Y41">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="Z41">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AC41">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AD41">
-        <v>0.5999999999999979</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42">
-        <v>80</v>
-      </c>
-      <c r="H42">
-        <v>80</v>
-      </c>
-      <c r="I42">
-        <v>2622</v>
-      </c>
-      <c r="J42">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K42">
-        <v>17</v>
-      </c>
-      <c r="L42">
-        <v>0.578</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q42">
-        <v>17</v>
-      </c>
-      <c r="R42">
-        <v>0.579</v>
-      </c>
-      <c r="S42">
-        <v>3.9</v>
-      </c>
-      <c r="T42">
-        <v>5.4</v>
-      </c>
-      <c r="U42">
-        <v>0.723</v>
-      </c>
-      <c r="V42">
-        <v>2.3</v>
-      </c>
-      <c r="W42">
-        <v>5.7</v>
-      </c>
-      <c r="X42">
-        <v>8.1</v>
-      </c>
-      <c r="Y42">
-        <v>2.9</v>
-      </c>
-      <c r="Z42">
-        <v>0.8</v>
-      </c>
-      <c r="AA42">
-        <v>2</v>
-      </c>
-      <c r="AB42">
-        <v>3</v>
-      </c>
-      <c r="AC42">
-        <v>2.9</v>
-      </c>
-      <c r="AD42">
-        <v>23.6</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43">
-        <v>21</v>
-      </c>
-      <c r="I43">
-        <v>767</v>
-      </c>
-      <c r="J43">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K43">
-        <v>17.4</v>
-      </c>
-      <c r="L43">
-        <v>0.555</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q43">
-        <v>17.4</v>
-      </c>
-      <c r="R43">
-        <v>0.555</v>
-      </c>
-      <c r="S43">
-        <v>4.2</v>
-      </c>
-      <c r="T43">
-        <v>5.6</v>
-      </c>
-      <c r="U43">
-        <v>0.75</v>
-      </c>
-      <c r="V43">
-        <v>2.6</v>
-      </c>
-      <c r="W43">
-        <v>5.5</v>
-      </c>
-      <c r="X43">
-        <v>8.1</v>
-      </c>
-      <c r="Y43">
-        <v>3.7</v>
-      </c>
-      <c r="Z43">
-        <v>1.1</v>
-      </c>
-      <c r="AA43">
-        <v>2.1</v>
-      </c>
-      <c r="AB43">
-        <v>2.1</v>
-      </c>
-      <c r="AC43">
-        <v>3.3</v>
-      </c>
-      <c r="AD43">
-        <v>23.6</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="I44">
-        <v>-1855</v>
-      </c>
-      <c r="J44">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="K44">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="L44">
-        <v>-0.02299999999999991</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="Q44">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="R44">
-        <v>-0.02399999999999991</v>
-      </c>
-      <c r="S44">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="T44">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="U44">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="V44">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="W44">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="Z44">
-        <v>0.3</v>
-      </c>
-      <c r="AA44">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AB44">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="AC44">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45">
-        <v>79</v>
-      </c>
-      <c r="H45">
-        <v>79</v>
-      </c>
-      <c r="I45">
-        <v>2630</v>
-      </c>
-      <c r="J45">
-        <v>9.9</v>
-      </c>
-      <c r="K45">
-        <v>16.5</v>
-      </c>
-      <c r="L45">
-        <v>0.599</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>9.9</v>
-      </c>
-      <c r="Q45">
-        <v>16.5</v>
-      </c>
-      <c r="R45">
-        <v>0.6</v>
-      </c>
-      <c r="S45">
-        <v>4</v>
-      </c>
-      <c r="T45">
-        <v>5.4</v>
-      </c>
-      <c r="U45">
-        <v>0.732</v>
-      </c>
-      <c r="V45">
-        <v>2.2</v>
-      </c>
-      <c r="W45">
-        <v>6.3</v>
-      </c>
-      <c r="X45">
-        <v>8.5</v>
-      </c>
-      <c r="Y45">
-        <v>3.4</v>
-      </c>
-      <c r="Z45">
-        <v>0.9</v>
-      </c>
-      <c r="AA45">
-        <v>2.2</v>
-      </c>
-      <c r="AB45">
-        <v>2.7</v>
-      </c>
-      <c r="AC45">
-        <v>3.3</v>
-      </c>
-      <c r="AD45">
-        <v>23.7</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46">
-        <v>19</v>
-      </c>
-      <c r="H46">
-        <v>19</v>
-      </c>
-      <c r="I46">
-        <v>610</v>
-      </c>
-      <c r="J46">
-        <v>9.9</v>
-      </c>
-      <c r="K46">
-        <v>17.7</v>
-      </c>
-      <c r="L46">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>9.9</v>
-      </c>
-      <c r="Q46">
-        <v>17.7</v>
-      </c>
-      <c r="R46">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S46">
-        <v>4.7</v>
-      </c>
-      <c r="T46">
-        <v>6.1</v>
-      </c>
-      <c r="U46">
-        <v>0.777</v>
-      </c>
-      <c r="V46">
-        <v>3</v>
-      </c>
-      <c r="W46">
-        <v>6.1</v>
-      </c>
-      <c r="X46">
-        <v>9.1</v>
-      </c>
-      <c r="Y46">
-        <v>4.5</v>
-      </c>
-      <c r="Z46">
-        <v>1.4</v>
-      </c>
-      <c r="AA46">
-        <v>2.1</v>
-      </c>
-      <c r="AB46">
-        <v>3.1</v>
-      </c>
-      <c r="AC46">
-        <v>4</v>
-      </c>
-      <c r="AD46">
-        <v>24.6</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="I47">
-        <v>-2020</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="L47">
-        <v>-0.03899999999999992</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="R47">
-        <v>-0.03999999999999992</v>
-      </c>
-      <c r="S47">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="T47">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="U47">
-        <v>0.04500000000000004</v>
-      </c>
-      <c r="V47">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="W47">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="X47">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="Y47">
-        <v>1.1</v>
-      </c>
-      <c r="Z47">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="AA47">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AB47">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AC47">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="AD47">
-        <v>0.9000000000000021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48">
-        <v>79</v>
-      </c>
-      <c r="H48">
-        <v>79</v>
-      </c>
-      <c r="I48">
-        <v>2629</v>
-      </c>
-      <c r="J48">
-        <v>10.3</v>
-      </c>
-      <c r="K48">
-        <v>18.3</v>
-      </c>
-      <c r="L48">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>10.3</v>
-      </c>
-      <c r="Q48">
-        <v>18.3</v>
-      </c>
-      <c r="R48">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="S48">
-        <v>4.6</v>
-      </c>
-      <c r="T48">
-        <v>6</v>
-      </c>
-      <c r="U48">
-        <v>0.765</v>
-      </c>
-      <c r="V48">
-        <v>1.8</v>
-      </c>
-      <c r="W48">
-        <v>4.7</v>
-      </c>
-      <c r="X48">
-        <v>6.5</v>
-      </c>
-      <c r="Y48">
-        <v>3.8</v>
-      </c>
-      <c r="Z48">
-        <v>0.9</v>
-      </c>
-      <c r="AA48">
-        <v>1.8</v>
-      </c>
-      <c r="AB48">
-        <v>2.8</v>
-      </c>
-      <c r="AC48">
-        <v>3.4</v>
-      </c>
-      <c r="AD48">
-        <v>25.3</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49">
-        <v>14</v>
-      </c>
-      <c r="H49">
-        <v>14</v>
-      </c>
-      <c r="I49">
-        <v>489</v>
-      </c>
-      <c r="J49">
-        <v>11.6</v>
-      </c>
-      <c r="K49">
-        <v>20.8</v>
-      </c>
-      <c r="L49">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>11.6</v>
-      </c>
-      <c r="Q49">
-        <v>20.8</v>
-      </c>
-      <c r="R49">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="S49">
-        <v>3.5</v>
-      </c>
-      <c r="T49">
-        <v>4.5</v>
-      </c>
-      <c r="U49">
-        <v>0.787</v>
-      </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
-      <c r="W49">
-        <v>4.2</v>
-      </c>
-      <c r="X49">
-        <v>6.1</v>
-      </c>
-      <c r="Y49">
-        <v>3.6</v>
-      </c>
-      <c r="Z49">
-        <v>1.1</v>
-      </c>
-      <c r="AA49">
-        <v>1.8</v>
-      </c>
-      <c r="AB49">
-        <v>3.1</v>
-      </c>
-      <c r="AC49">
-        <v>4</v>
-      </c>
-      <c r="AD49">
-        <v>26.7</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="I50">
-        <v>-2140</v>
-      </c>
-      <c r="J50">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="K50">
-        <v>2.5</v>
-      </c>
-      <c r="L50">
-        <v>-0.006999999999999895</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="Q50">
-        <v>2.5</v>
-      </c>
-      <c r="R50">
-        <v>-0.007999999999999896</v>
-      </c>
-      <c r="S50">
-        <v>-1.1</v>
-      </c>
-      <c r="T50">
-        <v>-1.5</v>
-      </c>
-      <c r="U50">
-        <v>0.02200000000000002</v>
-      </c>
-      <c r="V50">
-        <v>0.09999999999999987</v>
-      </c>
-      <c r="W50">
-        <v>-0.5</v>
-      </c>
-      <c r="X50">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Y50">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="Z50">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AC50">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AD50">
-        <v>1.399999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51">
-        <v>78</v>
-      </c>
-      <c r="H51">
-        <v>78</v>
-      </c>
-      <c r="I51">
-        <v>2441</v>
-      </c>
-      <c r="J51">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K51">
-        <v>14.6</v>
-      </c>
-      <c r="L51">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0.333</v>
-      </c>
-      <c r="P51">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q51">
-        <v>14.6</v>
-      </c>
-      <c r="R51">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="S51">
-        <v>3.6</v>
-      </c>
-      <c r="T51">
-        <v>5.1</v>
-      </c>
-      <c r="U51">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="V51">
-        <v>2.2</v>
-      </c>
-      <c r="W51">
-        <v>5.5</v>
-      </c>
-      <c r="X51">
-        <v>7.7</v>
-      </c>
-      <c r="Y51">
-        <v>3</v>
-      </c>
-      <c r="Z51">
-        <v>0.7</v>
-      </c>
-      <c r="AA51">
-        <v>1.4</v>
-      </c>
-      <c r="AB51">
-        <v>2.7</v>
-      </c>
-      <c r="AC51">
-        <v>3.6</v>
-      </c>
-      <c r="AD51">
-        <v>20.1</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52">
-        <v>18</v>
-      </c>
-      <c r="H52">
-        <v>18</v>
-      </c>
-      <c r="I52">
-        <v>559</v>
-      </c>
-      <c r="J52">
-        <v>8</v>
-      </c>
-      <c r="K52">
-        <v>15.1</v>
-      </c>
-      <c r="L52">
-        <v>0.53</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0.1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>8</v>
-      </c>
-      <c r="Q52">
-        <v>15</v>
-      </c>
-      <c r="R52">
-        <v>0.532</v>
-      </c>
-      <c r="S52">
-        <v>6.2</v>
-      </c>
-      <c r="T52">
-        <v>7.9</v>
-      </c>
-      <c r="U52">
-        <v>0.795</v>
-      </c>
-      <c r="V52">
-        <v>2.5</v>
-      </c>
-      <c r="W52">
-        <v>5.4</v>
-      </c>
-      <c r="X52">
-        <v>7.9</v>
-      </c>
-      <c r="Y52">
-        <v>2.3</v>
-      </c>
-      <c r="Z52">
-        <v>0.5</v>
-      </c>
-      <c r="AA52">
-        <v>2.3</v>
-      </c>
-      <c r="AB52">
-        <v>2.6</v>
-      </c>
-      <c r="AC52">
-        <v>3.6</v>
-      </c>
-      <c r="AD52">
-        <v>22.2</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="I53">
-        <v>-1882</v>
-      </c>
-      <c r="J53">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="K53">
-        <v>0.5</v>
-      </c>
-      <c r="L53">
-        <v>-0.03399999999999992</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0.1</v>
-      </c>
-      <c r="O53">
-        <v>-0.333</v>
-      </c>
-      <c r="P53">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="Q53">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="R53">
-        <v>-0.03299999999999992</v>
-      </c>
-      <c r="S53">
-        <v>2.6</v>
-      </c>
-      <c r="T53">
-        <v>2.800000000000001</v>
-      </c>
-      <c r="U53">
-        <v>0.08099999999999996</v>
-      </c>
-      <c r="V53">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="W53">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="X53">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="Y53">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="Z53">
-        <v>-0.2</v>
-      </c>
-      <c r="AA53">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB53">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>2.099999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54">
-        <v>80</v>
-      </c>
-      <c r="H54">
-        <v>80</v>
-      </c>
-      <c r="I54">
-        <v>2308</v>
-      </c>
-      <c r="J54">
-        <v>7.5</v>
-      </c>
-      <c r="K54">
-        <v>14.1</v>
-      </c>
-      <c r="L54">
-        <v>0.532</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>7.5</v>
-      </c>
-      <c r="Q54">
-        <v>14.1</v>
-      </c>
-      <c r="R54">
-        <v>0.532</v>
-      </c>
-      <c r="S54">
-        <v>3.2</v>
-      </c>
-      <c r="T54">
-        <v>4.2</v>
-      </c>
-      <c r="U54">
-        <v>0.762</v>
-      </c>
-      <c r="V54">
-        <v>1.8</v>
-      </c>
-      <c r="W54">
-        <v>5.6</v>
-      </c>
-      <c r="X54">
-        <v>7.5</v>
-      </c>
-      <c r="Y54">
-        <v>2.1</v>
-      </c>
-      <c r="Z54">
-        <v>0.7</v>
-      </c>
-      <c r="AA54">
-        <v>1.4</v>
-      </c>
-      <c r="AB54">
-        <v>2.5</v>
-      </c>
-      <c r="AC54">
-        <v>3.4</v>
-      </c>
-      <c r="AD54">
-        <v>18.2</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55">
-        <v>24</v>
-      </c>
-      <c r="H55">
-        <v>24</v>
-      </c>
-      <c r="I55">
-        <v>718</v>
-      </c>
-      <c r="J55">
-        <v>7.1</v>
-      </c>
-      <c r="K55">
-        <v>15.2</v>
-      </c>
-      <c r="L55">
-        <v>0.464</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0.1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>7.1</v>
-      </c>
-      <c r="Q55">
-        <v>15.1</v>
-      </c>
-      <c r="R55">
-        <v>0.467</v>
-      </c>
-      <c r="S55">
-        <v>2.8</v>
-      </c>
-      <c r="T55">
-        <v>3.6</v>
-      </c>
-      <c r="U55">
-        <v>0.789</v>
-      </c>
-      <c r="V55">
-        <v>2.5</v>
-      </c>
-      <c r="W55">
-        <v>4.1</v>
-      </c>
-      <c r="X55">
-        <v>6.6</v>
-      </c>
-      <c r="Y55">
-        <v>1.8</v>
-      </c>
-      <c r="Z55">
-        <v>0.8</v>
-      </c>
-      <c r="AA55">
-        <v>1.9</v>
-      </c>
-      <c r="AB55">
-        <v>2.3</v>
-      </c>
-      <c r="AC55">
-        <v>4.1</v>
-      </c>
-      <c r="AD55">
-        <v>16.9</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="I56">
-        <v>-1590</v>
-      </c>
-      <c r="J56">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="K56">
-        <v>1.1</v>
-      </c>
-      <c r="L56">
-        <v>-0.06800000000000006</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0.1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>-0.065</v>
-      </c>
-      <c r="S56">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="T56">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="U56">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="V56">
-        <v>0.7</v>
-      </c>
-      <c r="W56">
-        <v>-1.5</v>
-      </c>
-      <c r="X56">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="Y56">
-        <v>-0.3</v>
-      </c>
-      <c r="Z56">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA56">
-        <v>0.5</v>
-      </c>
-      <c r="AB56">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AC56">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="AD56">
-        <v>-1.300000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57">
-        <v>74</v>
-      </c>
-      <c r="H57">
-        <v>74</v>
-      </c>
-      <c r="I57">
-        <v>1695</v>
-      </c>
-      <c r="J57">
-        <v>6.6</v>
-      </c>
-      <c r="K57">
-        <v>14</v>
-      </c>
-      <c r="L57">
-        <v>0.475</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0.1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>6.6</v>
-      </c>
-      <c r="Q57">
-        <v>13.9</v>
-      </c>
-      <c r="R57">
-        <v>0.477</v>
-      </c>
-      <c r="S57">
-        <v>2.6</v>
-      </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
-      <c r="U57">
-        <v>0.7390000000000001</v>
-      </c>
-      <c r="V57">
-        <v>2.2</v>
-      </c>
-      <c r="W57">
-        <v>4.9</v>
-      </c>
-      <c r="X57">
-        <v>7.1</v>
-      </c>
-      <c r="Y57">
-        <v>1.6</v>
-      </c>
-      <c r="Z57">
-        <v>0.8</v>
-      </c>
-      <c r="AA57">
-        <v>1.8</v>
-      </c>
-      <c r="AB57">
-        <v>2</v>
-      </c>
-      <c r="AC57">
-        <v>4.2</v>
-      </c>
-      <c r="AD57">
-        <v>15.9</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58">
-        <v>15</v>
-      </c>
-      <c r="H58">
-        <v>15</v>
-      </c>
-      <c r="I58">
-        <v>351</v>
-      </c>
-      <c r="J58">
-        <v>7</v>
-      </c>
-      <c r="K58">
-        <v>15.1</v>
-      </c>
-      <c r="L58">
-        <v>0.463</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>7</v>
-      </c>
-      <c r="Q58">
-        <v>15.1</v>
-      </c>
-      <c r="R58">
-        <v>0.463</v>
-      </c>
-      <c r="S58">
-        <v>3.2</v>
-      </c>
-      <c r="T58">
-        <v>4.4</v>
-      </c>
-      <c r="U58">
-        <v>0.721</v>
-      </c>
-      <c r="V58">
-        <v>1.3</v>
-      </c>
-      <c r="W58">
-        <v>4.7</v>
-      </c>
-      <c r="X58">
-        <v>6.1</v>
-      </c>
-      <c r="Y58">
-        <v>1.9</v>
-      </c>
-      <c r="Z58">
-        <v>0.5</v>
-      </c>
-      <c r="AA58">
-        <v>1.1</v>
-      </c>
-      <c r="AB58">
-        <v>2.3</v>
-      </c>
-      <c r="AC58">
-        <v>4.4</v>
-      </c>
-      <c r="AD58">
-        <v>17.1</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="I59">
-        <v>-1344</v>
-      </c>
-      <c r="J59">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="K59">
-        <v>1.1</v>
-      </c>
-      <c r="L59">
-        <v>-0.01200000000000001</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>-0.1</v>
-      </c>
-      <c r="P59">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="Q59">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="R59">
-        <v>-0.01400000000000007</v>
-      </c>
-      <c r="S59">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="T59">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="U59">
-        <v>-0.01800000000000013</v>
-      </c>
-      <c r="V59">
-        <v>-0.9000000000000001</v>
-      </c>
-      <c r="W59">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="Z59">
-        <v>-0.3</v>
-      </c>
-      <c r="AA59">
-        <v>-0.7</v>
-      </c>
-      <c r="AB59">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AC59">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AD59">
-        <v>1.200000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60">
-        <v>1093</v>
-      </c>
-      <c r="H60">
-        <v>625</v>
-      </c>
-      <c r="I60">
-        <v>37492</v>
-      </c>
-      <c r="J60">
-        <v>9.5</v>
-      </c>
-      <c r="K60">
-        <v>16.8</v>
-      </c>
-      <c r="L60">
-        <v>0.5670000000000001</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0.05599999999999999</v>
-      </c>
-      <c r="P60">
-        <v>9.5</v>
-      </c>
-      <c r="Q60">
-        <v>16.8</v>
-      </c>
-      <c r="R60">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="S60">
-        <v>4.1</v>
-      </c>
-      <c r="T60">
-        <v>5.6</v>
-      </c>
-      <c r="U60">
-        <v>0.737</v>
-      </c>
-      <c r="V60">
-        <v>2.4</v>
-      </c>
-      <c r="W60">
-        <v>7.5</v>
-      </c>
-      <c r="X60">
-        <v>9.9</v>
-      </c>
-      <c r="Y60">
-        <v>3.5</v>
-      </c>
-      <c r="Z60">
-        <v>0.9</v>
-      </c>
-      <c r="AA60">
-        <v>2.6</v>
-      </c>
-      <c r="AB60">
-        <v>2.9</v>
-      </c>
-      <c r="AC60">
-        <v>3.1</v>
-      </c>
-      <c r="AD60">
-        <v>23.2</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61">
-        <v>180</v>
-      </c>
-      <c r="H61">
-        <v>90</v>
-      </c>
-      <c r="I61">
-        <v>6295</v>
-      </c>
-      <c r="J61">
-        <v>9.4</v>
-      </c>
-      <c r="K61">
-        <v>17.3</v>
-      </c>
-      <c r="L61">
-        <v>0.5429999999999999</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>9.4</v>
-      </c>
-      <c r="Q61">
-        <v>17.3</v>
-      </c>
-      <c r="R61">
-        <v>0.544</v>
-      </c>
-      <c r="S61">
-        <v>4.5</v>
-      </c>
-      <c r="T61">
-        <v>5.9</v>
-      </c>
-      <c r="U61">
-        <v>0.7559999999999999</v>
-      </c>
-      <c r="V61">
-        <v>2.5</v>
-      </c>
-      <c r="W61">
-        <v>6.2</v>
-      </c>
-      <c r="X61">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y61">
-        <v>3.1</v>
-      </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
-      <c r="AA61">
-        <v>2.5</v>
-      </c>
-      <c r="AB61">
-        <v>2.8</v>
-      </c>
-      <c r="AC61">
-        <v>3.6</v>
-      </c>
-      <c r="AD61">
-        <v>23.3</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="I62">
-        <v>-31197</v>
-      </c>
-      <c r="J62">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="K62">
-        <v>0.5</v>
-      </c>
-      <c r="L62">
-        <v>-0.02400000000000013</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>-0.05599999999999999</v>
-      </c>
-      <c r="P62">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Q62">
-        <v>0.5</v>
-      </c>
-      <c r="R62">
-        <v>-0.02399999999999991</v>
-      </c>
-      <c r="S62">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="T62">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="U62">
-        <v>0.01899999999999991</v>
-      </c>
-      <c r="V62">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="W62">
-        <v>-1.3</v>
-      </c>
-      <c r="X62">
-        <v>-1.200000000000001</v>
-      </c>
-      <c r="Y62">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="Z62">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="AA62">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AB62">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC62">
-        <v>0.5</v>
-      </c>
-      <c r="AD62">
-        <v>0.1000000000000014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63">
-        <v>467</v>
-      </c>
-      <c r="I63">
-        <v>19954</v>
-      </c>
-      <c r="J63">
-        <v>10.6</v>
-      </c>
-      <c r="K63">
-        <v>19.5</v>
-      </c>
-      <c r="L63">
-        <v>0.547</v>
-      </c>
-      <c r="P63">
-        <v>10.6</v>
-      </c>
-      <c r="Q63">
-        <v>19.5</v>
-      </c>
-      <c r="R63">
-        <v>0.547</v>
-      </c>
-      <c r="S63">
-        <v>4.3</v>
-      </c>
-      <c r="T63">
-        <v>6.2</v>
-      </c>
-      <c r="U63">
-        <v>0.695</v>
-      </c>
-      <c r="V63">
-        <v>2.8</v>
-      </c>
-      <c r="W63">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X63">
-        <v>12.9</v>
-      </c>
-      <c r="Y63">
-        <v>3.6</v>
-      </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
-        <v>2.8</v>
-      </c>
-      <c r="AC63">
-        <v>2.6</v>
-      </c>
-      <c r="AD63">
-        <v>25.6</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64">
-        <v>57</v>
-      </c>
-      <c r="I64">
-        <v>2556</v>
-      </c>
-      <c r="J64">
-        <v>10</v>
-      </c>
-      <c r="K64">
-        <v>19.7</v>
-      </c>
-      <c r="L64">
-        <v>0.51</v>
-      </c>
-      <c r="P64">
-        <v>10</v>
-      </c>
-      <c r="Q64">
-        <v>19.7</v>
-      </c>
-      <c r="R64">
-        <v>0.51</v>
-      </c>
-      <c r="S64">
-        <v>3.7</v>
-      </c>
-      <c r="T64">
-        <v>5.4</v>
-      </c>
-      <c r="U64">
-        <v>0.696</v>
-      </c>
-      <c r="V64">
-        <v>3.2</v>
-      </c>
-      <c r="W64">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X64">
-        <v>13.5</v>
-      </c>
-      <c r="Y64">
-        <v>3.2</v>
-      </c>
-      <c r="Z64">
-        <v>0.9</v>
-      </c>
-      <c r="AA64">
-        <v>1.9</v>
-      </c>
-      <c r="AC64">
-        <v>2.4</v>
-      </c>
-      <c r="AD64">
-        <v>23.8</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="I65">
-        <v>-17398</v>
-      </c>
-      <c r="J65">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="K65">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="L65">
-        <v>-0.03700000000000003</v>
-      </c>
-      <c r="P65">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="Q65">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="R65">
-        <v>-0.03700000000000003</v>
-      </c>
-      <c r="S65">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="T65">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="U65">
-        <v>0.001000000000000001</v>
-      </c>
-      <c r="V65">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="W65">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="X65">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="Y65">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="Z65">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="AA65">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="AC65">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AD65">
-        <v>-1.800000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66">
-        <v>1560</v>
-      </c>
-      <c r="H66">
-        <v>625</v>
-      </c>
-      <c r="I66">
-        <v>57446</v>
-      </c>
-      <c r="J66">
-        <v>9.9</v>
-      </c>
-      <c r="K66">
-        <v>17.7</v>
-      </c>
-      <c r="L66">
-        <v>0.5589999999999999</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0.05599999999999999</v>
-      </c>
-      <c r="P66">
-        <v>9.9</v>
-      </c>
-      <c r="Q66">
-        <v>17.7</v>
-      </c>
-      <c r="R66">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S66">
-        <v>4.2</v>
-      </c>
-      <c r="T66">
-        <v>5.8</v>
-      </c>
-      <c r="U66">
-        <v>0.721</v>
-      </c>
-      <c r="V66">
-        <v>2.4</v>
-      </c>
-      <c r="W66">
-        <v>7.7</v>
-      </c>
-      <c r="X66">
-        <v>10.9</v>
-      </c>
-      <c r="Y66">
-        <v>3.5</v>
-      </c>
-      <c r="Z66">
-        <v>1</v>
-      </c>
-      <c r="AA66">
-        <v>2.6</v>
-      </c>
-      <c r="AB66">
-        <v>2.9</v>
-      </c>
-      <c r="AC66">
-        <v>2.9</v>
-      </c>
-      <c r="AD66">
-        <v>24.1</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67">
-        <v>237</v>
-      </c>
-      <c r="H67">
-        <v>90</v>
-      </c>
-      <c r="I67">
-        <v>8851</v>
-      </c>
-      <c r="J67">
-        <v>9.6</v>
-      </c>
-      <c r="K67">
-        <v>18</v>
-      </c>
-      <c r="L67">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>9.6</v>
-      </c>
-      <c r="Q67">
-        <v>18</v>
-      </c>
-      <c r="R67">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="S67">
-        <v>4.3</v>
-      </c>
-      <c r="T67">
-        <v>5.8</v>
-      </c>
-      <c r="U67">
-        <v>0.74</v>
-      </c>
-      <c r="V67">
-        <v>2.6</v>
-      </c>
-      <c r="W67">
-        <v>6.5</v>
-      </c>
-      <c r="X67">
-        <v>10.1</v>
-      </c>
-      <c r="Y67">
-        <v>3.1</v>
-      </c>
-      <c r="Z67">
-        <v>1</v>
-      </c>
-      <c r="AA67">
-        <v>2.4</v>
-      </c>
-      <c r="AB67">
-        <v>2.8</v>
-      </c>
-      <c r="AC67">
-        <v>3.2</v>
-      </c>
-      <c r="AD67">
-        <v>23.4</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="I68">
-        <v>-48595</v>
-      </c>
-      <c r="J68">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="K68">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="L68">
-        <v>-0.02600000000000002</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>-0.05599999999999999</v>
-      </c>
-      <c r="P68">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Q68">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="R68">
-        <v>-0.02700000000000014</v>
-      </c>
-      <c r="S68">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0.01900000000000002</v>
-      </c>
-      <c r="V68">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="W68">
-        <v>-1.2</v>
-      </c>
-      <c r="X68">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="Y68">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AB68">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC68">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AD68">
-        <v>-0.7000000000000028</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2">
-        <v>81</v>
-      </c>
-      <c r="I2">
-        <v>3548</v>
-      </c>
-      <c r="J2">
-        <v>12.2</v>
-      </c>
-      <c r="K2">
-        <v>22.6</v>
-      </c>
-      <c r="L2">
-        <v>0.539</v>
-      </c>
-      <c r="P2">
-        <v>12.2</v>
-      </c>
-      <c r="Q2">
-        <v>22.6</v>
-      </c>
-      <c r="R2">
-        <v>0.539</v>
-      </c>
-      <c r="S2">
-        <v>3.8</v>
-      </c>
-      <c r="T2">
-        <v>5.4</v>
-      </c>
-      <c r="U2">
-        <v>0.7020000000000001</v>
-      </c>
-      <c r="V2">
-        <v>3.7</v>
-      </c>
-      <c r="W2">
-        <v>11.4</v>
-      </c>
-      <c r="X2">
-        <v>15.1</v>
-      </c>
-      <c r="Y2">
-        <v>5</v>
-      </c>
-      <c r="Z2">
-        <v>1.4</v>
-      </c>
-      <c r="AA2">
-        <v>3.6</v>
-      </c>
-      <c r="AC2">
-        <v>3.1</v>
-      </c>
-      <c r="AD2">
-        <v>28.1</v>
-      </c>
-      <c r="AG2">
-        <v>89</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>758</v>
-      </c>
-      <c r="J3">
-        <v>14.4</v>
-      </c>
-      <c r="K3">
-        <v>25.8</v>
-      </c>
-      <c r="L3">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="P3">
-        <v>14.4</v>
-      </c>
-      <c r="Q3">
-        <v>25.8</v>
-      </c>
-      <c r="R3">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="S3">
-        <v>4.3</v>
-      </c>
-      <c r="T3">
-        <v>5.8</v>
-      </c>
-      <c r="U3">
-        <v>0.736</v>
-      </c>
-      <c r="V3">
-        <v>4.3</v>
-      </c>
-      <c r="W3">
-        <v>11.9</v>
-      </c>
-      <c r="X3">
-        <v>16.2</v>
-      </c>
-      <c r="Y3">
-        <v>5</v>
-      </c>
-      <c r="Z3">
-        <v>1.3</v>
-      </c>
-      <c r="AA3">
-        <v>2.5</v>
-      </c>
-      <c r="AC3">
-        <v>2.6</v>
-      </c>
-      <c r="AD3">
-        <v>33</v>
-      </c>
-      <c r="AG3">
-        <v>90</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-2790</v>
-      </c>
-      <c r="J4">
-        <v>2.200000000000001</v>
-      </c>
-      <c r="K4">
-        <v>3.199999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.01800000000000002</v>
-      </c>
-      <c r="P4">
-        <v>2.200000000000001</v>
-      </c>
-      <c r="Q4">
-        <v>3.199999999999999</v>
-      </c>
-      <c r="R4">
-        <v>0.01800000000000002</v>
-      </c>
-      <c r="S4">
-        <v>0.5</v>
-      </c>
-      <c r="T4">
-        <v>0.3999999999999995</v>
-      </c>
-      <c r="U4">
-        <v>0.03399999999999992</v>
-      </c>
-      <c r="V4">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="W4">
-        <v>0.5</v>
-      </c>
-      <c r="X4">
-        <v>1.1</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>-0.09999999999999987</v>
-      </c>
-      <c r="AA4">
-        <v>-1.1</v>
-      </c>
-      <c r="AC4">
-        <v>-0.5</v>
-      </c>
-      <c r="AD4">
-        <v>4.899999999999999</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
-      </c>
-      <c r="I5">
-        <v>2747</v>
-      </c>
-      <c r="J5">
-        <v>13.9</v>
-      </c>
-      <c r="K5">
-        <v>27.1</v>
-      </c>
-      <c r="L5">
-        <v>0.513</v>
-      </c>
-      <c r="P5">
-        <v>13.9</v>
-      </c>
-      <c r="Q5">
-        <v>27.1</v>
-      </c>
-      <c r="R5">
-        <v>0.513</v>
-      </c>
-      <c r="S5">
-        <v>5.6</v>
-      </c>
-      <c r="T5">
-        <v>7.3</v>
-      </c>
-      <c r="U5">
-        <v>0.763</v>
-      </c>
-      <c r="V5">
-        <v>3.3</v>
-      </c>
-      <c r="W5">
-        <v>12.3</v>
-      </c>
-      <c r="X5">
-        <v>15.6</v>
-      </c>
-      <c r="Y5">
-        <v>4.5</v>
-      </c>
-      <c r="Z5">
-        <v>1.1</v>
-      </c>
-      <c r="AA5">
-        <v>3.6</v>
-      </c>
-      <c r="AC5">
-        <v>3.5</v>
-      </c>
-      <c r="AD5">
-        <v>33.4</v>
-      </c>
-      <c r="AG5">
-        <v>92</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7">
-        <v>82</v>
-      </c>
-      <c r="I7">
-        <v>3379</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>22.7</v>
-      </c>
-      <c r="L7">
-        <v>0.529</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>22.7</v>
-      </c>
-      <c r="R7">
-        <v>0.529</v>
-      </c>
-      <c r="S7">
-        <v>5.9</v>
-      </c>
-      <c r="T7">
-        <v>8.4</v>
-      </c>
-      <c r="U7">
-        <v>0.703</v>
-      </c>
-      <c r="V7">
-        <v>3.6</v>
-      </c>
-      <c r="W7">
-        <v>14.6</v>
-      </c>
-      <c r="X7">
-        <v>18.2</v>
-      </c>
-      <c r="Y7">
-        <v>5.4</v>
-      </c>
-      <c r="Z7">
-        <v>1.6</v>
-      </c>
-      <c r="AA7">
-        <v>4.4</v>
-      </c>
-      <c r="AC7">
-        <v>3.8</v>
-      </c>
-      <c r="AD7">
-        <v>29.9</v>
-      </c>
-      <c r="AG7">
-        <v>90</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9">
-        <v>82</v>
-      </c>
-      <c r="I9">
-        <v>3016</v>
-      </c>
-      <c r="J9">
-        <v>13.5</v>
-      </c>
-      <c r="K9">
-        <v>23.3</v>
-      </c>
-      <c r="L9">
-        <v>0.579</v>
-      </c>
-      <c r="P9">
-        <v>13.5</v>
-      </c>
-      <c r="Q9">
-        <v>23.3</v>
-      </c>
-      <c r="R9">
-        <v>0.579</v>
-      </c>
-      <c r="S9">
-        <v>5.7</v>
-      </c>
-      <c r="T9">
-        <v>8.1</v>
-      </c>
-      <c r="U9">
-        <v>0.701</v>
-      </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-      <c r="W9">
-        <v>12.5</v>
-      </c>
-      <c r="X9">
-        <v>16.6</v>
-      </c>
-      <c r="Y9">
-        <v>4.8</v>
-      </c>
-      <c r="Z9">
-        <v>1.5</v>
-      </c>
-      <c r="AA9">
-        <v>4</v>
-      </c>
-      <c r="AC9">
-        <v>4</v>
-      </c>
-      <c r="AD9">
-        <v>32.7</v>
-      </c>
-      <c r="AG9">
-        <v>92</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>467</v>
-      </c>
-      <c r="J10">
-        <v>14.6</v>
-      </c>
-      <c r="K10">
-        <v>24</v>
-      </c>
-      <c r="L10">
-        <v>0.607</v>
-      </c>
-      <c r="P10">
-        <v>14.6</v>
-      </c>
-      <c r="Q10">
-        <v>24</v>
-      </c>
-      <c r="R10">
-        <v>0.607</v>
-      </c>
-      <c r="S10">
-        <v>8.6</v>
-      </c>
-      <c r="T10">
-        <v>11.9</v>
-      </c>
-      <c r="U10">
-        <v>0.725</v>
-      </c>
-      <c r="V10">
-        <v>5.1</v>
-      </c>
-      <c r="W10">
-        <v>14.3</v>
-      </c>
-      <c r="X10">
-        <v>19.4</v>
-      </c>
-      <c r="Y10">
-        <v>4.5</v>
-      </c>
-      <c r="Z10">
-        <v>1.9</v>
-      </c>
-      <c r="AA10">
-        <v>3.8</v>
-      </c>
-      <c r="AC10">
-        <v>4.2</v>
-      </c>
-      <c r="AD10">
-        <v>37.8</v>
-      </c>
-      <c r="AG10">
-        <v>93</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>-2549</v>
-      </c>
-      <c r="J11">
-        <v>1.1</v>
-      </c>
-      <c r="K11">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="L11">
-        <v>0.02800000000000002</v>
-      </c>
-      <c r="P11">
-        <v>1.1</v>
-      </c>
-      <c r="Q11">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="R11">
-        <v>0.02800000000000002</v>
-      </c>
-      <c r="S11">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="T11">
-        <v>3.800000000000001</v>
-      </c>
-      <c r="U11">
-        <v>0.02400000000000002</v>
-      </c>
-      <c r="V11">
-        <v>1.1</v>
-      </c>
-      <c r="W11">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="X11">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="Y11">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="Z11">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AC11">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AD11">
-        <v>5.099999999999994</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12">
-        <v>62</v>
-      </c>
-      <c r="I12">
-        <v>2265</v>
-      </c>
-      <c r="J12">
-        <v>13.2</v>
-      </c>
-      <c r="K12">
-        <v>24.1</v>
-      </c>
-      <c r="L12">
-        <v>0.55</v>
-      </c>
-      <c r="P12">
-        <v>13.2</v>
-      </c>
-      <c r="Q12">
-        <v>24.1</v>
-      </c>
-      <c r="R12">
-        <v>0.55</v>
-      </c>
-      <c r="S12">
-        <v>5.5</v>
-      </c>
-      <c r="T12">
-        <v>7</v>
-      </c>
-      <c r="U12">
-        <v>0.7829999999999999</v>
-      </c>
-      <c r="V12">
-        <v>3.7</v>
-      </c>
-      <c r="W12">
-        <v>12.3</v>
-      </c>
-      <c r="X12">
-        <v>16</v>
-      </c>
-      <c r="Y12">
-        <v>5.4</v>
-      </c>
-      <c r="Z12">
-        <v>2.1</v>
-      </c>
-      <c r="AA12">
-        <v>3.7</v>
-      </c>
-      <c r="AB12">
-        <v>4.2</v>
-      </c>
-      <c r="AC12">
-        <v>3.6</v>
-      </c>
-      <c r="AD12">
-        <v>32</v>
-      </c>
-      <c r="AF12">
-        <v>113</v>
-      </c>
-      <c r="AG12">
-        <v>94</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>134</v>
-      </c>
-      <c r="J13">
-        <v>13.8</v>
-      </c>
-      <c r="K13">
-        <v>26.4</v>
-      </c>
-      <c r="L13">
-        <v>0.521</v>
-      </c>
-      <c r="P13">
-        <v>13.8</v>
-      </c>
-      <c r="Q13">
-        <v>26.4</v>
-      </c>
-      <c r="R13">
-        <v>0.521</v>
-      </c>
-      <c r="S13">
-        <v>1.8</v>
-      </c>
-      <c r="T13">
-        <v>3.3</v>
-      </c>
-      <c r="U13">
-        <v>0.556</v>
-      </c>
-      <c r="V13">
-        <v>5.1</v>
-      </c>
-      <c r="W13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X13">
-        <v>14.8</v>
-      </c>
-      <c r="Y13">
-        <v>4</v>
-      </c>
-      <c r="Z13">
-        <v>0.7</v>
-      </c>
-      <c r="AA13">
-        <v>4.3</v>
-      </c>
-      <c r="AB13">
-        <v>5.1</v>
-      </c>
-      <c r="AC13">
-        <v>5.1</v>
-      </c>
-      <c r="AD13">
-        <v>29.3</v>
-      </c>
-      <c r="AF13">
-        <v>104</v>
-      </c>
-      <c r="AG13">
-        <v>102</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>-2131</v>
-      </c>
-      <c r="J14">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="K14">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="L14">
-        <v>-0.02900000000000003</v>
-      </c>
-      <c r="P14">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="Q14">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="R14">
-        <v>-0.02900000000000003</v>
-      </c>
-      <c r="S14">
-        <v>-3.7</v>
-      </c>
-      <c r="T14">
-        <v>-3.7</v>
-      </c>
-      <c r="U14">
-        <v>-0.2269999999999999</v>
-      </c>
-      <c r="V14">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="W14">
-        <v>-2.5</v>
-      </c>
-      <c r="X14">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="Y14">
-        <v>-1.4</v>
-      </c>
-      <c r="Z14">
-        <v>-1.4</v>
-      </c>
-      <c r="AA14">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="AB14">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="AC14">
-        <v>1.5</v>
-      </c>
-      <c r="AD14">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="AF14">
-        <v>-9</v>
-      </c>
-      <c r="AG14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15">
-        <v>80</v>
-      </c>
-      <c r="I15">
-        <v>3157</v>
-      </c>
-      <c r="J15">
-        <v>11.2</v>
-      </c>
-      <c r="K15">
-        <v>19.3</v>
-      </c>
-      <c r="L15">
-        <v>0.5770000000000001</v>
-      </c>
-      <c r="P15">
-        <v>11.2</v>
-      </c>
-      <c r="Q15">
-        <v>19.3</v>
-      </c>
-      <c r="R15">
-        <v>0.5770000000000001</v>
-      </c>
-      <c r="S15">
-        <v>5</v>
-      </c>
-      <c r="T15">
-        <v>6.8</v>
-      </c>
-      <c r="U15">
-        <v>0.736</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <v>11.7</v>
-      </c>
-      <c r="X15">
-        <v>14.7</v>
-      </c>
-      <c r="Y15">
-        <v>6.2</v>
-      </c>
-      <c r="Z15">
-        <v>1.1</v>
-      </c>
-      <c r="AA15">
-        <v>4.5</v>
-      </c>
-      <c r="AB15">
-        <v>4</v>
-      </c>
-      <c r="AC15">
-        <v>3.3</v>
-      </c>
-      <c r="AD15">
-        <v>27.3</v>
-      </c>
-      <c r="AF15">
-        <v>115</v>
-      </c>
-      <c r="AG15">
-        <v>98</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="I16">
-        <v>367</v>
-      </c>
-      <c r="J16">
-        <v>11.4</v>
-      </c>
-      <c r="K16">
-        <v>19.7</v>
-      </c>
-      <c r="L16">
-        <v>0.579</v>
-      </c>
-      <c r="P16">
-        <v>11.4</v>
-      </c>
-      <c r="Q16">
-        <v>19.7</v>
-      </c>
-      <c r="R16">
-        <v>0.579</v>
-      </c>
-      <c r="S16">
-        <v>6.7</v>
-      </c>
-      <c r="T16">
-        <v>8</v>
-      </c>
-      <c r="U16">
-        <v>0.8390000000000001</v>
-      </c>
-      <c r="V16">
-        <v>2.3</v>
-      </c>
-      <c r="W16">
-        <v>10.7</v>
-      </c>
-      <c r="X16">
-        <v>13.1</v>
-      </c>
-      <c r="Y16">
-        <v>4.9</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>4.3</v>
-      </c>
-      <c r="AB16">
-        <v>3.8</v>
-      </c>
-      <c r="AC16">
-        <v>3.4</v>
-      </c>
-      <c r="AD16">
-        <v>29.5</v>
-      </c>
-      <c r="AF16">
-        <v>117</v>
-      </c>
-      <c r="AG16">
-        <v>102</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>-2790</v>
-      </c>
-      <c r="J17">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="K17">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="L17">
-        <v>0.001999999999999891</v>
-      </c>
-      <c r="P17">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="Q17">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="R17">
-        <v>0.001999999999999891</v>
-      </c>
-      <c r="S17">
-        <v>1.7</v>
-      </c>
-      <c r="T17">
-        <v>1.2</v>
-      </c>
-      <c r="U17">
-        <v>0.1030000000000001</v>
-      </c>
-      <c r="V17">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1.6</v>
-      </c>
-      <c r="Y17">
-        <v>-1.3</v>
-      </c>
-      <c r="Z17">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AB17">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AC17">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AD17">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="AF17">
-        <v>2</v>
-      </c>
-      <c r="AG17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18">
-        <v>82</v>
-      </c>
-      <c r="I18">
-        <v>3143</v>
-      </c>
-      <c r="J18">
-        <v>12.3</v>
-      </c>
-      <c r="K18">
-        <v>20.3</v>
-      </c>
-      <c r="L18">
-        <v>0.604</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>12.3</v>
-      </c>
-      <c r="Q18">
-        <v>20.3</v>
-      </c>
-      <c r="R18">
-        <v>0.604</v>
-      </c>
-      <c r="S18">
-        <v>5.3</v>
-      </c>
-      <c r="T18">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>0.765</v>
-      </c>
-      <c r="V18">
-        <v>2.8</v>
-      </c>
-      <c r="W18">
-        <v>10.2</v>
-      </c>
-      <c r="X18">
-        <v>13</v>
-      </c>
-      <c r="Y18">
-        <v>5.4</v>
-      </c>
-      <c r="Z18">
-        <v>1.2</v>
-      </c>
-      <c r="AA18">
-        <v>4.1</v>
-      </c>
-      <c r="AB18">
-        <v>4.4</v>
-      </c>
-      <c r="AC18">
-        <v>3.2</v>
-      </c>
-      <c r="AD18">
-        <v>29.8</v>
-      </c>
-      <c r="AF18">
-        <v>118</v>
-      </c>
-      <c r="AG18">
-        <v>100</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19">
-        <v>15</v>
-      </c>
-      <c r="I19">
-        <v>618</v>
-      </c>
-      <c r="J19">
-        <v>15.1</v>
-      </c>
-      <c r="K19">
-        <v>26.3</v>
-      </c>
-      <c r="L19">
-        <v>0.5720000000000001</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>15.1</v>
-      </c>
-      <c r="Q19">
-        <v>26.3</v>
-      </c>
-      <c r="R19">
-        <v>0.5720000000000001</v>
-      </c>
-      <c r="S19">
-        <v>6.3</v>
-      </c>
-      <c r="T19">
-        <v>8</v>
-      </c>
-      <c r="U19">
-        <v>0.79</v>
-      </c>
-      <c r="V19">
-        <v>3.9</v>
-      </c>
-      <c r="W19">
-        <v>9.9</v>
-      </c>
-      <c r="X19">
-        <v>13.8</v>
-      </c>
-      <c r="Y19">
-        <v>3.5</v>
-      </c>
-      <c r="Z19">
-        <v>1.3</v>
-      </c>
-      <c r="AA19">
-        <v>4.4</v>
-      </c>
-      <c r="AB19">
-        <v>4.2</v>
-      </c>
-      <c r="AC19">
-        <v>3.9</v>
-      </c>
-      <c r="AD19">
-        <v>36.4</v>
-      </c>
-      <c r="AF19">
-        <v>118</v>
-      </c>
-      <c r="AG19">
-        <v>99</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <v>-2525</v>
-      </c>
-      <c r="J20">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>-0.03199999999999992</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-      <c r="R20">
-        <v>-0.03199999999999992</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0.02500000000000002</v>
-      </c>
-      <c r="V20">
-        <v>1.1</v>
-      </c>
-      <c r="W20">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="X20">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="Y20">
-        <v>-1.9</v>
-      </c>
-      <c r="Z20">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA20">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="AB20">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AC20">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="AD20">
-        <v>6.599999999999998</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21">
-        <v>80</v>
-      </c>
-      <c r="I21">
-        <v>2976</v>
-      </c>
-      <c r="J21">
-        <v>13.1</v>
-      </c>
-      <c r="K21">
-        <v>22.9</v>
-      </c>
-      <c r="L21">
-        <v>0.574</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>13.1</v>
-      </c>
-      <c r="Q21">
-        <v>22.9</v>
-      </c>
-      <c r="R21">
-        <v>0.574</v>
-      </c>
-      <c r="S21">
-        <v>6.6</v>
-      </c>
-      <c r="T21">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U21">
-        <v>0.7659999999999999</v>
-      </c>
-      <c r="V21">
-        <v>3.1</v>
-      </c>
-      <c r="W21">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X21">
-        <v>12.9</v>
-      </c>
-      <c r="Y21">
-        <v>4.3</v>
-      </c>
-      <c r="Z21">
-        <v>0.9</v>
-      </c>
-      <c r="AA21">
-        <v>3.6</v>
-      </c>
-      <c r="AB21">
-        <v>3.9</v>
-      </c>
-      <c r="AC21">
-        <v>3.8</v>
-      </c>
-      <c r="AD21">
-        <v>32.9</v>
-      </c>
-      <c r="AF21">
-        <v>118</v>
-      </c>
-      <c r="AG21">
-        <v>101</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>134</v>
-      </c>
-      <c r="J22">
-        <v>11</v>
-      </c>
-      <c r="K22">
-        <v>23.9</v>
-      </c>
-      <c r="L22">
-        <v>0.462</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>11</v>
-      </c>
-      <c r="Q22">
-        <v>23.9</v>
-      </c>
-      <c r="R22">
-        <v>0.462</v>
-      </c>
-      <c r="S22">
-        <v>7.3</v>
-      </c>
-      <c r="T22">
-        <v>10.3</v>
-      </c>
-      <c r="U22">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="V22">
-        <v>4.8</v>
-      </c>
-      <c r="W22">
-        <v>13.6</v>
-      </c>
-      <c r="X22">
-        <v>18.4</v>
-      </c>
-      <c r="Y22">
-        <v>4.4</v>
-      </c>
-      <c r="Z22">
-        <v>1.1</v>
-      </c>
-      <c r="AA22">
-        <v>2.9</v>
-      </c>
-      <c r="AB22">
-        <v>4</v>
-      </c>
-      <c r="AC22">
-        <v>5.1</v>
-      </c>
-      <c r="AD22">
-        <v>29.4</v>
-      </c>
-      <c r="AF22">
-        <v>105</v>
-      </c>
-      <c r="AG22">
-        <v>99</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="I23">
-        <v>-2842</v>
-      </c>
-      <c r="J23">
-        <v>-2.1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>-0.1119999999999999</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>-2.1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>-0.1119999999999999</v>
-      </c>
-      <c r="S23">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="T23">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="U23">
-        <v>-0.05199999999999982</v>
-      </c>
-      <c r="V23">
-        <v>1.7</v>
-      </c>
-      <c r="W23">
-        <v>3.799999999999999</v>
-      </c>
-      <c r="X23">
-        <v>5.499999999999998</v>
-      </c>
-      <c r="Y23">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="Z23">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="AA23">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="AB23">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AC23">
-        <v>1.3</v>
-      </c>
-      <c r="AD23">
-        <v>-3.5</v>
-      </c>
-      <c r="AF23">
-        <v>-13</v>
-      </c>
-      <c r="AG23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24">
-        <v>76</v>
-      </c>
-      <c r="H24">
-        <v>76</v>
-      </c>
-      <c r="I24">
-        <v>2677</v>
-      </c>
-      <c r="J24">
-        <v>13.1</v>
-      </c>
-      <c r="K24">
-        <v>22.6</v>
-      </c>
-      <c r="L24">
-        <v>0.579</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0.1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>13.1</v>
-      </c>
-      <c r="Q24">
-        <v>22.6</v>
-      </c>
-      <c r="R24">
-        <v>0.58</v>
-      </c>
-      <c r="S24">
-        <v>5.4</v>
-      </c>
-      <c r="T24">
-        <v>7.7</v>
-      </c>
-      <c r="U24">
-        <v>0.706</v>
-      </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>8.5</v>
-      </c>
-      <c r="X24">
-        <v>11.5</v>
-      </c>
-      <c r="Y24">
-        <v>3.9</v>
-      </c>
-      <c r="Z24">
-        <v>1.1</v>
-      </c>
-      <c r="AA24">
-        <v>3.6</v>
-      </c>
-      <c r="AB24">
-        <v>4</v>
-      </c>
-      <c r="AC24">
-        <v>3.9</v>
-      </c>
-      <c r="AD24">
-        <v>31.6</v>
-      </c>
-      <c r="AF24">
-        <v>116</v>
-      </c>
-      <c r="AG24">
-        <v>104</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25">
-        <v>14</v>
-      </c>
-      <c r="I25">
-        <v>493</v>
-      </c>
-      <c r="J25">
-        <v>10.9</v>
-      </c>
-      <c r="K25">
-        <v>20.9</v>
-      </c>
-      <c r="L25">
-        <v>0.52</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>10.9</v>
-      </c>
-      <c r="Q25">
-        <v>20.9</v>
-      </c>
-      <c r="R25">
-        <v>0.52</v>
-      </c>
-      <c r="S25">
-        <v>5.2</v>
-      </c>
-      <c r="T25">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U25">
-        <v>0.632</v>
-      </c>
-      <c r="V25">
-        <v>3.1</v>
-      </c>
-      <c r="W25">
-        <v>8.1</v>
-      </c>
-      <c r="X25">
-        <v>11.2</v>
-      </c>
-      <c r="Y25">
-        <v>4.8</v>
-      </c>
-      <c r="Z25">
-        <v>1.3</v>
-      </c>
-      <c r="AA25">
-        <v>4.2</v>
-      </c>
-      <c r="AB25">
-        <v>3.9</v>
-      </c>
-      <c r="AC25">
-        <v>4.2</v>
-      </c>
-      <c r="AD25">
-        <v>26.9</v>
-      </c>
-      <c r="AF25">
-        <v>109</v>
-      </c>
-      <c r="AG25">
-        <v>104</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="I26">
-        <v>-2184</v>
-      </c>
-      <c r="J26">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="K26">
-        <v>-1.700000000000003</v>
-      </c>
-      <c r="L26">
-        <v>-0.05899999999999994</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>-0.1</v>
-      </c>
-      <c r="P26">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="Q26">
-        <v>-1.700000000000003</v>
-      </c>
-      <c r="R26">
-        <v>-0.05999999999999994</v>
-      </c>
-      <c r="S26">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="T26">
-        <v>0.4999999999999991</v>
-      </c>
-      <c r="U26">
-        <v>-0.07399999999999995</v>
-      </c>
-      <c r="V26">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="W26">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="X26">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Y26">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="Z26">
-        <v>0.2</v>
-      </c>
-      <c r="AA26">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AB26">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC26">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="AD26">
-        <v>-4.700000000000003</v>
-      </c>
-      <c r="AF26">
-        <v>-7</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27">
-        <v>79</v>
-      </c>
-      <c r="H27">
-        <v>79</v>
-      </c>
-      <c r="I27">
-        <v>2554</v>
-      </c>
-      <c r="J27">
-        <v>13.1</v>
-      </c>
-      <c r="K27">
-        <v>22.2</v>
-      </c>
-      <c r="L27">
-        <v>0.588</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>13.1</v>
-      </c>
-      <c r="Q27">
-        <v>22.2</v>
-      </c>
-      <c r="R27">
-        <v>0.589</v>
-      </c>
-      <c r="S27">
-        <v>5</v>
-      </c>
-      <c r="T27">
-        <v>6.7</v>
-      </c>
-      <c r="U27">
-        <v>0.7490000000000001</v>
-      </c>
-      <c r="V27">
-        <v>3</v>
-      </c>
-      <c r="W27">
-        <v>7.7</v>
-      </c>
-      <c r="X27">
-        <v>10.7</v>
-      </c>
-      <c r="Y27">
-        <v>3.6</v>
-      </c>
-      <c r="Z27">
-        <v>1.1</v>
-      </c>
-      <c r="AA27">
-        <v>3.1</v>
-      </c>
-      <c r="AB27">
-        <v>3.6</v>
-      </c>
-      <c r="AC27">
-        <v>4</v>
-      </c>
-      <c r="AD27">
-        <v>31.2</v>
-      </c>
-      <c r="AF27">
-        <v>118</v>
-      </c>
-      <c r="AG27">
-        <v>104</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
-      <c r="I28">
-        <v>588</v>
-      </c>
-      <c r="J28">
-        <v>13.2</v>
-      </c>
-      <c r="K28">
-        <v>23.2</v>
-      </c>
-      <c r="L28">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0.1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>13.2</v>
-      </c>
-      <c r="Q28">
-        <v>23.2</v>
-      </c>
-      <c r="R28">
-        <v>0.57</v>
-      </c>
-      <c r="S28">
-        <v>6.5</v>
-      </c>
-      <c r="T28">
-        <v>8.6</v>
-      </c>
-      <c r="U28">
-        <v>0.755</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>7.3</v>
-      </c>
-      <c r="X28">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Y28">
-        <v>3.4</v>
-      </c>
-      <c r="Z28">
-        <v>1.4</v>
-      </c>
-      <c r="AA28">
-        <v>4.5</v>
-      </c>
-      <c r="AB28">
-        <v>4</v>
-      </c>
-      <c r="AC28">
-        <v>4.9</v>
-      </c>
-      <c r="AD28">
-        <v>32.9</v>
-      </c>
-      <c r="AF28">
-        <v>114</v>
-      </c>
-      <c r="AG28">
-        <v>105</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="I29">
-        <v>-1966</v>
-      </c>
-      <c r="J29">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0.1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>-0.01900000000000002</v>
-      </c>
-      <c r="S29">
-        <v>1.5</v>
-      </c>
-      <c r="T29">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="U29">
-        <v>0.005999999999999894</v>
-      </c>
-      <c r="V29">
-        <v>-1</v>
-      </c>
-      <c r="W29">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="X29">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="Y29">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="Z29">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AA29">
-        <v>1.4</v>
-      </c>
-      <c r="AB29">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="AD29">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="AF29">
-        <v>-4</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30">
-        <v>80</v>
-      </c>
-      <c r="H30">
-        <v>80</v>
-      </c>
-      <c r="I30">
-        <v>2622</v>
-      </c>
-      <c r="J30">
-        <v>12.6</v>
-      </c>
-      <c r="K30">
-        <v>21.9</v>
-      </c>
-      <c r="L30">
-        <v>0.578</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>12.6</v>
-      </c>
-      <c r="Q30">
-        <v>21.8</v>
-      </c>
-      <c r="R30">
-        <v>0.579</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>7</v>
-      </c>
-      <c r="U30">
-        <v>0.723</v>
-      </c>
-      <c r="V30">
-        <v>3</v>
-      </c>
-      <c r="W30">
-        <v>7.4</v>
-      </c>
-      <c r="X30">
-        <v>10.4</v>
-      </c>
-      <c r="Y30">
-        <v>3.7</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AA30">
-        <v>2.5</v>
-      </c>
-      <c r="AB30">
-        <v>3.9</v>
-      </c>
-      <c r="AC30">
-        <v>3.7</v>
-      </c>
-      <c r="AD30">
-        <v>30.3</v>
-      </c>
-      <c r="AF30">
-        <v>115</v>
-      </c>
-      <c r="AG30">
-        <v>107</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31">
-        <v>21</v>
-      </c>
-      <c r="I31">
-        <v>767</v>
-      </c>
-      <c r="J31">
-        <v>12.9</v>
-      </c>
-      <c r="K31">
-        <v>23.2</v>
-      </c>
-      <c r="L31">
-        <v>0.555</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>12.9</v>
-      </c>
-      <c r="Q31">
-        <v>23.2</v>
-      </c>
-      <c r="R31">
-        <v>0.555</v>
-      </c>
-      <c r="S31">
-        <v>5.6</v>
-      </c>
-      <c r="T31">
-        <v>7.5</v>
-      </c>
-      <c r="U31">
-        <v>0.75</v>
-      </c>
-      <c r="V31">
-        <v>3.5</v>
-      </c>
-      <c r="W31">
-        <v>7.3</v>
-      </c>
-      <c r="X31">
-        <v>10.8</v>
-      </c>
-      <c r="Y31">
-        <v>4.9</v>
-      </c>
-      <c r="Z31">
-        <v>1.4</v>
-      </c>
-      <c r="AA31">
-        <v>2.8</v>
-      </c>
-      <c r="AB31">
-        <v>2.8</v>
-      </c>
-      <c r="AC31">
-        <v>4.4</v>
-      </c>
-      <c r="AD31">
-        <v>31.4</v>
-      </c>
-      <c r="AF31">
-        <v>121</v>
-      </c>
-      <c r="AG31">
-        <v>106</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="I32">
-        <v>-1855</v>
-      </c>
-      <c r="J32">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K32">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="L32">
-        <v>-0.02299999999999991</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="Q32">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="R32">
-        <v>-0.02399999999999991</v>
-      </c>
-      <c r="S32">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="T32">
-        <v>0.5</v>
-      </c>
-      <c r="U32">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="V32">
-        <v>0.5</v>
-      </c>
-      <c r="W32">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="X32">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="Y32">
-        <v>1.2</v>
-      </c>
-      <c r="Z32">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AA32">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AB32">
-        <v>-1.1</v>
-      </c>
-      <c r="AC32">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="AD32">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="AF32">
-        <v>6</v>
-      </c>
-      <c r="AG32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33">
-        <v>79</v>
-      </c>
-      <c r="H33">
-        <v>79</v>
-      </c>
-      <c r="I33">
-        <v>2630</v>
-      </c>
-      <c r="J33">
-        <v>12.8</v>
-      </c>
-      <c r="K33">
-        <v>21.3</v>
-      </c>
-      <c r="L33">
-        <v>0.599</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>12.8</v>
-      </c>
-      <c r="Q33">
-        <v>21.3</v>
-      </c>
-      <c r="R33">
-        <v>0.6</v>
-      </c>
-      <c r="S33">
-        <v>5.1</v>
-      </c>
-      <c r="T33">
-        <v>7</v>
-      </c>
-      <c r="U33">
-        <v>0.732</v>
-      </c>
-      <c r="V33">
-        <v>2.9</v>
-      </c>
-      <c r="W33">
-        <v>8.1</v>
-      </c>
-      <c r="X33">
-        <v>11</v>
-      </c>
-      <c r="Y33">
-        <v>4.4</v>
-      </c>
-      <c r="Z33">
-        <v>1.1</v>
-      </c>
-      <c r="AA33">
-        <v>2.9</v>
-      </c>
-      <c r="AB33">
-        <v>3.5</v>
-      </c>
-      <c r="AC33">
-        <v>4.2</v>
-      </c>
-      <c r="AD33">
-        <v>30.7</v>
-      </c>
-      <c r="AF33">
-        <v>120</v>
-      </c>
-      <c r="AG33">
-        <v>105</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34">
-        <v>19</v>
-      </c>
-      <c r="H34">
-        <v>19</v>
-      </c>
-      <c r="I34">
-        <v>610</v>
-      </c>
-      <c r="J34">
-        <v>12.2</v>
-      </c>
-      <c r="K34">
-        <v>21.9</v>
-      </c>
-      <c r="L34">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>12.2</v>
-      </c>
-      <c r="Q34">
-        <v>21.9</v>
-      </c>
-      <c r="R34">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S34">
-        <v>5.8</v>
-      </c>
-      <c r="T34">
-        <v>7.5</v>
-      </c>
-      <c r="U34">
-        <v>0.777</v>
-      </c>
-      <c r="V34">
-        <v>3.6</v>
-      </c>
-      <c r="W34">
-        <v>7.6</v>
-      </c>
-      <c r="X34">
-        <v>11.2</v>
-      </c>
-      <c r="Y34">
-        <v>5.5</v>
-      </c>
-      <c r="Z34">
-        <v>1.7</v>
-      </c>
-      <c r="AA34">
-        <v>2.6</v>
-      </c>
-      <c r="AB34">
-        <v>3.8</v>
-      </c>
-      <c r="AC34">
-        <v>4.9</v>
-      </c>
-      <c r="AD34">
-        <v>30.3</v>
-      </c>
-      <c r="AF34">
-        <v>118</v>
-      </c>
-      <c r="AG34">
-        <v>105</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="I35">
-        <v>-2020</v>
-      </c>
-      <c r="J35">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="K35">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="L35">
-        <v>-0.03899999999999992</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="Q35">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="R35">
-        <v>-0.03999999999999992</v>
-      </c>
-      <c r="S35">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="T35">
-        <v>0.5</v>
-      </c>
-      <c r="U35">
-        <v>0.04500000000000004</v>
-      </c>
-      <c r="V35">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="W35">
-        <v>-0.5</v>
-      </c>
-      <c r="X35">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="Y35">
-        <v>1.1</v>
-      </c>
-      <c r="Z35">
-        <v>0.5999999999999999</v>
-      </c>
-      <c r="AA35">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AB35">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AC35">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="AD35">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="AF35">
-        <v>-2</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36">
-        <v>79</v>
-      </c>
-      <c r="H36">
-        <v>79</v>
-      </c>
-      <c r="I36">
-        <v>2629</v>
-      </c>
-      <c r="J36">
-        <v>13.4</v>
-      </c>
-      <c r="K36">
-        <v>23.8</v>
-      </c>
-      <c r="L36">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>13.4</v>
-      </c>
-      <c r="Q36">
-        <v>23.7</v>
-      </c>
-      <c r="R36">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="S36">
-        <v>6</v>
-      </c>
-      <c r="T36">
-        <v>7.8</v>
-      </c>
-      <c r="U36">
-        <v>0.765</v>
-      </c>
-      <c r="V36">
-        <v>2.4</v>
-      </c>
-      <c r="W36">
-        <v>6.1</v>
-      </c>
-      <c r="X36">
-        <v>8.5</v>
-      </c>
-      <c r="Y36">
-        <v>5</v>
-      </c>
-      <c r="Z36">
-        <v>1.2</v>
-      </c>
-      <c r="AA36">
-        <v>2.3</v>
-      </c>
-      <c r="AB36">
-        <v>3.6</v>
-      </c>
-      <c r="AC36">
-        <v>4.4</v>
-      </c>
-      <c r="AD36">
-        <v>32.8</v>
-      </c>
-      <c r="AF36">
-        <v>118</v>
-      </c>
-      <c r="AG36">
-        <v>106</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37">
-        <v>14</v>
-      </c>
-      <c r="H37">
-        <v>14</v>
-      </c>
-      <c r="I37">
-        <v>489</v>
-      </c>
-      <c r="J37">
-        <v>15.4</v>
-      </c>
-      <c r="K37">
-        <v>27.7</v>
-      </c>
-      <c r="L37">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>15.4</v>
-      </c>
-      <c r="Q37">
-        <v>27.7</v>
-      </c>
-      <c r="R37">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="S37">
-        <v>4.7</v>
-      </c>
-      <c r="T37">
-        <v>6</v>
-      </c>
-      <c r="U37">
-        <v>0.787</v>
-      </c>
-      <c r="V37">
-        <v>2.6</v>
-      </c>
-      <c r="W37">
-        <v>5.6</v>
-      </c>
-      <c r="X37">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y37">
-        <v>4.8</v>
-      </c>
-      <c r="Z37">
-        <v>1.5</v>
-      </c>
-      <c r="AA37">
-        <v>2.4</v>
-      </c>
-      <c r="AB37">
-        <v>4.1</v>
-      </c>
-      <c r="AC37">
-        <v>5.3</v>
-      </c>
-      <c r="AD37">
-        <v>35.6</v>
-      </c>
-      <c r="AF37">
-        <v>113</v>
-      </c>
-      <c r="AG37">
-        <v>107</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="I38">
-        <v>-2140</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="L38">
-        <v>-0.006999999999999895</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>2</v>
-      </c>
-      <c r="Q38">
-        <v>4</v>
-      </c>
-      <c r="R38">
-        <v>-0.007999999999999896</v>
-      </c>
-      <c r="S38">
-        <v>-1.3</v>
-      </c>
-      <c r="T38">
-        <v>-1.8</v>
-      </c>
-      <c r="U38">
-        <v>0.02200000000000002</v>
-      </c>
-      <c r="V38">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="W38">
-        <v>-0.5</v>
-      </c>
-      <c r="X38">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Y38">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="Z38">
-        <v>0.3</v>
-      </c>
-      <c r="AA38">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AB38">
-        <v>0.4999999999999996</v>
-      </c>
-      <c r="AC38">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="AD38">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="AF38">
-        <v>-5</v>
-      </c>
-      <c r="AG38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39">
-        <v>78</v>
-      </c>
-      <c r="H39">
-        <v>78</v>
-      </c>
-      <c r="I39">
-        <v>2441</v>
-      </c>
-      <c r="J39">
-        <v>10.8</v>
-      </c>
-      <c r="K39">
-        <v>19.2</v>
-      </c>
-      <c r="L39">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0.1</v>
-      </c>
-      <c r="O39">
-        <v>0.333</v>
-      </c>
-      <c r="P39">
-        <v>10.8</v>
-      </c>
-      <c r="Q39">
-        <v>19.2</v>
-      </c>
-      <c r="R39">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="S39">
-        <v>4.7</v>
-      </c>
-      <c r="T39">
-        <v>6.6</v>
-      </c>
-      <c r="U39">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="V39">
-        <v>2.9</v>
-      </c>
-      <c r="W39">
-        <v>7.2</v>
-      </c>
-      <c r="X39">
-        <v>10.1</v>
-      </c>
-      <c r="Y39">
-        <v>3.9</v>
-      </c>
-      <c r="Z39">
-        <v>0.9</v>
-      </c>
-      <c r="AA39">
-        <v>1.9</v>
-      </c>
-      <c r="AB39">
-        <v>3.6</v>
-      </c>
-      <c r="AC39">
-        <v>4.7</v>
-      </c>
-      <c r="AD39">
-        <v>26.4</v>
-      </c>
-      <c r="AF39">
-        <v>114</v>
-      </c>
-      <c r="AG39">
-        <v>107</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40">
-        <v>18</v>
-      </c>
-      <c r="H40">
-        <v>18</v>
-      </c>
-      <c r="I40">
-        <v>559</v>
-      </c>
-      <c r="J40">
-        <v>10.6</v>
-      </c>
-      <c r="K40">
-        <v>20</v>
-      </c>
-      <c r="L40">
-        <v>0.53</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>10.6</v>
-      </c>
-      <c r="Q40">
-        <v>19.9</v>
-      </c>
-      <c r="R40">
-        <v>0.532</v>
-      </c>
-      <c r="S40">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="T40">
-        <v>10.4</v>
-      </c>
-      <c r="U40">
-        <v>0.795</v>
-      </c>
-      <c r="V40">
-        <v>3.3</v>
-      </c>
-      <c r="W40">
-        <v>7.2</v>
-      </c>
-      <c r="X40">
-        <v>10.5</v>
-      </c>
-      <c r="Y40">
-        <v>3.1</v>
-      </c>
-      <c r="Z40">
-        <v>0.7</v>
-      </c>
-      <c r="AA40">
-        <v>3</v>
-      </c>
-      <c r="AB40">
-        <v>3.4</v>
-      </c>
-      <c r="AC40">
-        <v>4.8</v>
-      </c>
-      <c r="AD40">
-        <v>29.5</v>
-      </c>
-      <c r="AF40">
-        <v>119</v>
-      </c>
-      <c r="AG40">
-        <v>108</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="I41">
-        <v>-1882</v>
-      </c>
-      <c r="J41">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="K41">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="L41">
-        <v>-0.03399999999999992</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>-0.333</v>
-      </c>
-      <c r="P41">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="Q41">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="R41">
-        <v>-0.03299999999999992</v>
-      </c>
-      <c r="S41">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="T41">
-        <v>3.800000000000001</v>
-      </c>
-      <c r="U41">
-        <v>0.08099999999999996</v>
-      </c>
-      <c r="V41">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="Y41">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="Z41">
-        <v>-0.2000000000000001</v>
-      </c>
-      <c r="AA41">
-        <v>1.1</v>
-      </c>
-      <c r="AB41">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AC41">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="AD41">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="AF41">
-        <v>5</v>
-      </c>
-      <c r="AG41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42">
-        <v>80</v>
-      </c>
-      <c r="H42">
-        <v>80</v>
-      </c>
-      <c r="I42">
-        <v>2308</v>
-      </c>
-      <c r="J42">
-        <v>10.1</v>
-      </c>
-      <c r="K42">
-        <v>19</v>
-      </c>
-      <c r="L42">
-        <v>0.532</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>10.1</v>
-      </c>
-      <c r="Q42">
-        <v>18.9</v>
-      </c>
-      <c r="R42">
-        <v>0.532</v>
-      </c>
-      <c r="S42">
-        <v>4.3</v>
-      </c>
-      <c r="T42">
-        <v>5.6</v>
-      </c>
-      <c r="U42">
-        <v>0.762</v>
-      </c>
-      <c r="V42">
-        <v>2.5</v>
-      </c>
-      <c r="W42">
-        <v>7.6</v>
-      </c>
-      <c r="X42">
-        <v>10</v>
-      </c>
-      <c r="Y42">
-        <v>2.8</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
-        <v>1.9</v>
-      </c>
-      <c r="AB42">
-        <v>3.3</v>
-      </c>
-      <c r="AC42">
-        <v>4.5</v>
-      </c>
-      <c r="AD42">
-        <v>24.4</v>
-      </c>
-      <c r="AF42">
-        <v>109</v>
-      </c>
-      <c r="AG42">
-        <v>107</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43">
-        <v>24</v>
-      </c>
-      <c r="H43">
-        <v>24</v>
-      </c>
-      <c r="I43">
-        <v>718</v>
-      </c>
-      <c r="J43">
-        <v>10.2</v>
-      </c>
-      <c r="K43">
-        <v>22</v>
-      </c>
-      <c r="L43">
-        <v>0.464</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0.1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>10.2</v>
-      </c>
-      <c r="Q43">
-        <v>21.8</v>
-      </c>
-      <c r="R43">
-        <v>0.467</v>
-      </c>
-      <c r="S43">
-        <v>4</v>
-      </c>
-      <c r="T43">
-        <v>5.1</v>
-      </c>
-      <c r="U43">
-        <v>0.789</v>
-      </c>
-      <c r="V43">
-        <v>3.5</v>
-      </c>
-      <c r="W43">
-        <v>5.9</v>
-      </c>
-      <c r="X43">
-        <v>9.5</v>
-      </c>
-      <c r="Y43">
-        <v>2.6</v>
-      </c>
-      <c r="Z43">
-        <v>1.1</v>
-      </c>
-      <c r="AA43">
-        <v>2.7</v>
-      </c>
-      <c r="AB43">
-        <v>3.3</v>
-      </c>
-      <c r="AC43">
-        <v>5.9</v>
-      </c>
-      <c r="AD43">
-        <v>24.4</v>
-      </c>
-      <c r="AF43">
-        <v>103</v>
-      </c>
-      <c r="AG43">
-        <v>111</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="I44">
-        <v>-1590</v>
-      </c>
-      <c r="J44">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
-      <c r="L44">
-        <v>-0.06800000000000006</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0.1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="Q44">
-        <v>2.900000000000002</v>
-      </c>
-      <c r="R44">
-        <v>-0.065</v>
-      </c>
-      <c r="S44">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="T44">
-        <v>-0.5</v>
-      </c>
-      <c r="U44">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="X44">
-        <v>-0.5</v>
-      </c>
-      <c r="Y44">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="Z44">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA44">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>1.4</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>-6</v>
-      </c>
-      <c r="AG44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45">
-        <v>74</v>
-      </c>
-      <c r="H45">
-        <v>74</v>
-      </c>
-      <c r="I45">
-        <v>1695</v>
-      </c>
-      <c r="J45">
-        <v>8.9</v>
-      </c>
-      <c r="K45">
-        <v>18.6</v>
-      </c>
-      <c r="L45">
-        <v>0.475</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0.1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>8.9</v>
-      </c>
-      <c r="Q45">
-        <v>18.6</v>
-      </c>
-      <c r="R45">
-        <v>0.477</v>
-      </c>
-      <c r="S45">
-        <v>3.5</v>
-      </c>
-      <c r="T45">
-        <v>4.7</v>
-      </c>
-      <c r="U45">
-        <v>0.7390000000000001</v>
-      </c>
-      <c r="V45">
-        <v>2.9</v>
-      </c>
-      <c r="W45">
-        <v>6.5</v>
-      </c>
-      <c r="X45">
-        <v>9.4</v>
-      </c>
-      <c r="Y45">
-        <v>2.1</v>
-      </c>
-      <c r="Z45">
-        <v>1.1</v>
-      </c>
-      <c r="AA45">
-        <v>2.4</v>
-      </c>
-      <c r="AB45">
-        <v>2.7</v>
-      </c>
-      <c r="AC45">
-        <v>5.5</v>
-      </c>
-      <c r="AD45">
-        <v>21.2</v>
-      </c>
-      <c r="AF45">
-        <v>104</v>
-      </c>
-      <c r="AG45">
-        <v>107</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46">
-        <v>15</v>
-      </c>
-      <c r="H46">
-        <v>15</v>
-      </c>
-      <c r="I46">
-        <v>351</v>
-      </c>
-      <c r="J46">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K46">
-        <v>21.1</v>
-      </c>
-      <c r="L46">
-        <v>0.463</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q46">
-        <v>21.1</v>
-      </c>
-      <c r="R46">
-        <v>0.463</v>
-      </c>
-      <c r="S46">
-        <v>4.4</v>
-      </c>
-      <c r="T46">
-        <v>6.2</v>
-      </c>
-      <c r="U46">
-        <v>0.721</v>
-      </c>
-      <c r="V46">
-        <v>1.9</v>
-      </c>
-      <c r="W46">
-        <v>6.6</v>
-      </c>
-      <c r="X46">
-        <v>8.5</v>
-      </c>
-      <c r="Y46">
-        <v>2.7</v>
-      </c>
-      <c r="Z46">
-        <v>0.7</v>
-      </c>
-      <c r="AA46">
-        <v>1.6</v>
-      </c>
-      <c r="AB46">
-        <v>3.2</v>
-      </c>
-      <c r="AC46">
-        <v>6.2</v>
-      </c>
-      <c r="AD46">
-        <v>23.9</v>
-      </c>
-      <c r="AF46">
-        <v>101</v>
-      </c>
-      <c r="AG46">
-        <v>112</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="I47">
-        <v>-1344</v>
-      </c>
-      <c r="J47">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="K47">
-        <v>2.5</v>
-      </c>
-      <c r="L47">
-        <v>-0.01200000000000001</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>-0.1</v>
-      </c>
-      <c r="P47">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="Q47">
-        <v>2.5</v>
-      </c>
-      <c r="R47">
-        <v>-0.01400000000000007</v>
-      </c>
-      <c r="S47">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="T47">
-        <v>1.5</v>
-      </c>
-      <c r="U47">
-        <v>-0.01800000000000013</v>
-      </c>
-      <c r="V47">
-        <v>-1</v>
-      </c>
-      <c r="W47">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="X47">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="Y47">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="Z47">
-        <v>-0.4000000000000001</v>
-      </c>
-      <c r="AA47">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AB47">
-        <v>0.5</v>
-      </c>
-      <c r="AC47">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="AD47">
-        <v>2.699999999999999</v>
-      </c>
-      <c r="AF47">
-        <v>-3</v>
-      </c>
-      <c r="AG47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48">
-        <v>1093</v>
-      </c>
-      <c r="H48">
-        <v>625</v>
-      </c>
-      <c r="I48">
-        <v>37492</v>
-      </c>
-      <c r="J48">
-        <v>12.3</v>
-      </c>
-      <c r="K48">
-        <v>21.6</v>
-      </c>
-      <c r="L48">
-        <v>0.5670000000000001</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0.05599999999999999</v>
-      </c>
-      <c r="P48">
-        <v>12.3</v>
-      </c>
-      <c r="Q48">
-        <v>21.6</v>
-      </c>
-      <c r="R48">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="S48">
-        <v>5.3</v>
-      </c>
-      <c r="T48">
-        <v>7.2</v>
-      </c>
-      <c r="U48">
-        <v>0.737</v>
-      </c>
-      <c r="V48">
-        <v>3.1</v>
-      </c>
-      <c r="W48">
-        <v>9.6</v>
-      </c>
-      <c r="X48">
-        <v>12.7</v>
-      </c>
-      <c r="Y48">
-        <v>4.5</v>
-      </c>
-      <c r="Z48">
-        <v>1.2</v>
-      </c>
-      <c r="AA48">
-        <v>3.3</v>
-      </c>
-      <c r="AB48">
-        <v>3.1</v>
-      </c>
-      <c r="AC48">
-        <v>4</v>
-      </c>
-      <c r="AD48">
-        <v>29.8</v>
-      </c>
-      <c r="AF48">
-        <v>115</v>
-      </c>
-      <c r="AG48">
-        <v>101</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49">
-        <v>180</v>
-      </c>
-      <c r="H49">
-        <v>90</v>
-      </c>
-      <c r="I49">
-        <v>6295</v>
-      </c>
-      <c r="J49">
-        <v>12.5</v>
-      </c>
-      <c r="K49">
-        <v>22.9</v>
-      </c>
-      <c r="L49">
-        <v>0.5429999999999999</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>12.5</v>
-      </c>
-      <c r="Q49">
-        <v>22.9</v>
-      </c>
-      <c r="R49">
-        <v>0.544</v>
-      </c>
-      <c r="S49">
-        <v>5.9</v>
-      </c>
-      <c r="T49">
-        <v>7.9</v>
-      </c>
-      <c r="U49">
-        <v>0.7559999999999999</v>
-      </c>
-      <c r="V49">
-        <v>3.3</v>
-      </c>
-      <c r="W49">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X49">
-        <v>11.6</v>
-      </c>
-      <c r="Y49">
-        <v>4.1</v>
-      </c>
-      <c r="Z49">
-        <v>1.3</v>
-      </c>
-      <c r="AA49">
-        <v>3.3</v>
-      </c>
-      <c r="AB49">
-        <v>3.4</v>
-      </c>
-      <c r="AC49">
-        <v>4.7</v>
-      </c>
-      <c r="AD49">
-        <v>30.9</v>
-      </c>
-      <c r="AF49">
-        <v>114</v>
-      </c>
-      <c r="AG49">
-        <v>105</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="I50">
-        <v>-31197</v>
-      </c>
-      <c r="J50">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K50">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="L50">
-        <v>-0.02400000000000013</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>-0.05599999999999999</v>
-      </c>
-      <c r="P50">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="Q50">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="R50">
-        <v>-0.02399999999999991</v>
-      </c>
-      <c r="S50">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="T50">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="U50">
-        <v>0.01899999999999991</v>
-      </c>
-      <c r="V50">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="W50">
-        <v>-1.4</v>
-      </c>
-      <c r="X50">
-        <v>-1.1</v>
-      </c>
-      <c r="Y50">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="Z50">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AC50">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="AD50">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="AF50">
-        <v>-1</v>
-      </c>
-      <c r="AG50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51">
-        <v>146</v>
-      </c>
-      <c r="I51">
-        <v>6295</v>
-      </c>
-      <c r="J51">
-        <v>12.9</v>
-      </c>
-      <c r="K51">
-        <v>24.5</v>
-      </c>
-      <c r="L51">
-        <v>0.526</v>
-      </c>
-      <c r="P51">
-        <v>12.9</v>
-      </c>
-      <c r="Q51">
-        <v>24.5</v>
-      </c>
-      <c r="R51">
-        <v>0.526</v>
-      </c>
-      <c r="S51">
-        <v>4.5</v>
-      </c>
-      <c r="T51">
-        <v>6.2</v>
-      </c>
-      <c r="U51">
-        <v>0.733</v>
-      </c>
-      <c r="V51">
-        <v>3.5</v>
-      </c>
-      <c r="W51">
-        <v>11.8</v>
-      </c>
-      <c r="X51">
-        <v>15.3</v>
-      </c>
-      <c r="Y51">
-        <v>4.8</v>
-      </c>
-      <c r="Z51">
-        <v>1.3</v>
-      </c>
-      <c r="AA51">
-        <v>3.6</v>
-      </c>
-      <c r="AC51">
-        <v>3.2</v>
-      </c>
-      <c r="AD51">
-        <v>30.4</v>
-      </c>
-      <c r="AG51">
-        <v>90</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52">
-        <v>16</v>
-      </c>
-      <c r="I52">
-        <v>758</v>
-      </c>
-      <c r="J52">
-        <v>14.4</v>
-      </c>
-      <c r="K52">
-        <v>25.8</v>
-      </c>
-      <c r="L52">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="P52">
-        <v>14.4</v>
-      </c>
-      <c r="Q52">
-        <v>25.8</v>
-      </c>
-      <c r="R52">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="S52">
-        <v>4.3</v>
-      </c>
-      <c r="T52">
-        <v>5.8</v>
-      </c>
-      <c r="U52">
-        <v>0.736</v>
-      </c>
-      <c r="V52">
-        <v>4.3</v>
-      </c>
-      <c r="W52">
-        <v>11.9</v>
-      </c>
-      <c r="X52">
-        <v>16.2</v>
-      </c>
-      <c r="Y52">
-        <v>5</v>
-      </c>
-      <c r="Z52">
-        <v>1.3</v>
-      </c>
-      <c r="AA52">
-        <v>2.5</v>
-      </c>
-      <c r="AC52">
-        <v>2.6</v>
-      </c>
-      <c r="AD52">
-        <v>33</v>
-      </c>
-      <c r="AG52">
-        <v>90</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="I53">
-        <v>-5537</v>
-      </c>
-      <c r="J53">
-        <v>1.5</v>
-      </c>
-      <c r="K53">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="L53">
-        <v>0.03100000000000003</v>
-      </c>
-      <c r="P53">
-        <v>1.5</v>
-      </c>
-      <c r="Q53">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="R53">
-        <v>0.03100000000000003</v>
-      </c>
-      <c r="S53">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="T53">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="U53">
-        <v>0.003000000000000003</v>
-      </c>
-      <c r="V53">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="W53">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="X53">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="Y53">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>-1.1</v>
-      </c>
-      <c r="AC53">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="AD53">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54">
-        <v>1239</v>
-      </c>
-      <c r="H54">
-        <v>625</v>
-      </c>
-      <c r="I54">
-        <v>43787</v>
-      </c>
-      <c r="J54">
-        <v>12.4</v>
-      </c>
-      <c r="K54">
-        <v>22</v>
-      </c>
-      <c r="L54">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0.05599999999999999</v>
-      </c>
-      <c r="P54">
-        <v>12.4</v>
-      </c>
-      <c r="Q54">
-        <v>22</v>
-      </c>
-      <c r="R54">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="S54">
-        <v>5.2</v>
-      </c>
-      <c r="T54">
-        <v>7.1</v>
-      </c>
-      <c r="U54">
-        <v>0.736</v>
-      </c>
-      <c r="V54">
-        <v>3.1</v>
-      </c>
-      <c r="W54">
-        <v>9.9</v>
-      </c>
-      <c r="X54">
-        <v>13.1</v>
-      </c>
-      <c r="Y54">
-        <v>4.5</v>
-      </c>
-      <c r="Z54">
-        <v>1.2</v>
-      </c>
-      <c r="AA54">
-        <v>3.4</v>
-      </c>
-      <c r="AB54">
-        <v>2.7</v>
-      </c>
-      <c r="AC54">
-        <v>3.9</v>
-      </c>
-      <c r="AD54">
-        <v>29.9</v>
-      </c>
-      <c r="AF54">
-        <v>115</v>
-      </c>
-      <c r="AG54">
-        <v>99</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55">
-        <v>196</v>
-      </c>
-      <c r="H55">
-        <v>90</v>
-      </c>
-      <c r="I55">
-        <v>7053</v>
-      </c>
-      <c r="J55">
-        <v>12.7</v>
-      </c>
-      <c r="K55">
-        <v>23.2</v>
-      </c>
-      <c r="L55">
-        <v>0.545</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>12.7</v>
-      </c>
-      <c r="Q55">
-        <v>23.2</v>
-      </c>
-      <c r="R55">
-        <v>0.546</v>
-      </c>
-      <c r="S55">
-        <v>5.8</v>
-      </c>
-      <c r="T55">
-        <v>7.7</v>
-      </c>
-      <c r="U55">
-        <v>0.754</v>
-      </c>
-      <c r="V55">
-        <v>3.4</v>
-      </c>
-      <c r="W55">
-        <v>8.6</v>
-      </c>
-      <c r="X55">
-        <v>12.1</v>
-      </c>
-      <c r="Y55">
-        <v>4.2</v>
-      </c>
-      <c r="Z55">
-        <v>1.3</v>
-      </c>
-      <c r="AA55">
-        <v>3.2</v>
-      </c>
-      <c r="AB55">
-        <v>3</v>
-      </c>
-      <c r="AC55">
-        <v>4.5</v>
-      </c>
-      <c r="AD55">
-        <v>31.1</v>
-      </c>
-      <c r="AF55">
-        <v>114</v>
-      </c>
-      <c r="AG55">
-        <v>103</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="I56">
-        <v>-36734</v>
-      </c>
-      <c r="J56">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="K56">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="L56">
-        <v>-0.01600000000000001</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>-0.05599999999999999</v>
-      </c>
-      <c r="P56">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="Q56">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="R56">
-        <v>-0.01500000000000001</v>
-      </c>
-      <c r="S56">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="T56">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="U56">
-        <v>0.01800000000000002</v>
-      </c>
-      <c r="V56">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="W56">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="Z56">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA56">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AB56">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AC56">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AD56">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="AF56">
-        <v>-1</v>
-      </c>
-      <c r="AG56">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15923,70 +6081,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/abdulka01.xlsx
+++ b/output/abdulka01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="107">
   <si>
     <t>Season</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
+  </si>
+  <si>
+    <t>2 seasons</t>
+  </si>
+  <si>
+    <t>1 season</t>
   </si>
   <si>
     <t>PER</t>
@@ -6028,24 +6040,9854 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>82</v>
+      </c>
+      <c r="I2">
+        <v>3534</v>
+      </c>
+      <c r="J2">
+        <v>9.6</v>
+      </c>
+      <c r="K2">
+        <v>18.4</v>
+      </c>
+      <c r="L2">
+        <v>0.518</v>
+      </c>
+      <c r="P2">
+        <v>9.6</v>
+      </c>
+      <c r="Q2">
+        <v>18.4</v>
+      </c>
+      <c r="R2">
+        <v>0.518</v>
+      </c>
+      <c r="S2">
+        <v>4.9</v>
+      </c>
+      <c r="T2">
+        <v>7.6</v>
+      </c>
+      <c r="U2">
+        <v>0.653</v>
+      </c>
+      <c r="X2">
+        <v>12.1</v>
+      </c>
+      <c r="Y2">
+        <v>3.4</v>
+      </c>
+      <c r="AC2">
+        <v>2.9</v>
+      </c>
+      <c r="AD2">
+        <v>24.1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>435</v>
+      </c>
+      <c r="J3">
+        <v>11.5</v>
+      </c>
+      <c r="K3">
+        <v>20.3</v>
+      </c>
+      <c r="L3">
+        <v>0.5670000000000001</v>
+      </c>
+      <c r="P3">
+        <v>11.5</v>
+      </c>
+      <c r="Q3">
+        <v>20.3</v>
+      </c>
+      <c r="R3">
+        <v>0.5670000000000001</v>
+      </c>
+      <c r="S3">
+        <v>6.1</v>
+      </c>
+      <c r="T3">
+        <v>8.4</v>
+      </c>
+      <c r="U3">
+        <v>0.733</v>
+      </c>
+      <c r="X3">
+        <v>13.9</v>
+      </c>
+      <c r="Y3">
+        <v>3.4</v>
+      </c>
+      <c r="AC3">
+        <v>2.1</v>
+      </c>
+      <c r="AD3">
+        <v>29.1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-3099</v>
+      </c>
+      <c r="J4">
+        <v>1.9</v>
+      </c>
+      <c r="K4">
+        <v>1.900000000000002</v>
+      </c>
+      <c r="L4">
+        <v>0.04900000000000004</v>
+      </c>
+      <c r="P4">
+        <v>1.9</v>
+      </c>
+      <c r="Q4">
+        <v>1.900000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.04900000000000004</v>
+      </c>
+      <c r="S4">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="U4">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="X4">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>82</v>
+      </c>
+      <c r="I5">
+        <v>3288</v>
+      </c>
+      <c r="J5">
+        <v>11.6</v>
+      </c>
+      <c r="K5">
+        <v>20.2</v>
+      </c>
+      <c r="L5">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="P5">
+        <v>11.6</v>
+      </c>
+      <c r="Q5">
+        <v>20.2</v>
+      </c>
+      <c r="R5">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="S5">
+        <v>5.1</v>
+      </c>
+      <c r="T5">
+        <v>7.5</v>
+      </c>
+      <c r="U5">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X5">
+        <v>14.4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>2.9</v>
+      </c>
+      <c r="AD5">
+        <v>28.4</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>577</v>
+      </c>
+      <c r="J6">
+        <v>9.5</v>
+      </c>
+      <c r="K6">
+        <v>18.4</v>
+      </c>
+      <c r="L6">
+        <v>0.515</v>
+      </c>
+      <c r="P6">
+        <v>9.5</v>
+      </c>
+      <c r="Q6">
+        <v>18.4</v>
+      </c>
+      <c r="R6">
+        <v>0.515</v>
+      </c>
+      <c r="S6">
+        <v>4.2</v>
+      </c>
+      <c r="T6">
+        <v>6.3</v>
+      </c>
+      <c r="U6">
+        <v>0.6729999999999999</v>
+      </c>
+      <c r="X6">
+        <v>14.8</v>
+      </c>
+      <c r="Y6">
+        <v>2.2</v>
+      </c>
+      <c r="AC6">
+        <v>2.8</v>
+      </c>
+      <c r="AD6">
+        <v>23.2</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>-2711</v>
+      </c>
+      <c r="J7">
+        <v>-2.1</v>
+      </c>
+      <c r="K7">
+        <v>-1.800000000000001</v>
+      </c>
+      <c r="L7">
+        <v>-0.06200000000000006</v>
+      </c>
+      <c r="P7">
+        <v>-2.1</v>
+      </c>
+      <c r="Q7">
+        <v>-1.800000000000001</v>
+      </c>
+      <c r="R7">
+        <v>-0.06200000000000006</v>
+      </c>
+      <c r="S7">
+        <v>-0.8999999999999995</v>
+      </c>
+      <c r="T7">
+        <v>-1.2</v>
+      </c>
+      <c r="U7">
+        <v>-0.01700000000000002</v>
+      </c>
+      <c r="X7">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>-5.199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>3583</v>
+      </c>
+      <c r="J8">
+        <v>11.6</v>
+      </c>
+      <c r="K8">
+        <v>20.3</v>
+      </c>
+      <c r="L8">
+        <v>0.574</v>
+      </c>
+      <c r="P8">
+        <v>11.6</v>
+      </c>
+      <c r="Q8">
+        <v>20.3</v>
+      </c>
+      <c r="R8">
+        <v>0.574</v>
+      </c>
+      <c r="S8">
+        <v>5.1</v>
+      </c>
+      <c r="T8">
+        <v>7.4</v>
+      </c>
+      <c r="U8">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="X8">
+        <v>13.5</v>
+      </c>
+      <c r="Y8">
+        <v>3.7</v>
+      </c>
+      <c r="AC8">
+        <v>2.4</v>
+      </c>
+      <c r="AD8">
+        <v>28.4</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>510</v>
+      </c>
+      <c r="J9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K9">
+        <v>22.4</v>
+      </c>
+      <c r="L9">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="P9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>22.4</v>
+      </c>
+      <c r="R9">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="S9">
+        <v>2.7</v>
+      </c>
+      <c r="T9">
+        <v>3.8</v>
+      </c>
+      <c r="U9">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="X9">
+        <v>14.1</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>2.5</v>
+      </c>
+      <c r="AD9">
+        <v>22.3</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>-3073</v>
+      </c>
+      <c r="J10">
+        <v>-1.799999999999999</v>
+      </c>
+      <c r="K10">
+        <v>2.099999999999998</v>
+      </c>
+      <c r="L10">
+        <v>-0.1369999999999999</v>
+      </c>
+      <c r="P10">
+        <v>-1.799999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>2.099999999999998</v>
+      </c>
+      <c r="R10">
+        <v>-0.1369999999999999</v>
+      </c>
+      <c r="S10">
+        <v>-2.399999999999999</v>
+      </c>
+      <c r="T10">
+        <v>-3.600000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.01500000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Y10">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC10">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>-6.099999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>3254</v>
+      </c>
+      <c r="J11">
+        <v>10.9</v>
+      </c>
+      <c r="K11">
+        <v>19.6</v>
+      </c>
+      <c r="L11">
+        <v>0.5539999999999999</v>
+      </c>
+      <c r="P11">
+        <v>10.9</v>
+      </c>
+      <c r="Q11">
+        <v>19.6</v>
+      </c>
+      <c r="R11">
+        <v>0.5539999999999999</v>
+      </c>
+      <c r="S11">
+        <v>3.6</v>
+      </c>
+      <c r="T11">
+        <v>5.1</v>
+      </c>
+      <c r="U11">
+        <v>0.713</v>
+      </c>
+      <c r="X11">
+        <v>13.5</v>
+      </c>
+      <c r="Y11">
+        <v>4.2</v>
+      </c>
+      <c r="AC11">
+        <v>2.3</v>
+      </c>
+      <c r="AD11">
+        <v>25.4</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>276</v>
+      </c>
+      <c r="J12">
+        <v>7.7</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0.428</v>
+      </c>
+      <c r="P12">
+        <v>7.7</v>
+      </c>
+      <c r="Q12">
+        <v>18</v>
+      </c>
+      <c r="R12">
+        <v>0.428</v>
+      </c>
+      <c r="S12">
+        <v>2.5</v>
+      </c>
+      <c r="T12">
+        <v>4.6</v>
+      </c>
+      <c r="U12">
+        <v>0.5429999999999999</v>
+      </c>
+      <c r="X12">
+        <v>12.7</v>
+      </c>
+      <c r="Y12">
+        <v>2.2</v>
+      </c>
+      <c r="AC12">
+        <v>3.4</v>
+      </c>
+      <c r="AD12">
+        <v>17.9</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>-2978</v>
+      </c>
+      <c r="J13">
+        <v>-3.2</v>
+      </c>
+      <c r="K13">
+        <v>-1.600000000000001</v>
+      </c>
+      <c r="L13">
+        <v>-0.1259999999999999</v>
+      </c>
+      <c r="P13">
+        <v>-3.2</v>
+      </c>
+      <c r="Q13">
+        <v>-1.600000000000001</v>
+      </c>
+      <c r="R13">
+        <v>-0.1259999999999999</v>
+      </c>
+      <c r="S13">
+        <v>-1.1</v>
+      </c>
+      <c r="T13">
+        <v>-0.5</v>
+      </c>
+      <c r="U13">
+        <v>-0.17</v>
+      </c>
+      <c r="X13">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="Y13">
+        <v>-2</v>
+      </c>
+      <c r="AC13">
+        <v>1.1</v>
+      </c>
+      <c r="AD13">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14">
+        <v>81</v>
+      </c>
+      <c r="I14">
+        <v>3548</v>
+      </c>
+      <c r="J14">
+        <v>9.6</v>
+      </c>
+      <c r="K14">
+        <v>17.8</v>
+      </c>
+      <c r="L14">
+        <v>0.539</v>
+      </c>
+      <c r="P14">
+        <v>9.6</v>
+      </c>
+      <c r="Q14">
+        <v>17.8</v>
+      </c>
+      <c r="R14">
+        <v>0.539</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>4.3</v>
+      </c>
+      <c r="U14">
+        <v>0.7020000000000001</v>
+      </c>
+      <c r="V14">
+        <v>2.9</v>
+      </c>
+      <c r="W14">
+        <v>9</v>
+      </c>
+      <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Y14">
+        <v>3.9</v>
+      </c>
+      <c r="Z14">
+        <v>1.1</v>
+      </c>
+      <c r="AA14">
+        <v>2.9</v>
+      </c>
+      <c r="AC14">
+        <v>2.4</v>
+      </c>
+      <c r="AD14">
+        <v>22.2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>758</v>
+      </c>
+      <c r="J15">
+        <v>10.6</v>
+      </c>
+      <c r="K15">
+        <v>19.1</v>
+      </c>
+      <c r="L15">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="P15">
+        <v>10.6</v>
+      </c>
+      <c r="Q15">
+        <v>19.1</v>
+      </c>
+      <c r="R15">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="S15">
+        <v>3.2</v>
+      </c>
+      <c r="T15">
+        <v>4.3</v>
+      </c>
+      <c r="U15">
+        <v>0.736</v>
+      </c>
+      <c r="V15">
+        <v>3.2</v>
+      </c>
+      <c r="W15">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X15">
+        <v>12</v>
+      </c>
+      <c r="Y15">
+        <v>3.7</v>
+      </c>
+      <c r="Z15">
+        <v>0.9</v>
+      </c>
+      <c r="AA15">
+        <v>1.9</v>
+      </c>
+      <c r="AC15">
+        <v>1.9</v>
+      </c>
+      <c r="AD15">
+        <v>24.5</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>-2790</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.01800000000000002</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="R16">
+        <v>0.01800000000000002</v>
+      </c>
+      <c r="S16">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.03399999999999992</v>
+      </c>
+      <c r="V16">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="W16">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="Z16">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
+        <v>-0.5</v>
+      </c>
+      <c r="AD16">
+        <v>2.300000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>2747</v>
+      </c>
+      <c r="J17">
+        <v>10.6</v>
+      </c>
+      <c r="K17">
+        <v>20.8</v>
+      </c>
+      <c r="L17">
+        <v>0.513</v>
+      </c>
+      <c r="P17">
+        <v>10.6</v>
+      </c>
+      <c r="Q17">
+        <v>20.8</v>
+      </c>
+      <c r="R17">
+        <v>0.513</v>
+      </c>
+      <c r="S17">
+        <v>4.3</v>
+      </c>
+      <c r="T17">
+        <v>5.6</v>
+      </c>
+      <c r="U17">
+        <v>0.763</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>9.4</v>
+      </c>
+      <c r="X17">
+        <v>12</v>
+      </c>
+      <c r="Y17">
+        <v>3.5</v>
+      </c>
+      <c r="Z17">
+        <v>0.9</v>
+      </c>
+      <c r="AA17">
+        <v>2.8</v>
+      </c>
+      <c r="AC17">
+        <v>2.7</v>
+      </c>
+      <c r="AD17">
+        <v>25.5</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19">
+        <v>82</v>
+      </c>
+      <c r="I19">
+        <v>3379</v>
+      </c>
+      <c r="J19">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K19">
+        <v>18.4</v>
+      </c>
+      <c r="L19">
+        <v>0.529</v>
+      </c>
+      <c r="P19">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>18.4</v>
+      </c>
+      <c r="R19">
+        <v>0.529</v>
+      </c>
+      <c r="S19">
+        <v>4.8</v>
+      </c>
+      <c r="T19">
+        <v>6.8</v>
+      </c>
+      <c r="U19">
+        <v>0.703</v>
+      </c>
+      <c r="V19">
+        <v>2.9</v>
+      </c>
+      <c r="W19">
+        <v>11.8</v>
+      </c>
+      <c r="X19">
+        <v>14.7</v>
+      </c>
+      <c r="Y19">
+        <v>4.4</v>
+      </c>
+      <c r="Z19">
+        <v>1.3</v>
+      </c>
+      <c r="AA19">
+        <v>3.6</v>
+      </c>
+      <c r="AC19">
+        <v>3.1</v>
+      </c>
+      <c r="AD19">
+        <v>24.2</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21">
+        <v>82</v>
+      </c>
+      <c r="I21">
+        <v>3016</v>
+      </c>
+      <c r="J21">
+        <v>10.6</v>
+      </c>
+      <c r="K21">
+        <v>18.3</v>
+      </c>
+      <c r="L21">
+        <v>0.579</v>
+      </c>
+      <c r="P21">
+        <v>10.6</v>
+      </c>
+      <c r="Q21">
+        <v>18.3</v>
+      </c>
+      <c r="R21">
+        <v>0.579</v>
+      </c>
+      <c r="S21">
+        <v>4.5</v>
+      </c>
+      <c r="T21">
+        <v>6.4</v>
+      </c>
+      <c r="U21">
+        <v>0.701</v>
+      </c>
+      <c r="V21">
+        <v>3.2</v>
+      </c>
+      <c r="W21">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X21">
+        <v>13</v>
+      </c>
+      <c r="Y21">
+        <v>3.8</v>
+      </c>
+      <c r="Z21">
+        <v>1.2</v>
+      </c>
+      <c r="AA21">
+        <v>3.1</v>
+      </c>
+      <c r="AC21">
+        <v>3.1</v>
+      </c>
+      <c r="AD21">
+        <v>25.7</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>467</v>
+      </c>
+      <c r="J22">
+        <v>11.3</v>
+      </c>
+      <c r="K22">
+        <v>18.7</v>
+      </c>
+      <c r="L22">
+        <v>0.607</v>
+      </c>
+      <c r="P22">
+        <v>11.3</v>
+      </c>
+      <c r="Q22">
+        <v>18.7</v>
+      </c>
+      <c r="R22">
+        <v>0.607</v>
+      </c>
+      <c r="S22">
+        <v>6.7</v>
+      </c>
+      <c r="T22">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.725</v>
+      </c>
+      <c r="V22">
+        <v>3.9</v>
+      </c>
+      <c r="W22">
+        <v>11.1</v>
+      </c>
+      <c r="X22">
+        <v>15</v>
+      </c>
+      <c r="Y22">
+        <v>3.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.5</v>
+      </c>
+      <c r="AA22">
+        <v>2.9</v>
+      </c>
+      <c r="AC22">
+        <v>3.2</v>
+      </c>
+      <c r="AD22">
+        <v>29.4</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>-2549</v>
+      </c>
+      <c r="J23">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="K23">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="L23">
+        <v>0.02800000000000002</v>
+      </c>
+      <c r="P23">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="Q23">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="R23">
+        <v>0.02800000000000002</v>
+      </c>
+      <c r="S23">
+        <v>2.2</v>
+      </c>
+      <c r="T23">
+        <v>2.9</v>
+      </c>
+      <c r="U23">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="V23">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="W23">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="Z23">
+        <v>0.3</v>
+      </c>
+      <c r="AA23">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AC23">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD23">
+        <v>3.699999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>62</v>
+      </c>
+      <c r="I24">
+        <v>2265</v>
+      </c>
+      <c r="J24">
+        <v>10.5</v>
+      </c>
+      <c r="K24">
+        <v>19.2</v>
+      </c>
+      <c r="L24">
+        <v>0.55</v>
+      </c>
+      <c r="P24">
+        <v>10.5</v>
+      </c>
+      <c r="Q24">
+        <v>19.2</v>
+      </c>
+      <c r="R24">
+        <v>0.55</v>
+      </c>
+      <c r="S24">
+        <v>4.4</v>
+      </c>
+      <c r="T24">
+        <v>5.6</v>
+      </c>
+      <c r="U24">
+        <v>0.7829999999999999</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X24">
+        <v>12.7</v>
+      </c>
+      <c r="Y24">
+        <v>4.3</v>
+      </c>
+      <c r="Z24">
+        <v>1.6</v>
+      </c>
+      <c r="AA24">
+        <v>2.9</v>
+      </c>
+      <c r="AB24">
+        <v>3.3</v>
+      </c>
+      <c r="AC24">
+        <v>2.9</v>
+      </c>
+      <c r="AD24">
+        <v>25.4</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>134</v>
+      </c>
+      <c r="J25">
+        <v>10.2</v>
+      </c>
+      <c r="K25">
+        <v>19.6</v>
+      </c>
+      <c r="L25">
+        <v>0.521</v>
+      </c>
+      <c r="P25">
+        <v>10.2</v>
+      </c>
+      <c r="Q25">
+        <v>19.6</v>
+      </c>
+      <c r="R25">
+        <v>0.521</v>
+      </c>
+      <c r="S25">
+        <v>1.3</v>
+      </c>
+      <c r="T25">
+        <v>2.4</v>
+      </c>
+      <c r="U25">
+        <v>0.556</v>
+      </c>
+      <c r="V25">
+        <v>3.8</v>
+      </c>
+      <c r="W25">
+        <v>7.3</v>
+      </c>
+      <c r="X25">
+        <v>11</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>0.5</v>
+      </c>
+      <c r="AA25">
+        <v>3.2</v>
+      </c>
+      <c r="AB25">
+        <v>3.8</v>
+      </c>
+      <c r="AC25">
+        <v>3.8</v>
+      </c>
+      <c r="AD25">
+        <v>21.8</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>-2131</v>
+      </c>
+      <c r="J26">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="K26">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="L26">
+        <v>-0.02900000000000003</v>
+      </c>
+      <c r="P26">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Q26">
+        <v>0.4000000000000021</v>
+      </c>
+      <c r="R26">
+        <v>-0.02900000000000003</v>
+      </c>
+      <c r="S26">
+        <v>-3.100000000000001</v>
+      </c>
+      <c r="T26">
+        <v>-3.2</v>
+      </c>
+      <c r="U26">
+        <v>-0.2269999999999999</v>
+      </c>
+      <c r="V26">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="W26">
+        <v>-2.500000000000001</v>
+      </c>
+      <c r="X26">
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="Y26">
+        <v>-1.3</v>
+      </c>
+      <c r="Z26">
+        <v>-1.1</v>
+      </c>
+      <c r="AA26">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AB26">
+        <v>0.5</v>
+      </c>
+      <c r="AC26">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AD26">
+        <v>-3.599999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27">
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <v>3157</v>
+      </c>
+      <c r="J27">
+        <v>8.9</v>
+      </c>
+      <c r="K27">
+        <v>15.4</v>
+      </c>
+      <c r="L27">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="P27">
+        <v>8.9</v>
+      </c>
+      <c r="Q27">
+        <v>15.4</v>
+      </c>
+      <c r="R27">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>5.4</v>
+      </c>
+      <c r="U27">
+        <v>0.736</v>
+      </c>
+      <c r="V27">
+        <v>2.4</v>
+      </c>
+      <c r="W27">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="X27">
+        <v>11.7</v>
+      </c>
+      <c r="Y27">
+        <v>4.9</v>
+      </c>
+      <c r="Z27">
+        <v>0.9</v>
+      </c>
+      <c r="AA27">
+        <v>3.6</v>
+      </c>
+      <c r="AB27">
+        <v>3.2</v>
+      </c>
+      <c r="AC27">
+        <v>2.6</v>
+      </c>
+      <c r="AD27">
+        <v>21.7</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>367</v>
+      </c>
+      <c r="J28">
+        <v>8.6</v>
+      </c>
+      <c r="K28">
+        <v>14.9</v>
+      </c>
+      <c r="L28">
+        <v>0.579</v>
+      </c>
+      <c r="P28">
+        <v>8.6</v>
+      </c>
+      <c r="Q28">
+        <v>14.9</v>
+      </c>
+      <c r="R28">
+        <v>0.579</v>
+      </c>
+      <c r="S28">
+        <v>5.1</v>
+      </c>
+      <c r="T28">
+        <v>6.1</v>
+      </c>
+      <c r="U28">
+        <v>0.8390000000000001</v>
+      </c>
+      <c r="V28">
+        <v>1.8</v>
+      </c>
+      <c r="W28">
+        <v>8.1</v>
+      </c>
+      <c r="X28">
+        <v>9.9</v>
+      </c>
+      <c r="Y28">
+        <v>3.7</v>
+      </c>
+      <c r="Z28">
+        <v>0.8</v>
+      </c>
+      <c r="AA28">
+        <v>3.2</v>
+      </c>
+      <c r="AB28">
+        <v>2.8</v>
+      </c>
+      <c r="AC28">
+        <v>2.6</v>
+      </c>
+      <c r="AD28">
+        <v>22.4</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>-2790</v>
+      </c>
+      <c r="J29">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="K29">
+        <v>-0.5</v>
+      </c>
+      <c r="L29">
+        <v>0.001999999999999891</v>
+      </c>
+      <c r="P29">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Q29">
+        <v>-0.5</v>
+      </c>
+      <c r="R29">
+        <v>0.001999999999999891</v>
+      </c>
+      <c r="S29">
+        <v>1.1</v>
+      </c>
+      <c r="T29">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="U29">
+        <v>0.1030000000000001</v>
+      </c>
+      <c r="V29">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="W29">
+        <v>-1.200000000000001</v>
+      </c>
+      <c r="X29">
+        <v>-1.799999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>-1.2</v>
+      </c>
+      <c r="Z29">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="AA29">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AB29">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30">
+        <v>82</v>
+      </c>
+      <c r="I30">
+        <v>3143</v>
+      </c>
+      <c r="J30">
+        <v>9.6</v>
+      </c>
+      <c r="K30">
+        <v>15.8</v>
+      </c>
+      <c r="L30">
+        <v>0.604</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>9.6</v>
+      </c>
+      <c r="Q30">
+        <v>15.8</v>
+      </c>
+      <c r="R30">
+        <v>0.604</v>
+      </c>
+      <c r="S30">
+        <v>4.2</v>
+      </c>
+      <c r="T30">
+        <v>5.5</v>
+      </c>
+      <c r="U30">
+        <v>0.765</v>
+      </c>
+      <c r="V30">
+        <v>2.2</v>
+      </c>
+      <c r="W30">
+        <v>8</v>
+      </c>
+      <c r="X30">
+        <v>10.1</v>
+      </c>
+      <c r="Y30">
+        <v>4.2</v>
+      </c>
+      <c r="Z30">
+        <v>0.9</v>
+      </c>
+      <c r="AA30">
+        <v>3.2</v>
+      </c>
+      <c r="AB30">
+        <v>3.4</v>
+      </c>
+      <c r="AC30">
+        <v>2.5</v>
+      </c>
+      <c r="AD30">
+        <v>23.3</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>618</v>
+      </c>
+      <c r="J31">
+        <v>11.5</v>
+      </c>
+      <c r="K31">
+        <v>20.2</v>
+      </c>
+      <c r="L31">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>11.5</v>
+      </c>
+      <c r="Q31">
+        <v>20.2</v>
+      </c>
+      <c r="R31">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="S31">
+        <v>4.8</v>
+      </c>
+      <c r="T31">
+        <v>6.1</v>
+      </c>
+      <c r="U31">
+        <v>0.79</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>7.6</v>
+      </c>
+      <c r="X31">
+        <v>10.5</v>
+      </c>
+      <c r="Y31">
+        <v>2.7</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>3.4</v>
+      </c>
+      <c r="AB31">
+        <v>3.2</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>27.9</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>-2525</v>
+      </c>
+      <c r="J32">
+        <v>1.9</v>
+      </c>
+      <c r="K32">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="L32">
+        <v>-0.03199999999999992</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1.9</v>
+      </c>
+      <c r="Q32">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="R32">
+        <v>-0.03199999999999992</v>
+      </c>
+      <c r="S32">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="T32">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="U32">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="V32">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="W32">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="X32">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="Y32">
+        <v>-1.5</v>
+      </c>
+      <c r="Z32">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AA32">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="AB32">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
+      <c r="AD32">
+        <v>4.599999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>80</v>
+      </c>
+      <c r="I33">
+        <v>2976</v>
+      </c>
+      <c r="J33">
+        <v>10.1</v>
+      </c>
+      <c r="K33">
+        <v>17.6</v>
+      </c>
+      <c r="L33">
+        <v>0.574</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>10.1</v>
+      </c>
+      <c r="Q33">
+        <v>17.6</v>
+      </c>
+      <c r="R33">
+        <v>0.574</v>
+      </c>
+      <c r="S33">
+        <v>5.1</v>
+      </c>
+      <c r="T33">
+        <v>6.7</v>
+      </c>
+      <c r="U33">
+        <v>0.7659999999999999</v>
+      </c>
+      <c r="V33">
+        <v>2.4</v>
+      </c>
+      <c r="W33">
+        <v>7.5</v>
+      </c>
+      <c r="X33">
+        <v>9.9</v>
+      </c>
+      <c r="Y33">
+        <v>3.3</v>
+      </c>
+      <c r="Z33">
+        <v>0.7</v>
+      </c>
+      <c r="AA33">
+        <v>2.8</v>
+      </c>
+      <c r="AB33">
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>25.3</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>134</v>
+      </c>
+      <c r="J34">
+        <v>8.1</v>
+      </c>
+      <c r="K34">
+        <v>17.5</v>
+      </c>
+      <c r="L34">
+        <v>0.462</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>8.1</v>
+      </c>
+      <c r="Q34">
+        <v>17.5</v>
+      </c>
+      <c r="R34">
+        <v>0.462</v>
+      </c>
+      <c r="S34">
+        <v>5.4</v>
+      </c>
+      <c r="T34">
+        <v>7.5</v>
+      </c>
+      <c r="U34">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="V34">
+        <v>3.5</v>
+      </c>
+      <c r="W34">
+        <v>9.9</v>
+      </c>
+      <c r="X34">
+        <v>13.4</v>
+      </c>
+      <c r="Y34">
+        <v>3.2</v>
+      </c>
+      <c r="Z34">
+        <v>0.8</v>
+      </c>
+      <c r="AA34">
+        <v>2.1</v>
+      </c>
+      <c r="AB34">
+        <v>3</v>
+      </c>
+      <c r="AC34">
+        <v>3.8</v>
+      </c>
+      <c r="AD34">
+        <v>21.5</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <v>-2842</v>
+      </c>
+      <c r="J35">
+        <v>-2</v>
+      </c>
+      <c r="K35">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="L35">
+        <v>-0.1119999999999999</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>-2</v>
+      </c>
+      <c r="Q35">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="R35">
+        <v>-0.1119999999999999</v>
+      </c>
+      <c r="S35">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="T35">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="U35">
+        <v>-0.05199999999999982</v>
+      </c>
+      <c r="V35">
+        <v>1.1</v>
+      </c>
+      <c r="W35">
+        <v>2.4</v>
+      </c>
+      <c r="X35">
+        <v>3.5</v>
+      </c>
+      <c r="Y35">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Z35">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA35">
+        <v>-0.6999999999999997</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AD35">
+        <v>-3.800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36">
+        <v>76</v>
+      </c>
+      <c r="H36">
+        <v>76</v>
+      </c>
+      <c r="I36">
+        <v>2677</v>
+      </c>
+      <c r="J36">
+        <v>10.1</v>
+      </c>
+      <c r="K36">
+        <v>17.5</v>
+      </c>
+      <c r="L36">
+        <v>0.579</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>10.1</v>
+      </c>
+      <c r="Q36">
+        <v>17.5</v>
+      </c>
+      <c r="R36">
+        <v>0.58</v>
+      </c>
+      <c r="S36">
+        <v>4.2</v>
+      </c>
+      <c r="T36">
+        <v>5.9</v>
+      </c>
+      <c r="U36">
+        <v>0.706</v>
+      </c>
+      <c r="V36">
+        <v>2.3</v>
+      </c>
+      <c r="W36">
+        <v>6.5</v>
+      </c>
+      <c r="X36">
+        <v>8.9</v>
+      </c>
+      <c r="Y36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>0.8</v>
+      </c>
+      <c r="AA36">
+        <v>2.8</v>
+      </c>
+      <c r="AB36">
+        <v>3.1</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+      <c r="AD36">
+        <v>24.4</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>493</v>
+      </c>
+      <c r="J37">
+        <v>8.4</v>
+      </c>
+      <c r="K37">
+        <v>16.1</v>
+      </c>
+      <c r="L37">
+        <v>0.52</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>8.4</v>
+      </c>
+      <c r="Q37">
+        <v>16.1</v>
+      </c>
+      <c r="R37">
+        <v>0.52</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>6.4</v>
+      </c>
+      <c r="U37">
+        <v>0.632</v>
+      </c>
+      <c r="V37">
+        <v>2.4</v>
+      </c>
+      <c r="W37">
+        <v>6.3</v>
+      </c>
+      <c r="X37">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>3.7</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>3.3</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>3.3</v>
+      </c>
+      <c r="AD37">
+        <v>20.8</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>-2184</v>
+      </c>
+      <c r="J38">
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="K38">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="L38">
+        <v>-0.05899999999999994</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="Q38">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="R38">
+        <v>-0.05999999999999994</v>
+      </c>
+      <c r="S38">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="T38">
+        <v>0.5</v>
+      </c>
+      <c r="U38">
+        <v>-0.07399999999999995</v>
+      </c>
+      <c r="V38">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="W38">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="X38">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="Y38">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="Z38">
+        <v>0.2</v>
+      </c>
+      <c r="AA38">
+        <v>0.5</v>
+      </c>
+      <c r="AB38">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC38">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AD38">
+        <v>-3.599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <v>79</v>
+      </c>
+      <c r="I39">
+        <v>2554</v>
+      </c>
+      <c r="J39">
+        <v>10.2</v>
+      </c>
+      <c r="K39">
+        <v>17.3</v>
+      </c>
+      <c r="L39">
+        <v>0.588</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>10.2</v>
+      </c>
+      <c r="Q39">
+        <v>17.3</v>
+      </c>
+      <c r="R39">
+        <v>0.589</v>
+      </c>
+      <c r="S39">
+        <v>3.9</v>
+      </c>
+      <c r="T39">
+        <v>5.2</v>
+      </c>
+      <c r="U39">
+        <v>0.7490000000000001</v>
+      </c>
+      <c r="V39">
+        <v>2.4</v>
+      </c>
+      <c r="W39">
+        <v>6</v>
+      </c>
+      <c r="X39">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>2.8</v>
+      </c>
+      <c r="Z39">
+        <v>0.9</v>
+      </c>
+      <c r="AA39">
+        <v>2.4</v>
+      </c>
+      <c r="AB39">
+        <v>2.8</v>
+      </c>
+      <c r="AC39">
+        <v>3.1</v>
+      </c>
+      <c r="AD39">
+        <v>24.3</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>588</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>17.6</v>
+      </c>
+      <c r="L40">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <v>17.5</v>
+      </c>
+      <c r="R40">
+        <v>0.57</v>
+      </c>
+      <c r="S40">
+        <v>4.9</v>
+      </c>
+      <c r="T40">
+        <v>6.5</v>
+      </c>
+      <c r="U40">
+        <v>0.755</v>
+      </c>
+      <c r="V40">
+        <v>1.5</v>
+      </c>
+      <c r="W40">
+        <v>5.5</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>2.6</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>3.4</v>
+      </c>
+      <c r="AB40">
+        <v>3.1</v>
+      </c>
+      <c r="AC40">
+        <v>3.7</v>
+      </c>
+      <c r="AD40">
+        <v>24.9</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>-1966</v>
+      </c>
+      <c r="J41">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="K41">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="L41">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="Q41">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="R41">
+        <v>-0.01900000000000002</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1.3</v>
+      </c>
+      <c r="U41">
+        <v>0.005999999999999894</v>
+      </c>
+      <c r="V41">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="W41">
+        <v>-0.5</v>
+      </c>
+      <c r="X41">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="Y41">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="Z41">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AC41">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AD41">
+        <v>0.5999999999999979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42">
+        <v>80</v>
+      </c>
+      <c r="H42">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>2622</v>
+      </c>
+      <c r="J42">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K42">
+        <v>17</v>
+      </c>
+      <c r="L42">
+        <v>0.578</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q42">
+        <v>17</v>
+      </c>
+      <c r="R42">
+        <v>0.579</v>
+      </c>
+      <c r="S42">
+        <v>3.9</v>
+      </c>
+      <c r="T42">
+        <v>5.4</v>
+      </c>
+      <c r="U42">
+        <v>0.723</v>
+      </c>
+      <c r="V42">
+        <v>2.3</v>
+      </c>
+      <c r="W42">
+        <v>5.7</v>
+      </c>
+      <c r="X42">
+        <v>8.1</v>
+      </c>
+      <c r="Y42">
+        <v>2.9</v>
+      </c>
+      <c r="Z42">
+        <v>0.8</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>3</v>
+      </c>
+      <c r="AC42">
+        <v>2.9</v>
+      </c>
+      <c r="AD42">
+        <v>23.6</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43">
+        <v>21</v>
+      </c>
+      <c r="I43">
+        <v>767</v>
+      </c>
+      <c r="J43">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K43">
+        <v>17.4</v>
+      </c>
+      <c r="L43">
+        <v>0.555</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>17.4</v>
+      </c>
+      <c r="R43">
+        <v>0.555</v>
+      </c>
+      <c r="S43">
+        <v>4.2</v>
+      </c>
+      <c r="T43">
+        <v>5.6</v>
+      </c>
+      <c r="U43">
+        <v>0.75</v>
+      </c>
+      <c r="V43">
+        <v>2.6</v>
+      </c>
+      <c r="W43">
+        <v>5.5</v>
+      </c>
+      <c r="X43">
+        <v>8.1</v>
+      </c>
+      <c r="Y43">
+        <v>3.7</v>
+      </c>
+      <c r="Z43">
+        <v>1.1</v>
+      </c>
+      <c r="AA43">
+        <v>2.1</v>
+      </c>
+      <c r="AB43">
+        <v>2.1</v>
+      </c>
+      <c r="AC43">
+        <v>3.3</v>
+      </c>
+      <c r="AD43">
+        <v>23.6</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>-1855</v>
+      </c>
+      <c r="J44">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="K44">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="L44">
+        <v>-0.02299999999999991</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="Q44">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="R44">
+        <v>-0.02399999999999991</v>
+      </c>
+      <c r="S44">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="T44">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="U44">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="V44">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="W44">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="Z44">
+        <v>0.3</v>
+      </c>
+      <c r="AA44">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AB44">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="AC44">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45">
+        <v>79</v>
+      </c>
+      <c r="H45">
+        <v>79</v>
+      </c>
+      <c r="I45">
+        <v>2630</v>
+      </c>
+      <c r="J45">
+        <v>9.9</v>
+      </c>
+      <c r="K45">
+        <v>16.5</v>
+      </c>
+      <c r="L45">
+        <v>0.599</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>9.9</v>
+      </c>
+      <c r="Q45">
+        <v>16.5</v>
+      </c>
+      <c r="R45">
+        <v>0.6</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>5.4</v>
+      </c>
+      <c r="U45">
+        <v>0.732</v>
+      </c>
+      <c r="V45">
+        <v>2.2</v>
+      </c>
+      <c r="W45">
+        <v>6.3</v>
+      </c>
+      <c r="X45">
+        <v>8.5</v>
+      </c>
+      <c r="Y45">
+        <v>3.4</v>
+      </c>
+      <c r="Z45">
+        <v>0.9</v>
+      </c>
+      <c r="AA45">
+        <v>2.2</v>
+      </c>
+      <c r="AB45">
+        <v>2.7</v>
+      </c>
+      <c r="AC45">
+        <v>3.3</v>
+      </c>
+      <c r="AD45">
+        <v>23.7</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>19</v>
+      </c>
+      <c r="I46">
+        <v>610</v>
+      </c>
+      <c r="J46">
+        <v>9.9</v>
+      </c>
+      <c r="K46">
+        <v>17.7</v>
+      </c>
+      <c r="L46">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>9.9</v>
+      </c>
+      <c r="Q46">
+        <v>17.7</v>
+      </c>
+      <c r="R46">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S46">
+        <v>4.7</v>
+      </c>
+      <c r="T46">
+        <v>6.1</v>
+      </c>
+      <c r="U46">
+        <v>0.777</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>6.1</v>
+      </c>
+      <c r="X46">
+        <v>9.1</v>
+      </c>
+      <c r="Y46">
+        <v>4.5</v>
+      </c>
+      <c r="Z46">
+        <v>1.4</v>
+      </c>
+      <c r="AA46">
+        <v>2.1</v>
+      </c>
+      <c r="AB46">
+        <v>3.1</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AD46">
+        <v>24.6</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="I47">
+        <v>-2020</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="L47">
+        <v>-0.03899999999999992</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="R47">
+        <v>-0.03999999999999992</v>
+      </c>
+      <c r="S47">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="T47">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="U47">
+        <v>0.04500000000000004</v>
+      </c>
+      <c r="V47">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="W47">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="X47">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Y47">
+        <v>1.1</v>
+      </c>
+      <c r="Z47">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AB47">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AC47">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AD47">
+        <v>0.9000000000000021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48">
+        <v>79</v>
+      </c>
+      <c r="H48">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>2629</v>
+      </c>
+      <c r="J48">
+        <v>10.3</v>
+      </c>
+      <c r="K48">
+        <v>18.3</v>
+      </c>
+      <c r="L48">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>10.3</v>
+      </c>
+      <c r="Q48">
+        <v>18.3</v>
+      </c>
+      <c r="R48">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="S48">
+        <v>4.6</v>
+      </c>
+      <c r="T48">
+        <v>6</v>
+      </c>
+      <c r="U48">
+        <v>0.765</v>
+      </c>
+      <c r="V48">
+        <v>1.8</v>
+      </c>
+      <c r="W48">
+        <v>4.7</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>3.8</v>
+      </c>
+      <c r="Z48">
+        <v>0.9</v>
+      </c>
+      <c r="AA48">
+        <v>1.8</v>
+      </c>
+      <c r="AB48">
+        <v>2.8</v>
+      </c>
+      <c r="AC48">
+        <v>3.4</v>
+      </c>
+      <c r="AD48">
+        <v>25.3</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>489</v>
+      </c>
+      <c r="J49">
+        <v>11.6</v>
+      </c>
+      <c r="K49">
+        <v>20.8</v>
+      </c>
+      <c r="L49">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>11.6</v>
+      </c>
+      <c r="Q49">
+        <v>20.8</v>
+      </c>
+      <c r="R49">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="S49">
+        <v>3.5</v>
+      </c>
+      <c r="T49">
+        <v>4.5</v>
+      </c>
+      <c r="U49">
+        <v>0.787</v>
+      </c>
+      <c r="V49">
+        <v>1.9</v>
+      </c>
+      <c r="W49">
+        <v>4.2</v>
+      </c>
+      <c r="X49">
+        <v>6.1</v>
+      </c>
+      <c r="Y49">
+        <v>3.6</v>
+      </c>
+      <c r="Z49">
+        <v>1.1</v>
+      </c>
+      <c r="AA49">
+        <v>1.8</v>
+      </c>
+      <c r="AB49">
+        <v>3.1</v>
+      </c>
+      <c r="AC49">
+        <v>4</v>
+      </c>
+      <c r="AD49">
+        <v>26.7</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="I50">
+        <v>-2140</v>
+      </c>
+      <c r="J50">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="K50">
+        <v>2.5</v>
+      </c>
+      <c r="L50">
+        <v>-0.006999999999999895</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+      <c r="R50">
+        <v>-0.007999999999999896</v>
+      </c>
+      <c r="S50">
+        <v>-1.1</v>
+      </c>
+      <c r="T50">
+        <v>-1.5</v>
+      </c>
+      <c r="U50">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="V50">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="W50">
+        <v>-0.5</v>
+      </c>
+      <c r="X50">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Y50">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="Z50">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AC50">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AD50">
+        <v>1.399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51">
+        <v>78</v>
+      </c>
+      <c r="H51">
+        <v>78</v>
+      </c>
+      <c r="I51">
+        <v>2441</v>
+      </c>
+      <c r="J51">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K51">
+        <v>14.6</v>
+      </c>
+      <c r="L51">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0.333</v>
+      </c>
+      <c r="P51">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>14.6</v>
+      </c>
+      <c r="R51">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="S51">
+        <v>3.6</v>
+      </c>
+      <c r="T51">
+        <v>5.1</v>
+      </c>
+      <c r="U51">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="V51">
+        <v>2.2</v>
+      </c>
+      <c r="W51">
+        <v>5.5</v>
+      </c>
+      <c r="X51">
+        <v>7.7</v>
+      </c>
+      <c r="Y51">
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <v>0.7</v>
+      </c>
+      <c r="AA51">
+        <v>1.4</v>
+      </c>
+      <c r="AB51">
+        <v>2.7</v>
+      </c>
+      <c r="AC51">
+        <v>3.6</v>
+      </c>
+      <c r="AD51">
+        <v>20.1</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>559</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <v>15.1</v>
+      </c>
+      <c r="L52">
+        <v>0.53</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0.1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>8</v>
+      </c>
+      <c r="Q52">
+        <v>15</v>
+      </c>
+      <c r="R52">
+        <v>0.532</v>
+      </c>
+      <c r="S52">
+        <v>6.2</v>
+      </c>
+      <c r="T52">
+        <v>7.9</v>
+      </c>
+      <c r="U52">
+        <v>0.795</v>
+      </c>
+      <c r="V52">
+        <v>2.5</v>
+      </c>
+      <c r="W52">
+        <v>5.4</v>
+      </c>
+      <c r="X52">
+        <v>7.9</v>
+      </c>
+      <c r="Y52">
+        <v>2.3</v>
+      </c>
+      <c r="Z52">
+        <v>0.5</v>
+      </c>
+      <c r="AA52">
+        <v>2.3</v>
+      </c>
+      <c r="AB52">
+        <v>2.6</v>
+      </c>
+      <c r="AC52">
+        <v>3.6</v>
+      </c>
+      <c r="AD52">
+        <v>22.2</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="I53">
+        <v>-1882</v>
+      </c>
+      <c r="J53">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="K53">
+        <v>0.5</v>
+      </c>
+      <c r="L53">
+        <v>-0.03399999999999992</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0.1</v>
+      </c>
+      <c r="O53">
+        <v>-0.333</v>
+      </c>
+      <c r="P53">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="Q53">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="R53">
+        <v>-0.03299999999999992</v>
+      </c>
+      <c r="S53">
+        <v>2.6</v>
+      </c>
+      <c r="T53">
+        <v>2.800000000000001</v>
+      </c>
+      <c r="U53">
+        <v>0.08099999999999996</v>
+      </c>
+      <c r="V53">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="W53">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="X53">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="Y53">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="Z53">
+        <v>-0.2</v>
+      </c>
+      <c r="AA53">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB53">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>2.099999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54">
+        <v>80</v>
+      </c>
+      <c r="H54">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>2308</v>
+      </c>
+      <c r="J54">
+        <v>7.5</v>
+      </c>
+      <c r="K54">
+        <v>14.1</v>
+      </c>
+      <c r="L54">
+        <v>0.532</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>7.5</v>
+      </c>
+      <c r="Q54">
+        <v>14.1</v>
+      </c>
+      <c r="R54">
+        <v>0.532</v>
+      </c>
+      <c r="S54">
+        <v>3.2</v>
+      </c>
+      <c r="T54">
+        <v>4.2</v>
+      </c>
+      <c r="U54">
+        <v>0.762</v>
+      </c>
+      <c r="V54">
+        <v>1.8</v>
+      </c>
+      <c r="W54">
+        <v>5.6</v>
+      </c>
+      <c r="X54">
+        <v>7.5</v>
+      </c>
+      <c r="Y54">
+        <v>2.1</v>
+      </c>
+      <c r="Z54">
+        <v>0.7</v>
+      </c>
+      <c r="AA54">
+        <v>1.4</v>
+      </c>
+      <c r="AB54">
+        <v>2.5</v>
+      </c>
+      <c r="AC54">
+        <v>3.4</v>
+      </c>
+      <c r="AD54">
+        <v>18.2</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55">
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <v>718</v>
+      </c>
+      <c r="J55">
+        <v>7.1</v>
+      </c>
+      <c r="K55">
+        <v>15.2</v>
+      </c>
+      <c r="L55">
+        <v>0.464</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0.1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>7.1</v>
+      </c>
+      <c r="Q55">
+        <v>15.1</v>
+      </c>
+      <c r="R55">
+        <v>0.467</v>
+      </c>
+      <c r="S55">
+        <v>2.8</v>
+      </c>
+      <c r="T55">
+        <v>3.6</v>
+      </c>
+      <c r="U55">
+        <v>0.789</v>
+      </c>
+      <c r="V55">
+        <v>2.5</v>
+      </c>
+      <c r="W55">
+        <v>4.1</v>
+      </c>
+      <c r="X55">
+        <v>6.6</v>
+      </c>
+      <c r="Y55">
+        <v>1.8</v>
+      </c>
+      <c r="Z55">
+        <v>0.8</v>
+      </c>
+      <c r="AA55">
+        <v>1.9</v>
+      </c>
+      <c r="AB55">
+        <v>2.3</v>
+      </c>
+      <c r="AC55">
+        <v>4.1</v>
+      </c>
+      <c r="AD55">
+        <v>16.9</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56">
+        <v>-1590</v>
+      </c>
+      <c r="J56">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="K56">
+        <v>1.1</v>
+      </c>
+      <c r="L56">
+        <v>-0.06800000000000006</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0.1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>-0.065</v>
+      </c>
+      <c r="S56">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="T56">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="U56">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="V56">
+        <v>0.7</v>
+      </c>
+      <c r="W56">
+        <v>-1.5</v>
+      </c>
+      <c r="X56">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="Y56">
+        <v>-0.3</v>
+      </c>
+      <c r="Z56">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA56">
+        <v>0.5</v>
+      </c>
+      <c r="AB56">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AC56">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="AD56">
+        <v>-1.300000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57">
+        <v>74</v>
+      </c>
+      <c r="H57">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>1695</v>
+      </c>
+      <c r="J57">
+        <v>6.6</v>
+      </c>
+      <c r="K57">
+        <v>14</v>
+      </c>
+      <c r="L57">
+        <v>0.475</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>6.6</v>
+      </c>
+      <c r="Q57">
+        <v>13.9</v>
+      </c>
+      <c r="R57">
+        <v>0.477</v>
+      </c>
+      <c r="S57">
+        <v>2.6</v>
+      </c>
+      <c r="T57">
+        <v>3.5</v>
+      </c>
+      <c r="U57">
+        <v>0.7390000000000001</v>
+      </c>
+      <c r="V57">
+        <v>2.2</v>
+      </c>
+      <c r="W57">
+        <v>4.9</v>
+      </c>
+      <c r="X57">
+        <v>7.1</v>
+      </c>
+      <c r="Y57">
+        <v>1.6</v>
+      </c>
+      <c r="Z57">
+        <v>0.8</v>
+      </c>
+      <c r="AA57">
+        <v>1.8</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>4.2</v>
+      </c>
+      <c r="AD57">
+        <v>15.9</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58">
+        <v>15</v>
+      </c>
+      <c r="H58">
+        <v>15</v>
+      </c>
+      <c r="I58">
+        <v>351</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>15.1</v>
+      </c>
+      <c r="L58">
+        <v>0.463</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>7</v>
+      </c>
+      <c r="Q58">
+        <v>15.1</v>
+      </c>
+      <c r="R58">
+        <v>0.463</v>
+      </c>
+      <c r="S58">
+        <v>3.2</v>
+      </c>
+      <c r="T58">
+        <v>4.4</v>
+      </c>
+      <c r="U58">
+        <v>0.721</v>
+      </c>
+      <c r="V58">
+        <v>1.3</v>
+      </c>
+      <c r="W58">
+        <v>4.7</v>
+      </c>
+      <c r="X58">
+        <v>6.1</v>
+      </c>
+      <c r="Y58">
+        <v>1.9</v>
+      </c>
+      <c r="Z58">
+        <v>0.5</v>
+      </c>
+      <c r="AA58">
+        <v>1.1</v>
+      </c>
+      <c r="AB58">
+        <v>2.3</v>
+      </c>
+      <c r="AC58">
+        <v>4.4</v>
+      </c>
+      <c r="AD58">
+        <v>17.1</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="I59">
+        <v>-1344</v>
+      </c>
+      <c r="J59">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="K59">
+        <v>1.1</v>
+      </c>
+      <c r="L59">
+        <v>-0.01200000000000001</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>-0.1</v>
+      </c>
+      <c r="P59">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="Q59">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="R59">
+        <v>-0.01400000000000007</v>
+      </c>
+      <c r="S59">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="T59">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="U59">
+        <v>-0.01800000000000013</v>
+      </c>
+      <c r="V59">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="W59">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Z59">
+        <v>-0.3</v>
+      </c>
+      <c r="AA59">
+        <v>-0.7</v>
+      </c>
+      <c r="AB59">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC59">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AD59">
+        <v>1.200000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60">
+        <v>1093</v>
+      </c>
+      <c r="H60">
+        <v>625</v>
+      </c>
+      <c r="I60">
+        <v>37492</v>
+      </c>
+      <c r="J60">
+        <v>9.5</v>
+      </c>
+      <c r="K60">
+        <v>16.8</v>
+      </c>
+      <c r="L60">
+        <v>0.5670000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="P60">
+        <v>9.5</v>
+      </c>
+      <c r="Q60">
+        <v>16.8</v>
+      </c>
+      <c r="R60">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="S60">
+        <v>4.1</v>
+      </c>
+      <c r="T60">
+        <v>5.6</v>
+      </c>
+      <c r="U60">
+        <v>0.737</v>
+      </c>
+      <c r="V60">
+        <v>2.4</v>
+      </c>
+      <c r="W60">
+        <v>7.5</v>
+      </c>
+      <c r="X60">
+        <v>9.9</v>
+      </c>
+      <c r="Y60">
+        <v>3.5</v>
+      </c>
+      <c r="Z60">
+        <v>0.9</v>
+      </c>
+      <c r="AA60">
+        <v>2.6</v>
+      </c>
+      <c r="AB60">
+        <v>2.9</v>
+      </c>
+      <c r="AC60">
+        <v>3.1</v>
+      </c>
+      <c r="AD60">
+        <v>23.2</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61">
+        <v>180</v>
+      </c>
+      <c r="H61">
+        <v>90</v>
+      </c>
+      <c r="I61">
+        <v>6295</v>
+      </c>
+      <c r="J61">
+        <v>9.4</v>
+      </c>
+      <c r="K61">
+        <v>17.3</v>
+      </c>
+      <c r="L61">
+        <v>0.5429999999999999</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>9.4</v>
+      </c>
+      <c r="Q61">
+        <v>17.3</v>
+      </c>
+      <c r="R61">
+        <v>0.544</v>
+      </c>
+      <c r="S61">
+        <v>4.5</v>
+      </c>
+      <c r="T61">
+        <v>5.9</v>
+      </c>
+      <c r="U61">
+        <v>0.7559999999999999</v>
+      </c>
+      <c r="V61">
+        <v>2.5</v>
+      </c>
+      <c r="W61">
+        <v>6.2</v>
+      </c>
+      <c r="X61">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>3.1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>2.5</v>
+      </c>
+      <c r="AB61">
+        <v>2.8</v>
+      </c>
+      <c r="AC61">
+        <v>3.6</v>
+      </c>
+      <c r="AD61">
+        <v>23.3</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="I62">
+        <v>-31197</v>
+      </c>
+      <c r="J62">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="K62">
+        <v>0.5</v>
+      </c>
+      <c r="L62">
+        <v>-0.02400000000000013</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>-0.05599999999999999</v>
+      </c>
+      <c r="P62">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Q62">
+        <v>0.5</v>
+      </c>
+      <c r="R62">
+        <v>-0.02399999999999991</v>
+      </c>
+      <c r="S62">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="T62">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="U62">
+        <v>0.01899999999999991</v>
+      </c>
+      <c r="V62">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="W62">
+        <v>-1.3</v>
+      </c>
+      <c r="X62">
+        <v>-1.200000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AB62">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC62">
+        <v>0.5</v>
+      </c>
+      <c r="AD62">
+        <v>0.1000000000000014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63">
+        <v>467</v>
+      </c>
+      <c r="I63">
+        <v>19954</v>
+      </c>
+      <c r="J63">
+        <v>10.6</v>
+      </c>
+      <c r="K63">
+        <v>19.5</v>
+      </c>
+      <c r="L63">
+        <v>0.547</v>
+      </c>
+      <c r="P63">
+        <v>10.6</v>
+      </c>
+      <c r="Q63">
+        <v>19.5</v>
+      </c>
+      <c r="R63">
+        <v>0.547</v>
+      </c>
+      <c r="S63">
+        <v>4.3</v>
+      </c>
+      <c r="T63">
+        <v>6.2</v>
+      </c>
+      <c r="U63">
+        <v>0.695</v>
+      </c>
+      <c r="V63">
+        <v>2.8</v>
+      </c>
+      <c r="W63">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X63">
+        <v>12.9</v>
+      </c>
+      <c r="Y63">
+        <v>3.6</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>2.8</v>
+      </c>
+      <c r="AC63">
+        <v>2.6</v>
+      </c>
+      <c r="AD63">
+        <v>25.6</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64">
+        <v>57</v>
+      </c>
+      <c r="I64">
+        <v>2556</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>19.7</v>
+      </c>
+      <c r="L64">
+        <v>0.51</v>
+      </c>
+      <c r="P64">
+        <v>10</v>
+      </c>
+      <c r="Q64">
+        <v>19.7</v>
+      </c>
+      <c r="R64">
+        <v>0.51</v>
+      </c>
+      <c r="S64">
+        <v>3.7</v>
+      </c>
+      <c r="T64">
+        <v>5.4</v>
+      </c>
+      <c r="U64">
+        <v>0.696</v>
+      </c>
+      <c r="V64">
+        <v>3.2</v>
+      </c>
+      <c r="W64">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X64">
+        <v>13.5</v>
+      </c>
+      <c r="Y64">
+        <v>3.2</v>
+      </c>
+      <c r="Z64">
+        <v>0.9</v>
+      </c>
+      <c r="AA64">
+        <v>1.9</v>
+      </c>
+      <c r="AC64">
+        <v>2.4</v>
+      </c>
+      <c r="AD64">
+        <v>23.8</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="I65">
+        <v>-17398</v>
+      </c>
+      <c r="J65">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="K65">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="L65">
+        <v>-0.03700000000000003</v>
+      </c>
+      <c r="P65">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="Q65">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="R65">
+        <v>-0.03700000000000003</v>
+      </c>
+      <c r="S65">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="T65">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="U65">
+        <v>0.001000000000000001</v>
+      </c>
+      <c r="V65">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="W65">
+        <v>-0.3999999999999986</v>
+      </c>
+      <c r="X65">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Y65">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="AA65">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="AC65">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AD65">
+        <v>-1.800000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66">
+        <v>1560</v>
+      </c>
+      <c r="H66">
+        <v>625</v>
+      </c>
+      <c r="I66">
+        <v>57446</v>
+      </c>
+      <c r="J66">
+        <v>9.9</v>
+      </c>
+      <c r="K66">
+        <v>17.7</v>
+      </c>
+      <c r="L66">
+        <v>0.5589999999999999</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="P66">
+        <v>9.9</v>
+      </c>
+      <c r="Q66">
+        <v>17.7</v>
+      </c>
+      <c r="R66">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S66">
+        <v>4.2</v>
+      </c>
+      <c r="T66">
+        <v>5.8</v>
+      </c>
+      <c r="U66">
+        <v>0.721</v>
+      </c>
+      <c r="V66">
+        <v>2.4</v>
+      </c>
+      <c r="W66">
+        <v>7.7</v>
+      </c>
+      <c r="X66">
+        <v>10.9</v>
+      </c>
+      <c r="Y66">
+        <v>3.5</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>2.6</v>
+      </c>
+      <c r="AB66">
+        <v>2.9</v>
+      </c>
+      <c r="AC66">
+        <v>2.9</v>
+      </c>
+      <c r="AD66">
+        <v>24.1</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67">
+        <v>237</v>
+      </c>
+      <c r="H67">
+        <v>90</v>
+      </c>
+      <c r="I67">
+        <v>8851</v>
+      </c>
+      <c r="J67">
+        <v>9.6</v>
+      </c>
+      <c r="K67">
+        <v>18</v>
+      </c>
+      <c r="L67">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>9.6</v>
+      </c>
+      <c r="Q67">
+        <v>18</v>
+      </c>
+      <c r="R67">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="S67">
+        <v>4.3</v>
+      </c>
+      <c r="T67">
+        <v>5.8</v>
+      </c>
+      <c r="U67">
+        <v>0.74</v>
+      </c>
+      <c r="V67">
+        <v>2.6</v>
+      </c>
+      <c r="W67">
+        <v>6.5</v>
+      </c>
+      <c r="X67">
+        <v>10.1</v>
+      </c>
+      <c r="Y67">
+        <v>3.1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>2.4</v>
+      </c>
+      <c r="AB67">
+        <v>2.8</v>
+      </c>
+      <c r="AC67">
+        <v>3.2</v>
+      </c>
+      <c r="AD67">
+        <v>23.4</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="I68">
+        <v>-48595</v>
+      </c>
+      <c r="J68">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="K68">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="L68">
+        <v>-0.02600000000000002</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>-0.05599999999999999</v>
+      </c>
+      <c r="P68">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Q68">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R68">
+        <v>-0.02700000000000014</v>
+      </c>
+      <c r="S68">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0.01900000000000002</v>
+      </c>
+      <c r="V68">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="W68">
+        <v>-1.2</v>
+      </c>
+      <c r="X68">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="Y68">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AB68">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC68">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AD68">
+        <v>-0.7000000000000028</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>81</v>
+      </c>
+      <c r="I2">
+        <v>3548</v>
+      </c>
+      <c r="J2">
+        <v>12.2</v>
+      </c>
+      <c r="K2">
+        <v>22.6</v>
+      </c>
+      <c r="L2">
+        <v>0.539</v>
+      </c>
+      <c r="P2">
+        <v>12.2</v>
+      </c>
+      <c r="Q2">
+        <v>22.6</v>
+      </c>
+      <c r="R2">
+        <v>0.539</v>
+      </c>
+      <c r="S2">
+        <v>3.8</v>
+      </c>
+      <c r="T2">
+        <v>5.4</v>
+      </c>
+      <c r="U2">
+        <v>0.7020000000000001</v>
+      </c>
+      <c r="V2">
+        <v>3.7</v>
+      </c>
+      <c r="W2">
+        <v>11.4</v>
+      </c>
+      <c r="X2">
+        <v>15.1</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>1.4</v>
+      </c>
+      <c r="AA2">
+        <v>3.6</v>
+      </c>
+      <c r="AC2">
+        <v>3.1</v>
+      </c>
+      <c r="AD2">
+        <v>28.1</v>
+      </c>
+      <c r="AG2">
+        <v>89</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>758</v>
+      </c>
+      <c r="J3">
+        <v>14.4</v>
+      </c>
+      <c r="K3">
+        <v>25.8</v>
+      </c>
+      <c r="L3">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="P3">
+        <v>14.4</v>
+      </c>
+      <c r="Q3">
+        <v>25.8</v>
+      </c>
+      <c r="R3">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="S3">
+        <v>4.3</v>
+      </c>
+      <c r="T3">
+        <v>5.8</v>
+      </c>
+      <c r="U3">
+        <v>0.736</v>
+      </c>
+      <c r="V3">
+        <v>4.3</v>
+      </c>
+      <c r="W3">
+        <v>11.9</v>
+      </c>
+      <c r="X3">
+        <v>16.2</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>1.3</v>
+      </c>
+      <c r="AA3">
+        <v>2.5</v>
+      </c>
+      <c r="AC3">
+        <v>2.6</v>
+      </c>
+      <c r="AD3">
+        <v>33</v>
+      </c>
+      <c r="AG3">
+        <v>90</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-2790</v>
+      </c>
+      <c r="J4">
+        <v>2.200000000000001</v>
+      </c>
+      <c r="K4">
+        <v>3.199999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.01800000000000002</v>
+      </c>
+      <c r="P4">
+        <v>2.200000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>3.199999999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.01800000000000002</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.3999999999999995</v>
+      </c>
+      <c r="U4">
+        <v>0.03399999999999992</v>
+      </c>
+      <c r="V4">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>1.1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>-0.09999999999999987</v>
+      </c>
+      <c r="AA4">
+        <v>-1.1</v>
+      </c>
+      <c r="AC4">
+        <v>-0.5</v>
+      </c>
+      <c r="AD4">
+        <v>4.899999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>2747</v>
+      </c>
+      <c r="J5">
+        <v>13.9</v>
+      </c>
+      <c r="K5">
+        <v>27.1</v>
+      </c>
+      <c r="L5">
+        <v>0.513</v>
+      </c>
+      <c r="P5">
+        <v>13.9</v>
+      </c>
+      <c r="Q5">
+        <v>27.1</v>
+      </c>
+      <c r="R5">
+        <v>0.513</v>
+      </c>
+      <c r="S5">
+        <v>5.6</v>
+      </c>
+      <c r="T5">
+        <v>7.3</v>
+      </c>
+      <c r="U5">
+        <v>0.763</v>
+      </c>
+      <c r="V5">
+        <v>3.3</v>
+      </c>
+      <c r="W5">
+        <v>12.3</v>
+      </c>
+      <c r="X5">
+        <v>15.6</v>
+      </c>
+      <c r="Y5">
+        <v>4.5</v>
+      </c>
+      <c r="Z5">
+        <v>1.1</v>
+      </c>
+      <c r="AA5">
+        <v>3.6</v>
+      </c>
+      <c r="AC5">
+        <v>3.5</v>
+      </c>
+      <c r="AD5">
+        <v>33.4</v>
+      </c>
+      <c r="AG5">
+        <v>92</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7">
+        <v>82</v>
+      </c>
+      <c r="I7">
+        <v>3379</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>22.7</v>
+      </c>
+      <c r="L7">
+        <v>0.529</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>22.7</v>
+      </c>
+      <c r="R7">
+        <v>0.529</v>
+      </c>
+      <c r="S7">
+        <v>5.9</v>
+      </c>
+      <c r="T7">
+        <v>8.4</v>
+      </c>
+      <c r="U7">
+        <v>0.703</v>
+      </c>
+      <c r="V7">
+        <v>3.6</v>
+      </c>
+      <c r="W7">
+        <v>14.6</v>
+      </c>
+      <c r="X7">
+        <v>18.2</v>
+      </c>
+      <c r="Y7">
+        <v>5.4</v>
+      </c>
+      <c r="Z7">
+        <v>1.6</v>
+      </c>
+      <c r="AA7">
+        <v>4.4</v>
+      </c>
+      <c r="AC7">
+        <v>3.8</v>
+      </c>
+      <c r="AD7">
+        <v>29.9</v>
+      </c>
+      <c r="AG7">
+        <v>90</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>82</v>
+      </c>
+      <c r="I9">
+        <v>3016</v>
+      </c>
+      <c r="J9">
+        <v>13.5</v>
+      </c>
+      <c r="K9">
+        <v>23.3</v>
+      </c>
+      <c r="L9">
+        <v>0.579</v>
+      </c>
+      <c r="P9">
+        <v>13.5</v>
+      </c>
+      <c r="Q9">
+        <v>23.3</v>
+      </c>
+      <c r="R9">
+        <v>0.579</v>
+      </c>
+      <c r="S9">
+        <v>5.7</v>
+      </c>
+      <c r="T9">
+        <v>8.1</v>
+      </c>
+      <c r="U9">
+        <v>0.701</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>12.5</v>
+      </c>
+      <c r="X9">
+        <v>16.6</v>
+      </c>
+      <c r="Y9">
+        <v>4.8</v>
+      </c>
+      <c r="Z9">
+        <v>1.5</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>32.7</v>
+      </c>
+      <c r="AG9">
+        <v>92</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>467</v>
+      </c>
+      <c r="J10">
+        <v>14.6</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>0.607</v>
+      </c>
+      <c r="P10">
+        <v>14.6</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>0.607</v>
+      </c>
+      <c r="S10">
+        <v>8.6</v>
+      </c>
+      <c r="T10">
+        <v>11.9</v>
+      </c>
+      <c r="U10">
+        <v>0.725</v>
+      </c>
+      <c r="V10">
+        <v>5.1</v>
+      </c>
+      <c r="W10">
+        <v>14.3</v>
+      </c>
+      <c r="X10">
+        <v>19.4</v>
+      </c>
+      <c r="Y10">
+        <v>4.5</v>
+      </c>
+      <c r="Z10">
+        <v>1.9</v>
+      </c>
+      <c r="AA10">
+        <v>3.8</v>
+      </c>
+      <c r="AC10">
+        <v>4.2</v>
+      </c>
+      <c r="AD10">
+        <v>37.8</v>
+      </c>
+      <c r="AG10">
+        <v>93</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>-2549</v>
+      </c>
+      <c r="J11">
+        <v>1.1</v>
+      </c>
+      <c r="K11">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="L11">
+        <v>0.02800000000000002</v>
+      </c>
+      <c r="P11">
+        <v>1.1</v>
+      </c>
+      <c r="Q11">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="R11">
+        <v>0.02800000000000002</v>
+      </c>
+      <c r="S11">
+        <v>2.899999999999999</v>
+      </c>
+      <c r="T11">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="V11">
+        <v>1.1</v>
+      </c>
+      <c r="W11">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="X11">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="Z11">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AD11">
+        <v>5.099999999999994</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>62</v>
+      </c>
+      <c r="I12">
+        <v>2265</v>
+      </c>
+      <c r="J12">
+        <v>13.2</v>
+      </c>
+      <c r="K12">
+        <v>24.1</v>
+      </c>
+      <c r="L12">
+        <v>0.55</v>
+      </c>
+      <c r="P12">
+        <v>13.2</v>
+      </c>
+      <c r="Q12">
+        <v>24.1</v>
+      </c>
+      <c r="R12">
+        <v>0.55</v>
+      </c>
+      <c r="S12">
+        <v>5.5</v>
+      </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <v>0.7829999999999999</v>
+      </c>
+      <c r="V12">
+        <v>3.7</v>
+      </c>
+      <c r="W12">
+        <v>12.3</v>
+      </c>
+      <c r="X12">
+        <v>16</v>
+      </c>
+      <c r="Y12">
+        <v>5.4</v>
+      </c>
+      <c r="Z12">
+        <v>2.1</v>
+      </c>
+      <c r="AA12">
+        <v>3.7</v>
+      </c>
+      <c r="AB12">
+        <v>4.2</v>
+      </c>
+      <c r="AC12">
+        <v>3.6</v>
+      </c>
+      <c r="AD12">
+        <v>32</v>
+      </c>
+      <c r="AF12">
+        <v>113</v>
+      </c>
+      <c r="AG12">
+        <v>94</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>134</v>
+      </c>
+      <c r="J13">
+        <v>13.8</v>
+      </c>
+      <c r="K13">
+        <v>26.4</v>
+      </c>
+      <c r="L13">
+        <v>0.521</v>
+      </c>
+      <c r="P13">
+        <v>13.8</v>
+      </c>
+      <c r="Q13">
+        <v>26.4</v>
+      </c>
+      <c r="R13">
+        <v>0.521</v>
+      </c>
+      <c r="S13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
+        <v>3.3</v>
+      </c>
+      <c r="U13">
+        <v>0.556</v>
+      </c>
+      <c r="V13">
+        <v>5.1</v>
+      </c>
+      <c r="W13">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X13">
+        <v>14.8</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>0.7</v>
+      </c>
+      <c r="AA13">
+        <v>4.3</v>
+      </c>
+      <c r="AB13">
+        <v>5.1</v>
+      </c>
+      <c r="AC13">
+        <v>5.1</v>
+      </c>
+      <c r="AD13">
+        <v>29.3</v>
+      </c>
+      <c r="AF13">
+        <v>104</v>
+      </c>
+      <c r="AG13">
+        <v>102</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>-2131</v>
+      </c>
+      <c r="J14">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="K14">
+        <v>2.299999999999997</v>
+      </c>
+      <c r="L14">
+        <v>-0.02900000000000003</v>
+      </c>
+      <c r="P14">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="Q14">
+        <v>2.299999999999997</v>
+      </c>
+      <c r="R14">
+        <v>-0.02900000000000003</v>
+      </c>
+      <c r="S14">
+        <v>-3.7</v>
+      </c>
+      <c r="T14">
+        <v>-3.7</v>
+      </c>
+      <c r="U14">
+        <v>-0.2269999999999999</v>
+      </c>
+      <c r="V14">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="W14">
+        <v>-2.5</v>
+      </c>
+      <c r="X14">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>-1.4</v>
+      </c>
+      <c r="Z14">
+        <v>-1.4</v>
+      </c>
+      <c r="AA14">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="AB14">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="AC14">
+        <v>1.5</v>
+      </c>
+      <c r="AD14">
+        <v>-2.699999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>-9</v>
+      </c>
+      <c r="AG14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>3157</v>
+      </c>
+      <c r="J15">
+        <v>11.2</v>
+      </c>
+      <c r="K15">
+        <v>19.3</v>
+      </c>
+      <c r="L15">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="P15">
+        <v>11.2</v>
+      </c>
+      <c r="Q15">
+        <v>19.3</v>
+      </c>
+      <c r="R15">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>6.8</v>
+      </c>
+      <c r="U15">
+        <v>0.736</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>11.7</v>
+      </c>
+      <c r="X15">
+        <v>14.7</v>
+      </c>
+      <c r="Y15">
+        <v>6.2</v>
+      </c>
+      <c r="Z15">
+        <v>1.1</v>
+      </c>
+      <c r="AA15">
+        <v>4.5</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>3.3</v>
+      </c>
+      <c r="AD15">
+        <v>27.3</v>
+      </c>
+      <c r="AF15">
+        <v>115</v>
+      </c>
+      <c r="AG15">
+        <v>98</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>367</v>
+      </c>
+      <c r="J16">
+        <v>11.4</v>
+      </c>
+      <c r="K16">
+        <v>19.7</v>
+      </c>
+      <c r="L16">
+        <v>0.579</v>
+      </c>
+      <c r="P16">
+        <v>11.4</v>
+      </c>
+      <c r="Q16">
+        <v>19.7</v>
+      </c>
+      <c r="R16">
+        <v>0.579</v>
+      </c>
+      <c r="S16">
+        <v>6.7</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>0.8390000000000001</v>
+      </c>
+      <c r="V16">
+        <v>2.3</v>
+      </c>
+      <c r="W16">
+        <v>10.7</v>
+      </c>
+      <c r="X16">
+        <v>13.1</v>
+      </c>
+      <c r="Y16">
+        <v>4.9</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>4.3</v>
+      </c>
+      <c r="AB16">
+        <v>3.8</v>
+      </c>
+      <c r="AC16">
+        <v>3.4</v>
+      </c>
+      <c r="AD16">
+        <v>29.5</v>
+      </c>
+      <c r="AF16">
+        <v>117</v>
+      </c>
+      <c r="AG16">
+        <v>102</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>-2790</v>
+      </c>
+      <c r="J17">
+        <v>0.2000000000000011</v>
+      </c>
+      <c r="K17">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="L17">
+        <v>0.001999999999999891</v>
+      </c>
+      <c r="P17">
+        <v>0.2000000000000011</v>
+      </c>
+      <c r="Q17">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="R17">
+        <v>0.001999999999999891</v>
+      </c>
+      <c r="S17">
+        <v>1.7</v>
+      </c>
+      <c r="T17">
+        <v>1.2</v>
+      </c>
+      <c r="U17">
+        <v>0.1030000000000001</v>
+      </c>
+      <c r="V17">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1.6</v>
+      </c>
+      <c r="Y17">
+        <v>-1.3</v>
+      </c>
+      <c r="Z17">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AA17">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AB17">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AC17">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>2.199999999999999</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>82</v>
+      </c>
+      <c r="I18">
+        <v>3143</v>
+      </c>
+      <c r="J18">
+        <v>12.3</v>
+      </c>
+      <c r="K18">
+        <v>20.3</v>
+      </c>
+      <c r="L18">
+        <v>0.604</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.3</v>
+      </c>
+      <c r="Q18">
+        <v>20.3</v>
+      </c>
+      <c r="R18">
+        <v>0.604</v>
+      </c>
+      <c r="S18">
+        <v>5.3</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>0.765</v>
+      </c>
+      <c r="V18">
+        <v>2.8</v>
+      </c>
+      <c r="W18">
+        <v>10.2</v>
+      </c>
+      <c r="X18">
+        <v>13</v>
+      </c>
+      <c r="Y18">
+        <v>5.4</v>
+      </c>
+      <c r="Z18">
+        <v>1.2</v>
+      </c>
+      <c r="AA18">
+        <v>4.1</v>
+      </c>
+      <c r="AB18">
+        <v>4.4</v>
+      </c>
+      <c r="AC18">
+        <v>3.2</v>
+      </c>
+      <c r="AD18">
+        <v>29.8</v>
+      </c>
+      <c r="AF18">
+        <v>118</v>
+      </c>
+      <c r="AG18">
+        <v>100</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>618</v>
+      </c>
+      <c r="J19">
+        <v>15.1</v>
+      </c>
+      <c r="K19">
+        <v>26.3</v>
+      </c>
+      <c r="L19">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>15.1</v>
+      </c>
+      <c r="Q19">
+        <v>26.3</v>
+      </c>
+      <c r="R19">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="S19">
+        <v>6.3</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>0.79</v>
+      </c>
+      <c r="V19">
+        <v>3.9</v>
+      </c>
+      <c r="W19">
+        <v>9.9</v>
+      </c>
+      <c r="X19">
+        <v>13.8</v>
+      </c>
+      <c r="Y19">
+        <v>3.5</v>
+      </c>
+      <c r="Z19">
+        <v>1.3</v>
+      </c>
+      <c r="AA19">
+        <v>4.4</v>
+      </c>
+      <c r="AB19">
+        <v>4.2</v>
+      </c>
+      <c r="AC19">
+        <v>3.9</v>
+      </c>
+      <c r="AD19">
+        <v>36.4</v>
+      </c>
+      <c r="AF19">
+        <v>118</v>
+      </c>
+      <c r="AG19">
+        <v>99</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>-2525</v>
+      </c>
+      <c r="J20">
+        <v>2.799999999999999</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>-0.03199999999999992</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2.799999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>-0.03199999999999992</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="V20">
+        <v>1.1</v>
+      </c>
+      <c r="W20">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="X20">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="Y20">
+        <v>-1.9</v>
+      </c>
+      <c r="Z20">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="AB20">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AC20">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="AD20">
+        <v>6.599999999999998</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>2976</v>
+      </c>
+      <c r="J21">
+        <v>13.1</v>
+      </c>
+      <c r="K21">
+        <v>22.9</v>
+      </c>
+      <c r="L21">
+        <v>0.574</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>13.1</v>
+      </c>
+      <c r="Q21">
+        <v>22.9</v>
+      </c>
+      <c r="R21">
+        <v>0.574</v>
+      </c>
+      <c r="S21">
+        <v>6.6</v>
+      </c>
+      <c r="T21">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U21">
+        <v>0.7659999999999999</v>
+      </c>
+      <c r="V21">
+        <v>3.1</v>
+      </c>
+      <c r="W21">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X21">
+        <v>12.9</v>
+      </c>
+      <c r="Y21">
+        <v>4.3</v>
+      </c>
+      <c r="Z21">
+        <v>0.9</v>
+      </c>
+      <c r="AA21">
+        <v>3.6</v>
+      </c>
+      <c r="AB21">
+        <v>3.9</v>
+      </c>
+      <c r="AC21">
+        <v>3.8</v>
+      </c>
+      <c r="AD21">
+        <v>32.9</v>
+      </c>
+      <c r="AF21">
+        <v>118</v>
+      </c>
+      <c r="AG21">
+        <v>101</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>134</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>23.9</v>
+      </c>
+      <c r="L22">
+        <v>0.462</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11</v>
+      </c>
+      <c r="Q22">
+        <v>23.9</v>
+      </c>
+      <c r="R22">
+        <v>0.462</v>
+      </c>
+      <c r="S22">
+        <v>7.3</v>
+      </c>
+      <c r="T22">
+        <v>10.3</v>
+      </c>
+      <c r="U22">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="V22">
+        <v>4.8</v>
+      </c>
+      <c r="W22">
+        <v>13.6</v>
+      </c>
+      <c r="X22">
+        <v>18.4</v>
+      </c>
+      <c r="Y22">
+        <v>4.4</v>
+      </c>
+      <c r="Z22">
+        <v>1.1</v>
+      </c>
+      <c r="AA22">
+        <v>2.9</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
+      </c>
+      <c r="AC22">
+        <v>5.1</v>
+      </c>
+      <c r="AD22">
+        <v>29.4</v>
+      </c>
+      <c r="AF22">
+        <v>105</v>
+      </c>
+      <c r="AG22">
+        <v>99</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>-2842</v>
+      </c>
+      <c r="J23">
+        <v>-2.1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>-0.1119999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>-2.1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>-0.1119999999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="T23">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="U23">
+        <v>-0.05199999999999982</v>
+      </c>
+      <c r="V23">
+        <v>1.7</v>
+      </c>
+      <c r="W23">
+        <v>3.799999999999999</v>
+      </c>
+      <c r="X23">
+        <v>5.499999999999998</v>
+      </c>
+      <c r="Y23">
+        <v>0.1000000000000005</v>
+      </c>
+      <c r="Z23">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="AB23">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AC23">
+        <v>1.3</v>
+      </c>
+      <c r="AD23">
+        <v>-3.5</v>
+      </c>
+      <c r="AF23">
+        <v>-13</v>
+      </c>
+      <c r="AG23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>76</v>
+      </c>
+      <c r="H24">
+        <v>76</v>
+      </c>
+      <c r="I24">
+        <v>2677</v>
+      </c>
+      <c r="J24">
+        <v>13.1</v>
+      </c>
+      <c r="K24">
+        <v>22.6</v>
+      </c>
+      <c r="L24">
+        <v>0.579</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>13.1</v>
+      </c>
+      <c r="Q24">
+        <v>22.6</v>
+      </c>
+      <c r="R24">
+        <v>0.58</v>
+      </c>
+      <c r="S24">
+        <v>5.4</v>
+      </c>
+      <c r="T24">
+        <v>7.7</v>
+      </c>
+      <c r="U24">
+        <v>0.706</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>8.5</v>
+      </c>
+      <c r="X24">
+        <v>11.5</v>
+      </c>
+      <c r="Y24">
+        <v>3.9</v>
+      </c>
+      <c r="Z24">
+        <v>1.1</v>
+      </c>
+      <c r="AA24">
+        <v>3.6</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>3.9</v>
+      </c>
+      <c r="AD24">
+        <v>31.6</v>
+      </c>
+      <c r="AF24">
+        <v>116</v>
+      </c>
+      <c r="AG24">
+        <v>104</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>493</v>
+      </c>
+      <c r="J25">
+        <v>10.9</v>
+      </c>
+      <c r="K25">
+        <v>20.9</v>
+      </c>
+      <c r="L25">
+        <v>0.52</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>10.9</v>
+      </c>
+      <c r="Q25">
+        <v>20.9</v>
+      </c>
+      <c r="R25">
+        <v>0.52</v>
+      </c>
+      <c r="S25">
+        <v>5.2</v>
+      </c>
+      <c r="T25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U25">
+        <v>0.632</v>
+      </c>
+      <c r="V25">
+        <v>3.1</v>
+      </c>
+      <c r="W25">
+        <v>8.1</v>
+      </c>
+      <c r="X25">
+        <v>11.2</v>
+      </c>
+      <c r="Y25">
+        <v>4.8</v>
+      </c>
+      <c r="Z25">
+        <v>1.3</v>
+      </c>
+      <c r="AA25">
+        <v>4.2</v>
+      </c>
+      <c r="AB25">
+        <v>3.9</v>
+      </c>
+      <c r="AC25">
+        <v>4.2</v>
+      </c>
+      <c r="AD25">
+        <v>26.9</v>
+      </c>
+      <c r="AF25">
+        <v>109</v>
+      </c>
+      <c r="AG25">
+        <v>104</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>-2184</v>
+      </c>
+      <c r="J26">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="K26">
+        <v>-1.700000000000003</v>
+      </c>
+      <c r="L26">
+        <v>-0.05899999999999994</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>-0.1</v>
+      </c>
+      <c r="P26">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>-1.700000000000003</v>
+      </c>
+      <c r="R26">
+        <v>-0.05999999999999994</v>
+      </c>
+      <c r="S26">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="T26">
+        <v>0.4999999999999991</v>
+      </c>
+      <c r="U26">
+        <v>-0.07399999999999995</v>
+      </c>
+      <c r="V26">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="W26">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="X26">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Y26">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>0.2</v>
+      </c>
+      <c r="AA26">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AB26">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC26">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AD26">
+        <v>-4.700000000000003</v>
+      </c>
+      <c r="AF26">
+        <v>-7</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27">
+        <v>79</v>
+      </c>
+      <c r="H27">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>2554</v>
+      </c>
+      <c r="J27">
+        <v>13.1</v>
+      </c>
+      <c r="K27">
+        <v>22.2</v>
+      </c>
+      <c r="L27">
+        <v>0.588</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>13.1</v>
+      </c>
+      <c r="Q27">
+        <v>22.2</v>
+      </c>
+      <c r="R27">
+        <v>0.589</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>6.7</v>
+      </c>
+      <c r="U27">
+        <v>0.7490000000000001</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>7.7</v>
+      </c>
+      <c r="X27">
+        <v>10.7</v>
+      </c>
+      <c r="Y27">
+        <v>3.6</v>
+      </c>
+      <c r="Z27">
+        <v>1.1</v>
+      </c>
+      <c r="AA27">
+        <v>3.1</v>
+      </c>
+      <c r="AB27">
+        <v>3.6</v>
+      </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>31.2</v>
+      </c>
+      <c r="AF27">
+        <v>118</v>
+      </c>
+      <c r="AG27">
+        <v>104</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>588</v>
+      </c>
+      <c r="J28">
+        <v>13.2</v>
+      </c>
+      <c r="K28">
+        <v>23.2</v>
+      </c>
+      <c r="L28">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>13.2</v>
+      </c>
+      <c r="Q28">
+        <v>23.2</v>
+      </c>
+      <c r="R28">
+        <v>0.57</v>
+      </c>
+      <c r="S28">
+        <v>6.5</v>
+      </c>
+      <c r="T28">
+        <v>8.6</v>
+      </c>
+      <c r="U28">
+        <v>0.755</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>7.3</v>
+      </c>
+      <c r="X28">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>3.4</v>
+      </c>
+      <c r="Z28">
+        <v>1.4</v>
+      </c>
+      <c r="AA28">
+        <v>4.5</v>
+      </c>
+      <c r="AB28">
+        <v>4</v>
+      </c>
+      <c r="AC28">
+        <v>4.9</v>
+      </c>
+      <c r="AD28">
+        <v>32.9</v>
+      </c>
+      <c r="AF28">
+        <v>114</v>
+      </c>
+      <c r="AG28">
+        <v>105</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>-1966</v>
+      </c>
+      <c r="J29">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0.1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>-0.01900000000000002</v>
+      </c>
+      <c r="S29">
+        <v>1.5</v>
+      </c>
+      <c r="T29">
+        <v>1.899999999999999</v>
+      </c>
+      <c r="U29">
+        <v>0.005999999999999894</v>
+      </c>
+      <c r="V29">
+        <v>-1</v>
+      </c>
+      <c r="W29">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="X29">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Z29">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AA29">
+        <v>1.4</v>
+      </c>
+      <c r="AB29">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AC29">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="AD29">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="AF29">
+        <v>-4</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>80</v>
+      </c>
+      <c r="I30">
+        <v>2622</v>
+      </c>
+      <c r="J30">
+        <v>12.6</v>
+      </c>
+      <c r="K30">
+        <v>21.9</v>
+      </c>
+      <c r="L30">
+        <v>0.578</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>12.6</v>
+      </c>
+      <c r="Q30">
+        <v>21.8</v>
+      </c>
+      <c r="R30">
+        <v>0.579</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>7</v>
+      </c>
+      <c r="U30">
+        <v>0.723</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>7.4</v>
+      </c>
+      <c r="X30">
+        <v>10.4</v>
+      </c>
+      <c r="Y30">
+        <v>3.7</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>2.5</v>
+      </c>
+      <c r="AB30">
+        <v>3.9</v>
+      </c>
+      <c r="AC30">
+        <v>3.7</v>
+      </c>
+      <c r="AD30">
+        <v>30.3</v>
+      </c>
+      <c r="AF30">
+        <v>115</v>
+      </c>
+      <c r="AG30">
+        <v>107</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>21</v>
+      </c>
+      <c r="I31">
+        <v>767</v>
+      </c>
+      <c r="J31">
+        <v>12.9</v>
+      </c>
+      <c r="K31">
+        <v>23.2</v>
+      </c>
+      <c r="L31">
+        <v>0.555</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>12.9</v>
+      </c>
+      <c r="Q31">
+        <v>23.2</v>
+      </c>
+      <c r="R31">
+        <v>0.555</v>
+      </c>
+      <c r="S31">
+        <v>5.6</v>
+      </c>
+      <c r="T31">
+        <v>7.5</v>
+      </c>
+      <c r="U31">
+        <v>0.75</v>
+      </c>
+      <c r="V31">
+        <v>3.5</v>
+      </c>
+      <c r="W31">
+        <v>7.3</v>
+      </c>
+      <c r="X31">
+        <v>10.8</v>
+      </c>
+      <c r="Y31">
+        <v>4.9</v>
+      </c>
+      <c r="Z31">
+        <v>1.4</v>
+      </c>
+      <c r="AA31">
+        <v>2.8</v>
+      </c>
+      <c r="AB31">
+        <v>2.8</v>
+      </c>
+      <c r="AC31">
+        <v>4.4</v>
+      </c>
+      <c r="AD31">
+        <v>31.4</v>
+      </c>
+      <c r="AF31">
+        <v>121</v>
+      </c>
+      <c r="AG31">
+        <v>106</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>-1855</v>
+      </c>
+      <c r="J32">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="K32">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="L32">
+        <v>-0.02299999999999991</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="Q32">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="R32">
+        <v>-0.02399999999999991</v>
+      </c>
+      <c r="S32">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="X32">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="Y32">
+        <v>1.2</v>
+      </c>
+      <c r="Z32">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AA32">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AB32">
+        <v>-1.1</v>
+      </c>
+      <c r="AC32">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AD32">
+        <v>1.099999999999998</v>
+      </c>
+      <c r="AF32">
+        <v>6</v>
+      </c>
+      <c r="AG32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>79</v>
+      </c>
+      <c r="H33">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>2630</v>
+      </c>
+      <c r="J33">
+        <v>12.8</v>
+      </c>
+      <c r="K33">
+        <v>21.3</v>
+      </c>
+      <c r="L33">
+        <v>0.599</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>12.8</v>
+      </c>
+      <c r="Q33">
+        <v>21.3</v>
+      </c>
+      <c r="R33">
+        <v>0.6</v>
+      </c>
+      <c r="S33">
+        <v>5.1</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <v>0.732</v>
+      </c>
+      <c r="V33">
+        <v>2.9</v>
+      </c>
+      <c r="W33">
+        <v>8.1</v>
+      </c>
+      <c r="X33">
+        <v>11</v>
+      </c>
+      <c r="Y33">
+        <v>4.4</v>
+      </c>
+      <c r="Z33">
+        <v>1.1</v>
+      </c>
+      <c r="AA33">
+        <v>2.9</v>
+      </c>
+      <c r="AB33">
+        <v>3.5</v>
+      </c>
+      <c r="AC33">
+        <v>4.2</v>
+      </c>
+      <c r="AD33">
+        <v>30.7</v>
+      </c>
+      <c r="AF33">
+        <v>120</v>
+      </c>
+      <c r="AG33">
+        <v>105</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>610</v>
+      </c>
+      <c r="J34">
+        <v>12.2</v>
+      </c>
+      <c r="K34">
+        <v>21.9</v>
+      </c>
+      <c r="L34">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>12.2</v>
+      </c>
+      <c r="Q34">
+        <v>21.9</v>
+      </c>
+      <c r="R34">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S34">
+        <v>5.8</v>
+      </c>
+      <c r="T34">
+        <v>7.5</v>
+      </c>
+      <c r="U34">
+        <v>0.777</v>
+      </c>
+      <c r="V34">
+        <v>3.6</v>
+      </c>
+      <c r="W34">
+        <v>7.6</v>
+      </c>
+      <c r="X34">
+        <v>11.2</v>
+      </c>
+      <c r="Y34">
+        <v>5.5</v>
+      </c>
+      <c r="Z34">
+        <v>1.7</v>
+      </c>
+      <c r="AA34">
+        <v>2.6</v>
+      </c>
+      <c r="AB34">
+        <v>3.8</v>
+      </c>
+      <c r="AC34">
+        <v>4.9</v>
+      </c>
+      <c r="AD34">
+        <v>30.3</v>
+      </c>
+      <c r="AF34">
+        <v>118</v>
+      </c>
+      <c r="AG34">
+        <v>105</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <v>-2020</v>
+      </c>
+      <c r="J35">
+        <v>-0.6000000000000014</v>
+      </c>
+      <c r="K35">
+        <v>0.5999999999999979</v>
+      </c>
+      <c r="L35">
+        <v>-0.03899999999999992</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>-0.6000000000000014</v>
+      </c>
+      <c r="Q35">
+        <v>0.5999999999999979</v>
+      </c>
+      <c r="R35">
+        <v>-0.03999999999999992</v>
+      </c>
+      <c r="S35">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="T35">
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <v>0.04500000000000004</v>
+      </c>
+      <c r="V35">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="W35">
+        <v>-0.5</v>
+      </c>
+      <c r="X35">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="Y35">
+        <v>1.1</v>
+      </c>
+      <c r="Z35">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="AA35">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AB35">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC35">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AD35">
+        <v>-0.3999999999999986</v>
+      </c>
+      <c r="AF35">
+        <v>-2</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36">
+        <v>79</v>
+      </c>
+      <c r="H36">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>2629</v>
+      </c>
+      <c r="J36">
+        <v>13.4</v>
+      </c>
+      <c r="K36">
+        <v>23.8</v>
+      </c>
+      <c r="L36">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>13.4</v>
+      </c>
+      <c r="Q36">
+        <v>23.7</v>
+      </c>
+      <c r="R36">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>7.8</v>
+      </c>
+      <c r="U36">
+        <v>0.765</v>
+      </c>
+      <c r="V36">
+        <v>2.4</v>
+      </c>
+      <c r="W36">
+        <v>6.1</v>
+      </c>
+      <c r="X36">
+        <v>8.5</v>
+      </c>
+      <c r="Y36">
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <v>1.2</v>
+      </c>
+      <c r="AA36">
+        <v>2.3</v>
+      </c>
+      <c r="AB36">
+        <v>3.6</v>
+      </c>
+      <c r="AC36">
+        <v>4.4</v>
+      </c>
+      <c r="AD36">
+        <v>32.8</v>
+      </c>
+      <c r="AF36">
+        <v>118</v>
+      </c>
+      <c r="AG36">
+        <v>106</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>489</v>
+      </c>
+      <c r="J37">
+        <v>15.4</v>
+      </c>
+      <c r="K37">
+        <v>27.7</v>
+      </c>
+      <c r="L37">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>15.4</v>
+      </c>
+      <c r="Q37">
+        <v>27.7</v>
+      </c>
+      <c r="R37">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="S37">
+        <v>4.7</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>0.787</v>
+      </c>
+      <c r="V37">
+        <v>2.6</v>
+      </c>
+      <c r="W37">
+        <v>5.6</v>
+      </c>
+      <c r="X37">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>4.8</v>
+      </c>
+      <c r="Z37">
+        <v>1.5</v>
+      </c>
+      <c r="AA37">
+        <v>2.4</v>
+      </c>
+      <c r="AB37">
+        <v>4.1</v>
+      </c>
+      <c r="AC37">
+        <v>5.3</v>
+      </c>
+      <c r="AD37">
+        <v>35.6</v>
+      </c>
+      <c r="AF37">
+        <v>113</v>
+      </c>
+      <c r="AG37">
+        <v>107</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>-2140</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>3.899999999999999</v>
+      </c>
+      <c r="L38">
+        <v>-0.006999999999999895</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>-0.007999999999999896</v>
+      </c>
+      <c r="S38">
+        <v>-1.3</v>
+      </c>
+      <c r="T38">
+        <v>-1.8</v>
+      </c>
+      <c r="U38">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="V38">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="W38">
+        <v>-0.5</v>
+      </c>
+      <c r="X38">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Y38">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Z38">
+        <v>0.3</v>
+      </c>
+      <c r="AA38">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AB38">
+        <v>0.4999999999999996</v>
+      </c>
+      <c r="AC38">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="AD38">
+        <v>2.800000000000004</v>
+      </c>
+      <c r="AF38">
+        <v>-5</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39">
+        <v>78</v>
+      </c>
+      <c r="H39">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>2441</v>
+      </c>
+      <c r="J39">
+        <v>10.8</v>
+      </c>
+      <c r="K39">
+        <v>19.2</v>
+      </c>
+      <c r="L39">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0.1</v>
+      </c>
+      <c r="O39">
+        <v>0.333</v>
+      </c>
+      <c r="P39">
+        <v>10.8</v>
+      </c>
+      <c r="Q39">
+        <v>19.2</v>
+      </c>
+      <c r="R39">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="S39">
+        <v>4.7</v>
+      </c>
+      <c r="T39">
+        <v>6.6</v>
+      </c>
+      <c r="U39">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="V39">
+        <v>2.9</v>
+      </c>
+      <c r="W39">
+        <v>7.2</v>
+      </c>
+      <c r="X39">
+        <v>10.1</v>
+      </c>
+      <c r="Y39">
+        <v>3.9</v>
+      </c>
+      <c r="Z39">
+        <v>0.9</v>
+      </c>
+      <c r="AA39">
+        <v>1.9</v>
+      </c>
+      <c r="AB39">
+        <v>3.6</v>
+      </c>
+      <c r="AC39">
+        <v>4.7</v>
+      </c>
+      <c r="AD39">
+        <v>26.4</v>
+      </c>
+      <c r="AF39">
+        <v>114</v>
+      </c>
+      <c r="AG39">
+        <v>107</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>559</v>
+      </c>
+      <c r="J40">
+        <v>10.6</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>0.53</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>10.6</v>
+      </c>
+      <c r="Q40">
+        <v>19.9</v>
+      </c>
+      <c r="R40">
+        <v>0.532</v>
+      </c>
+      <c r="S40">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="T40">
+        <v>10.4</v>
+      </c>
+      <c r="U40">
+        <v>0.795</v>
+      </c>
+      <c r="V40">
+        <v>3.3</v>
+      </c>
+      <c r="W40">
+        <v>7.2</v>
+      </c>
+      <c r="X40">
+        <v>10.5</v>
+      </c>
+      <c r="Y40">
+        <v>3.1</v>
+      </c>
+      <c r="Z40">
+        <v>0.7</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>3.4</v>
+      </c>
+      <c r="AC40">
+        <v>4.8</v>
+      </c>
+      <c r="AD40">
+        <v>29.5</v>
+      </c>
+      <c r="AF40">
+        <v>119</v>
+      </c>
+      <c r="AG40">
+        <v>108</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>-1882</v>
+      </c>
+      <c r="J41">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="K41">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="L41">
+        <v>-0.03399999999999992</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>-0.333</v>
+      </c>
+      <c r="P41">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="Q41">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="R41">
+        <v>-0.03299999999999992</v>
+      </c>
+      <c r="S41">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="T41">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="U41">
+        <v>0.08099999999999996</v>
+      </c>
+      <c r="V41">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="Y41">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="Z41">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="AA41">
+        <v>1.1</v>
+      </c>
+      <c r="AB41">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AC41">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="AD41">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="AF41">
+        <v>5</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42">
+        <v>80</v>
+      </c>
+      <c r="H42">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>2308</v>
+      </c>
+      <c r="J42">
+        <v>10.1</v>
+      </c>
+      <c r="K42">
+        <v>19</v>
+      </c>
+      <c r="L42">
+        <v>0.532</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>10.1</v>
+      </c>
+      <c r="Q42">
+        <v>18.9</v>
+      </c>
+      <c r="R42">
+        <v>0.532</v>
+      </c>
+      <c r="S42">
+        <v>4.3</v>
+      </c>
+      <c r="T42">
+        <v>5.6</v>
+      </c>
+      <c r="U42">
+        <v>0.762</v>
+      </c>
+      <c r="V42">
+        <v>2.5</v>
+      </c>
+      <c r="W42">
+        <v>7.6</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>2.8</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1.9</v>
+      </c>
+      <c r="AB42">
+        <v>3.3</v>
+      </c>
+      <c r="AC42">
+        <v>4.5</v>
+      </c>
+      <c r="AD42">
+        <v>24.4</v>
+      </c>
+      <c r="AF42">
+        <v>109</v>
+      </c>
+      <c r="AG42">
+        <v>107</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
+      </c>
+      <c r="H43">
+        <v>24</v>
+      </c>
+      <c r="I43">
+        <v>718</v>
+      </c>
+      <c r="J43">
+        <v>10.2</v>
+      </c>
+      <c r="K43">
+        <v>22</v>
+      </c>
+      <c r="L43">
+        <v>0.464</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0.1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>10.2</v>
+      </c>
+      <c r="Q43">
+        <v>21.8</v>
+      </c>
+      <c r="R43">
+        <v>0.467</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <v>5.1</v>
+      </c>
+      <c r="U43">
+        <v>0.789</v>
+      </c>
+      <c r="V43">
+        <v>3.5</v>
+      </c>
+      <c r="W43">
+        <v>5.9</v>
+      </c>
+      <c r="X43">
+        <v>9.5</v>
+      </c>
+      <c r="Y43">
+        <v>2.6</v>
+      </c>
+      <c r="Z43">
+        <v>1.1</v>
+      </c>
+      <c r="AA43">
+        <v>2.7</v>
+      </c>
+      <c r="AB43">
+        <v>3.3</v>
+      </c>
+      <c r="AC43">
+        <v>5.9</v>
+      </c>
+      <c r="AD43">
+        <v>24.4</v>
+      </c>
+      <c r="AF43">
+        <v>103</v>
+      </c>
+      <c r="AG43">
+        <v>111</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>-1590</v>
+      </c>
+      <c r="J44">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>-0.06800000000000006</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Q44">
+        <v>2.900000000000002</v>
+      </c>
+      <c r="R44">
+        <v>-0.065</v>
+      </c>
+      <c r="S44">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="T44">
+        <v>-0.5</v>
+      </c>
+      <c r="U44">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-0.5</v>
+      </c>
+      <c r="Y44">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="Z44">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>1.4</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>-6</v>
+      </c>
+      <c r="AG44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45">
+        <v>74</v>
+      </c>
+      <c r="H45">
+        <v>74</v>
+      </c>
+      <c r="I45">
+        <v>1695</v>
+      </c>
+      <c r="J45">
+        <v>8.9</v>
+      </c>
+      <c r="K45">
+        <v>18.6</v>
+      </c>
+      <c r="L45">
+        <v>0.475</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0.1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>8.9</v>
+      </c>
+      <c r="Q45">
+        <v>18.6</v>
+      </c>
+      <c r="R45">
+        <v>0.477</v>
+      </c>
+      <c r="S45">
+        <v>3.5</v>
+      </c>
+      <c r="T45">
+        <v>4.7</v>
+      </c>
+      <c r="U45">
+        <v>0.7390000000000001</v>
+      </c>
+      <c r="V45">
+        <v>2.9</v>
+      </c>
+      <c r="W45">
+        <v>6.5</v>
+      </c>
+      <c r="X45">
+        <v>9.4</v>
+      </c>
+      <c r="Y45">
+        <v>2.1</v>
+      </c>
+      <c r="Z45">
+        <v>1.1</v>
+      </c>
+      <c r="AA45">
+        <v>2.4</v>
+      </c>
+      <c r="AB45">
+        <v>2.7</v>
+      </c>
+      <c r="AC45">
+        <v>5.5</v>
+      </c>
+      <c r="AD45">
+        <v>21.2</v>
+      </c>
+      <c r="AF45">
+        <v>104</v>
+      </c>
+      <c r="AG45">
+        <v>107</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>351</v>
+      </c>
+      <c r="J46">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K46">
+        <v>21.1</v>
+      </c>
+      <c r="L46">
+        <v>0.463</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>21.1</v>
+      </c>
+      <c r="R46">
+        <v>0.463</v>
+      </c>
+      <c r="S46">
+        <v>4.4</v>
+      </c>
+      <c r="T46">
+        <v>6.2</v>
+      </c>
+      <c r="U46">
+        <v>0.721</v>
+      </c>
+      <c r="V46">
+        <v>1.9</v>
+      </c>
+      <c r="W46">
+        <v>6.6</v>
+      </c>
+      <c r="X46">
+        <v>8.5</v>
+      </c>
+      <c r="Y46">
+        <v>2.7</v>
+      </c>
+      <c r="Z46">
+        <v>0.7</v>
+      </c>
+      <c r="AA46">
+        <v>1.6</v>
+      </c>
+      <c r="AB46">
+        <v>3.2</v>
+      </c>
+      <c r="AC46">
+        <v>6.2</v>
+      </c>
+      <c r="AD46">
+        <v>23.9</v>
+      </c>
+      <c r="AF46">
+        <v>101</v>
+      </c>
+      <c r="AG46">
+        <v>112</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="I47">
+        <v>-1344</v>
+      </c>
+      <c r="J47">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="K47">
+        <v>2.5</v>
+      </c>
+      <c r="L47">
+        <v>-0.01200000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>-0.1</v>
+      </c>
+      <c r="P47">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="Q47">
+        <v>2.5</v>
+      </c>
+      <c r="R47">
+        <v>-0.01400000000000007</v>
+      </c>
+      <c r="S47">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="T47">
+        <v>1.5</v>
+      </c>
+      <c r="U47">
+        <v>-0.01800000000000013</v>
+      </c>
+      <c r="V47">
+        <v>-1</v>
+      </c>
+      <c r="W47">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="X47">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="Y47">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z47">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AB47">
+        <v>0.5</v>
+      </c>
+      <c r="AC47">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AD47">
+        <v>2.699999999999999</v>
+      </c>
+      <c r="AF47">
+        <v>-3</v>
+      </c>
+      <c r="AG47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48">
+        <v>1093</v>
+      </c>
+      <c r="H48">
+        <v>625</v>
+      </c>
+      <c r="I48">
+        <v>37492</v>
+      </c>
+      <c r="J48">
+        <v>12.3</v>
+      </c>
+      <c r="K48">
+        <v>21.6</v>
+      </c>
+      <c r="L48">
+        <v>0.5670000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="P48">
+        <v>12.3</v>
+      </c>
+      <c r="Q48">
+        <v>21.6</v>
+      </c>
+      <c r="R48">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="S48">
+        <v>5.3</v>
+      </c>
+      <c r="T48">
+        <v>7.2</v>
+      </c>
+      <c r="U48">
+        <v>0.737</v>
+      </c>
+      <c r="V48">
+        <v>3.1</v>
+      </c>
+      <c r="W48">
+        <v>9.6</v>
+      </c>
+      <c r="X48">
+        <v>12.7</v>
+      </c>
+      <c r="Y48">
+        <v>4.5</v>
+      </c>
+      <c r="Z48">
+        <v>1.2</v>
+      </c>
+      <c r="AA48">
+        <v>3.3</v>
+      </c>
+      <c r="AB48">
+        <v>3.1</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AD48">
+        <v>29.8</v>
+      </c>
+      <c r="AF48">
+        <v>115</v>
+      </c>
+      <c r="AG48">
+        <v>101</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49">
+        <v>180</v>
+      </c>
+      <c r="H49">
+        <v>90</v>
+      </c>
+      <c r="I49">
+        <v>6295</v>
+      </c>
+      <c r="J49">
+        <v>12.5</v>
+      </c>
+      <c r="K49">
+        <v>22.9</v>
+      </c>
+      <c r="L49">
+        <v>0.5429999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>12.5</v>
+      </c>
+      <c r="Q49">
+        <v>22.9</v>
+      </c>
+      <c r="R49">
+        <v>0.544</v>
+      </c>
+      <c r="S49">
+        <v>5.9</v>
+      </c>
+      <c r="T49">
+        <v>7.9</v>
+      </c>
+      <c r="U49">
+        <v>0.7559999999999999</v>
+      </c>
+      <c r="V49">
+        <v>3.3</v>
+      </c>
+      <c r="W49">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X49">
+        <v>11.6</v>
+      </c>
+      <c r="Y49">
+        <v>4.1</v>
+      </c>
+      <c r="Z49">
+        <v>1.3</v>
+      </c>
+      <c r="AA49">
+        <v>3.3</v>
+      </c>
+      <c r="AB49">
+        <v>3.4</v>
+      </c>
+      <c r="AC49">
+        <v>4.7</v>
+      </c>
+      <c r="AD49">
+        <v>30.9</v>
+      </c>
+      <c r="AF49">
+        <v>114</v>
+      </c>
+      <c r="AG49">
+        <v>105</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="I50">
+        <v>-31197</v>
+      </c>
+      <c r="J50">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="K50">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="L50">
+        <v>-0.02400000000000013</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>-0.05599999999999999</v>
+      </c>
+      <c r="P50">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="Q50">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="R50">
+        <v>-0.02399999999999991</v>
+      </c>
+      <c r="S50">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="T50">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="U50">
+        <v>0.01899999999999991</v>
+      </c>
+      <c r="V50">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="W50">
+        <v>-1.4</v>
+      </c>
+      <c r="X50">
+        <v>-1.1</v>
+      </c>
+      <c r="Y50">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Z50">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC50">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AD50">
+        <v>1.099999999999998</v>
+      </c>
+      <c r="AF50">
+        <v>-1</v>
+      </c>
+      <c r="AG50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51">
+        <v>146</v>
+      </c>
+      <c r="I51">
+        <v>6295</v>
+      </c>
+      <c r="J51">
+        <v>12.9</v>
+      </c>
+      <c r="K51">
+        <v>24.5</v>
+      </c>
+      <c r="L51">
+        <v>0.526</v>
+      </c>
+      <c r="P51">
+        <v>12.9</v>
+      </c>
+      <c r="Q51">
+        <v>24.5</v>
+      </c>
+      <c r="R51">
+        <v>0.526</v>
+      </c>
+      <c r="S51">
+        <v>4.5</v>
+      </c>
+      <c r="T51">
+        <v>6.2</v>
+      </c>
+      <c r="U51">
+        <v>0.733</v>
+      </c>
+      <c r="V51">
+        <v>3.5</v>
+      </c>
+      <c r="W51">
+        <v>11.8</v>
+      </c>
+      <c r="X51">
+        <v>15.3</v>
+      </c>
+      <c r="Y51">
+        <v>4.8</v>
+      </c>
+      <c r="Z51">
+        <v>1.3</v>
+      </c>
+      <c r="AA51">
+        <v>3.6</v>
+      </c>
+      <c r="AC51">
+        <v>3.2</v>
+      </c>
+      <c r="AD51">
+        <v>30.4</v>
+      </c>
+      <c r="AG51">
+        <v>90</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="I52">
+        <v>758</v>
+      </c>
+      <c r="J52">
+        <v>14.4</v>
+      </c>
+      <c r="K52">
+        <v>25.8</v>
+      </c>
+      <c r="L52">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="P52">
+        <v>14.4</v>
+      </c>
+      <c r="Q52">
+        <v>25.8</v>
+      </c>
+      <c r="R52">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="S52">
+        <v>4.3</v>
+      </c>
+      <c r="T52">
+        <v>5.8</v>
+      </c>
+      <c r="U52">
+        <v>0.736</v>
+      </c>
+      <c r="V52">
+        <v>4.3</v>
+      </c>
+      <c r="W52">
+        <v>11.9</v>
+      </c>
+      <c r="X52">
+        <v>16.2</v>
+      </c>
+      <c r="Y52">
+        <v>5</v>
+      </c>
+      <c r="Z52">
+        <v>1.3</v>
+      </c>
+      <c r="AA52">
+        <v>2.5</v>
+      </c>
+      <c r="AC52">
+        <v>2.6</v>
+      </c>
+      <c r="AD52">
+        <v>33</v>
+      </c>
+      <c r="AG52">
+        <v>90</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="I53">
+        <v>-5537</v>
+      </c>
+      <c r="J53">
+        <v>1.5</v>
+      </c>
+      <c r="K53">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.03100000000000003</v>
+      </c>
+      <c r="P53">
+        <v>1.5</v>
+      </c>
+      <c r="Q53">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="R53">
+        <v>0.03100000000000003</v>
+      </c>
+      <c r="S53">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="T53">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="U53">
+        <v>0.003000000000000003</v>
+      </c>
+      <c r="V53">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="W53">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="X53">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="Y53">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>-1.1</v>
+      </c>
+      <c r="AC53">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AD53">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54">
+        <v>1239</v>
+      </c>
+      <c r="H54">
+        <v>625</v>
+      </c>
+      <c r="I54">
+        <v>43787</v>
+      </c>
+      <c r="J54">
+        <v>12.4</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="P54">
+        <v>12.4</v>
+      </c>
+      <c r="Q54">
+        <v>22</v>
+      </c>
+      <c r="R54">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="S54">
+        <v>5.2</v>
+      </c>
+      <c r="T54">
+        <v>7.1</v>
+      </c>
+      <c r="U54">
+        <v>0.736</v>
+      </c>
+      <c r="V54">
+        <v>3.1</v>
+      </c>
+      <c r="W54">
+        <v>9.9</v>
+      </c>
+      <c r="X54">
+        <v>13.1</v>
+      </c>
+      <c r="Y54">
+        <v>4.5</v>
+      </c>
+      <c r="Z54">
+        <v>1.2</v>
+      </c>
+      <c r="AA54">
+        <v>3.4</v>
+      </c>
+      <c r="AB54">
+        <v>2.7</v>
+      </c>
+      <c r="AC54">
+        <v>3.9</v>
+      </c>
+      <c r="AD54">
+        <v>29.9</v>
+      </c>
+      <c r="AF54">
+        <v>115</v>
+      </c>
+      <c r="AG54">
+        <v>99</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55">
+        <v>196</v>
+      </c>
+      <c r="H55">
+        <v>90</v>
+      </c>
+      <c r="I55">
+        <v>7053</v>
+      </c>
+      <c r="J55">
+        <v>12.7</v>
+      </c>
+      <c r="K55">
+        <v>23.2</v>
+      </c>
+      <c r="L55">
+        <v>0.545</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>12.7</v>
+      </c>
+      <c r="Q55">
+        <v>23.2</v>
+      </c>
+      <c r="R55">
+        <v>0.546</v>
+      </c>
+      <c r="S55">
+        <v>5.8</v>
+      </c>
+      <c r="T55">
+        <v>7.7</v>
+      </c>
+      <c r="U55">
+        <v>0.754</v>
+      </c>
+      <c r="V55">
+        <v>3.4</v>
+      </c>
+      <c r="W55">
+        <v>8.6</v>
+      </c>
+      <c r="X55">
+        <v>12.1</v>
+      </c>
+      <c r="Y55">
+        <v>4.2</v>
+      </c>
+      <c r="Z55">
+        <v>1.3</v>
+      </c>
+      <c r="AA55">
+        <v>3.2</v>
+      </c>
+      <c r="AB55">
+        <v>3</v>
+      </c>
+      <c r="AC55">
+        <v>4.5</v>
+      </c>
+      <c r="AD55">
+        <v>31.1</v>
+      </c>
+      <c r="AF55">
+        <v>114</v>
+      </c>
+      <c r="AG55">
+        <v>103</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56">
+        <v>-36734</v>
+      </c>
+      <c r="J56">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="K56">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="L56">
+        <v>-0.01600000000000001</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>-0.05599999999999999</v>
+      </c>
+      <c r="P56">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="Q56">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="R56">
+        <v>-0.01500000000000001</v>
+      </c>
+      <c r="S56">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="T56">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="U56">
+        <v>0.01800000000000002</v>
+      </c>
+      <c r="V56">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="W56">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="Z56">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA56">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AB56">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC56">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AD56">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="AF56">
+        <v>-1</v>
+      </c>
+      <c r="AG56">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6081,70 +15923,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/abdulka01.xlsx
+++ b/output/abdulka01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -899,7 +899,7 @@
         <v>24.5</v>
       </c>
       <c r="L3">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="P3">
         <v>13.9</v>
@@ -908,10 +908,10 @@
         <v>24.5</v>
       </c>
       <c r="R3">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="S3">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="T3">
         <v>7.4</v>
@@ -942,9 +942,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>0.3999999999999986</v>
-      </c>
       <c r="J4">
         <v>2.5</v>
       </c>
@@ -952,7 +949,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="L4">
-        <v>0.04900000000000004</v>
+        <v>0.04899999999999993</v>
       </c>
       <c r="P4">
         <v>2.5</v>
@@ -961,10 +958,10 @@
         <v>2.399999999999999</v>
       </c>
       <c r="R4">
-        <v>0.04900000000000004</v>
+        <v>0.04899999999999993</v>
       </c>
       <c r="S4">
-        <v>0.04900000000000004</v>
+        <v>0.04899999999999993</v>
       </c>
       <c r="T4">
         <v>1.5</v>
@@ -1020,7 +1017,7 @@
         <v>22.5</v>
       </c>
       <c r="L5">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="P5">
         <v>13</v>
@@ -1029,10 +1026,10 @@
         <v>22.5</v>
       </c>
       <c r="R5">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S5">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="T5">
         <v>5.7</v>
@@ -1112,7 +1109,7 @@
         <v>7.2</v>
       </c>
       <c r="V6">
-        <v>0.6729999999999999</v>
+        <v>0.673</v>
       </c>
       <c r="Y6">
         <v>17</v>
@@ -1134,9 +1131,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>1.100000000000001</v>
-      </c>
       <c r="J7">
         <v>-2.1</v>
       </c>
@@ -1144,7 +1138,7 @@
         <v>-1.399999999999999</v>
       </c>
       <c r="L7">
-        <v>-0.06200000000000006</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="P7">
         <v>-2.1</v>
@@ -1153,10 +1147,10 @@
         <v>-1.399999999999999</v>
       </c>
       <c r="R7">
-        <v>-0.06200000000000006</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="S7">
-        <v>-0.06200000000000006</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="T7">
         <v>-0.7999999999999998</v>
@@ -1165,7 +1159,7 @@
         <v>-1.100000000000001</v>
       </c>
       <c r="V7">
-        <v>-0.01700000000000002</v>
+        <v>-0.0169999999999999</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1233,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="V8">
-        <v>0.6890000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Y8">
         <v>16.6</v>
@@ -1283,7 +1277,7 @@
         <v>28.9</v>
       </c>
       <c r="L9">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P9">
         <v>12.6</v>
@@ -1292,10 +1286,10 @@
         <v>28.9</v>
       </c>
       <c r="R9">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="S9">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="T9">
         <v>3.5</v>
@@ -1304,7 +1298,7 @@
         <v>4.9</v>
       </c>
       <c r="V9">
-        <v>0.7040000000000001</v>
+        <v>0.704</v>
       </c>
       <c r="Y9">
         <v>18.2</v>
@@ -1326,9 +1320,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>2.199999999999996</v>
-      </c>
       <c r="J10">
         <v>-1.700000000000001</v>
       </c>
@@ -1336,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="L10">
-        <v>-0.1369999999999999</v>
+        <v>-0.137</v>
       </c>
       <c r="P10">
         <v>-1.700000000000001</v>
@@ -1345,10 +1336,10 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <v>-0.1369999999999999</v>
+        <v>-0.137</v>
       </c>
       <c r="S10">
-        <v>-0.1369999999999999</v>
+        <v>-0.137</v>
       </c>
       <c r="T10">
         <v>-2.7</v>
@@ -1404,7 +1395,7 @@
         <v>23.3</v>
       </c>
       <c r="L11">
-        <v>0.5539999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="P11">
         <v>12.9</v>
@@ -1413,10 +1404,10 @@
         <v>23.3</v>
       </c>
       <c r="R11">
-        <v>0.5539999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="S11">
-        <v>0.5539999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="T11">
         <v>4.3</v>
@@ -1496,7 +1487,7 @@
         <v>5.8</v>
       </c>
       <c r="V12">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="Y12">
         <v>16.2</v>
@@ -1518,9 +1509,6 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="I13">
-        <v>3.200000000000003</v>
-      </c>
       <c r="J13">
         <v>-3.1</v>
       </c>
@@ -1528,7 +1516,7 @@
         <v>-0.3000000000000007</v>
       </c>
       <c r="L13">
-        <v>-0.1259999999999999</v>
+        <v>-0.1260000000000001</v>
       </c>
       <c r="P13">
         <v>-3.1</v>
@@ -1537,10 +1525,10 @@
         <v>-0.3000000000000007</v>
       </c>
       <c r="R13">
-        <v>-0.1259999999999999</v>
+        <v>-0.1260000000000001</v>
       </c>
       <c r="S13">
-        <v>-0.1259999999999999</v>
+        <v>-0.1260000000000001</v>
       </c>
       <c r="T13">
         <v>-1.1</v>
@@ -1549,7 +1537,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="V13">
-        <v>-0.17</v>
+        <v>-0.1699999999999999</v>
       </c>
       <c r="Y13">
         <v>0.09999999999999787</v>
@@ -1617,7 +1605,7 @@
         <v>5.2</v>
       </c>
       <c r="V14">
-        <v>0.7020000000000001</v>
+        <v>0.702</v>
       </c>
       <c r="W14">
         <v>3.5</v>
@@ -1734,9 +1722,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>3.600000000000001</v>
-      </c>
       <c r="J16">
         <v>2.300000000000001</v>
       </c>
@@ -1765,7 +1750,7 @@
         <v>0.5</v>
       </c>
       <c r="V16">
-        <v>0.03399999999999992</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="W16">
         <v>0.7000000000000002</v>
@@ -2138,9 +2123,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I23">
-        <v>5.700000000000003</v>
-      </c>
       <c r="J23">
         <v>2.6</v>
       </c>
@@ -2249,7 +2231,7 @@
         <v>5.6</v>
       </c>
       <c r="V24">
-        <v>0.7829999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="W24">
         <v>3</v>
@@ -2372,9 +2354,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>8.200000000000003</v>
-      </c>
       <c r="J26">
         <v>2</v>
       </c>
@@ -2403,7 +2382,7 @@
         <v>-2.6</v>
       </c>
       <c r="V26">
-        <v>-0.2269999999999999</v>
+        <v>-0.227</v>
       </c>
       <c r="W26">
         <v>1.7</v>
@@ -2465,7 +2444,7 @@
         <v>16.8</v>
       </c>
       <c r="L27">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="P27">
         <v>9.699999999999999</v>
@@ -2474,10 +2453,10 @@
         <v>16.8</v>
       </c>
       <c r="R27">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S27">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="T27">
         <v>4.4</v>
@@ -2572,7 +2551,7 @@
         <v>7.8</v>
       </c>
       <c r="V28">
-        <v>0.8390000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="W28">
         <v>2.3</v>
@@ -2609,9 +2588,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>6.399999999999999</v>
-      </c>
       <c r="J29">
         <v>1.300000000000001</v>
       </c>
@@ -2619,7 +2595,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="L29">
-        <v>0.001999999999999891</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="P29">
         <v>1.300000000000001</v>
@@ -2628,10 +2604,10 @@
         <v>2.199999999999999</v>
       </c>
       <c r="R29">
-        <v>0.001999999999999891</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="S29">
-        <v>0.001999999999999891</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="T29">
         <v>2.1</v>
@@ -2640,7 +2616,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="V29">
-        <v>0.1030000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="W29">
         <v>-0.3000000000000003</v>
@@ -2797,7 +2773,7 @@
         <v>23.1</v>
       </c>
       <c r="L31">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2812,10 +2788,10 @@
         <v>23.1</v>
       </c>
       <c r="R31">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="S31">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="T31">
         <v>5.5</v>
@@ -2861,9 +2837,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>2.900000000000006</v>
-      </c>
       <c r="J32">
         <v>3</v>
       </c>
@@ -2871,7 +2844,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="L32">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2886,10 +2859,10 @@
         <v>6.200000000000003</v>
       </c>
       <c r="R32">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="S32">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="T32">
         <v>1.1</v>
@@ -2990,7 +2963,7 @@
         <v>6.9</v>
       </c>
       <c r="V33">
-        <v>0.7659999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="W33">
         <v>2.5</v>
@@ -3082,7 +3055,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="V34">
-        <v>0.7140000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="W34">
         <v>4.3</v>
@@ -3119,9 +3092,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="I35">
-        <v>7.5</v>
-      </c>
       <c r="J35">
         <v>-0.5</v>
       </c>
@@ -3156,7 +3126,7 @@
         <v>2.4</v>
       </c>
       <c r="V35">
-        <v>-0.05199999999999982</v>
+        <v>-0.05200000000000005</v>
       </c>
       <c r="W35">
         <v>1.8</v>
@@ -3380,9 +3350,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
         <v>-1.700000000000001</v>
       </c>
@@ -3512,7 +3479,7 @@
         <v>4.7</v>
       </c>
       <c r="V39">
-        <v>0.7490000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="W39">
         <v>2.1</v>
@@ -3644,9 +3611,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>6.900000000000006</v>
-      </c>
       <c r="J41">
         <v>1.800000000000001</v>
       </c>
@@ -3684,7 +3648,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="V41">
-        <v>0.005999999999999894</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="W41">
         <v>-0.4000000000000001</v>
@@ -3908,9 +3872,6 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="I44">
-        <v>3.700000000000003</v>
-      </c>
       <c r="J44">
         <v>0.8000000000000007</v>
       </c>
@@ -4172,9 +4133,6 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="I47">
-        <v>-1.199999999999996</v>
-      </c>
       <c r="J47">
         <v>-0.3999999999999986</v>
       </c>
@@ -4436,9 +4394,6 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="I50">
-        <v>1.600000000000001</v>
-      </c>
       <c r="J50">
         <v>1.6</v>
       </c>
@@ -4568,7 +4523,7 @@
         <v>4.4</v>
       </c>
       <c r="V51">
-        <v>0.7140000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="W51">
         <v>1.9</v>
@@ -4703,9 +4658,6 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="I53">
-        <v>-0.1999999999999993</v>
-      </c>
       <c r="J53">
         <v>-0.2999999999999998</v>
       </c>
@@ -4743,7 +4695,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="V53">
-        <v>0.08099999999999996</v>
+        <v>0.08100000000000007</v>
       </c>
       <c r="W53">
         <v>0.3000000000000003</v>
@@ -4973,9 +4925,6 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
       <c r="J56">
         <v>-0.09999999999999964</v>
       </c>
@@ -4983,7 +4932,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="L56">
-        <v>-0.06800000000000006</v>
+        <v>-0.068</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5004,7 +4953,7 @@
         <v>-0.065</v>
       </c>
       <c r="S56">
-        <v>-0.06800000000000006</v>
+        <v>-0.068</v>
       </c>
       <c r="T56">
         <v>-0.3000000000000003</v>
@@ -5108,7 +5057,7 @@
         <v>2.2</v>
       </c>
       <c r="V57">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="W57">
         <v>1.4</v>
@@ -5240,9 +5189,6 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="I59">
-        <v>0.5</v>
-      </c>
       <c r="J59">
         <v>0.2999999999999998</v>
       </c>
@@ -5250,7 +5196,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="L59">
-        <v>-0.01200000000000001</v>
+        <v>-0.01199999999999996</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5265,10 +5211,10 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="R59">
-        <v>-0.01400000000000007</v>
+        <v>-0.01399999999999996</v>
       </c>
       <c r="S59">
-        <v>-0.01200000000000001</v>
+        <v>-0.01199999999999996</v>
       </c>
       <c r="T59">
         <v>0.5</v>
@@ -5277,7 +5223,7 @@
         <v>0.6999999999999997</v>
       </c>
       <c r="V59">
-        <v>-0.01800000000000013</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="W59">
         <v>-0.4999999999999999</v>
@@ -5336,7 +5282,7 @@
         <v>16</v>
       </c>
       <c r="L60">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5345,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="P60">
         <v>9.1</v>
@@ -5357,7 +5303,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="S60">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="T60">
         <v>3.9</v>
@@ -5428,7 +5374,7 @@
         <v>16.8</v>
       </c>
       <c r="L61">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -5449,7 +5395,7 @@
         <v>0.544</v>
       </c>
       <c r="S61">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="T61">
         <v>4.4</v>
@@ -5458,7 +5404,7 @@
         <v>5.8</v>
       </c>
       <c r="V61">
-        <v>0.7559999999999999</v>
+        <v>0.756</v>
       </c>
       <c r="W61">
         <v>2.4</v>
@@ -5495,9 +5441,6 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="I62">
-        <v>0.7000000000000028</v>
-      </c>
       <c r="J62">
         <v>0</v>
       </c>
@@ -5505,7 +5448,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="L62">
-        <v>-0.02400000000000013</v>
+        <v>-0.02399999999999991</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -5514,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>-0.05599999999999999</v>
+        <v>-0.056</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -5526,7 +5469,7 @@
         <v>-0.02399999999999991</v>
       </c>
       <c r="S62">
-        <v>-0.02400000000000013</v>
+        <v>-0.02399999999999991</v>
       </c>
       <c r="T62">
         <v>0.5000000000000004</v>
@@ -5535,7 +5478,7 @@
         <v>0.5</v>
       </c>
       <c r="V62">
-        <v>0.01899999999999991</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="W62">
         <v>0.1000000000000001</v>
@@ -5723,9 +5666,6 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="I65">
-        <v>2.099999999999994</v>
-      </c>
       <c r="J65">
         <v>-0.09999999999999964</v>
       </c>
@@ -5807,7 +5747,7 @@
         <v>18.1</v>
       </c>
       <c r="L66">
-        <v>0.5589999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -5816,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="P66">
         <v>10.2</v>
@@ -5828,7 +5768,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="S66">
-        <v>0.5589999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="T66">
         <v>4.3</v>
@@ -5896,7 +5836,7 @@
         <v>18.7</v>
       </c>
       <c r="L67">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -5914,10 +5854,10 @@
         <v>18.6</v>
       </c>
       <c r="R67">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="S67">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="T67">
         <v>4.4</v>
@@ -5963,9 +5903,6 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="I68">
-        <v>0.5</v>
-      </c>
       <c r="J68">
         <v>-0.2999999999999989</v>
       </c>
@@ -5982,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>-0.05599999999999999</v>
+        <v>-0.056</v>
       </c>
       <c r="P68">
         <v>-0.2999999999999989</v>
@@ -5991,7 +5928,7 @@
         <v>0.5</v>
       </c>
       <c r="R68">
-        <v>-0.02700000000000014</v>
+        <v>-0.02700000000000002</v>
       </c>
       <c r="S68">
         <v>-0.02600000000000002</v>
@@ -6238,7 +6175,7 @@
         <v>20.3</v>
       </c>
       <c r="L3">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="P3">
         <v>11.5</v>
@@ -6247,7 +6184,7 @@
         <v>20.3</v>
       </c>
       <c r="R3">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="S3">
         <v>6.1</v>
@@ -6278,9 +6215,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-3099</v>
-      </c>
       <c r="J4">
         <v>1.9</v>
       </c>
@@ -6288,7 +6222,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="L4">
-        <v>0.04900000000000004</v>
+        <v>0.04899999999999993</v>
       </c>
       <c r="P4">
         <v>1.9</v>
@@ -6297,7 +6231,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="R4">
-        <v>0.04900000000000004</v>
+        <v>0.04899999999999993</v>
       </c>
       <c r="S4">
         <v>1.199999999999999</v>
@@ -6353,7 +6287,7 @@
         <v>20.2</v>
       </c>
       <c r="L5">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="P5">
         <v>11.6</v>
@@ -6362,7 +6296,7 @@
         <v>20.2</v>
       </c>
       <c r="R5">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S5">
         <v>5.1</v>
@@ -6439,7 +6373,7 @@
         <v>6.3</v>
       </c>
       <c r="U6">
-        <v>0.6729999999999999</v>
+        <v>0.673</v>
       </c>
       <c r="X6">
         <v>14.8</v>
@@ -6461,9 +6395,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>-2711</v>
-      </c>
       <c r="J7">
         <v>-2.1</v>
       </c>
@@ -6471,7 +6402,7 @@
         <v>-1.800000000000001</v>
       </c>
       <c r="L7">
-        <v>-0.06200000000000006</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="P7">
         <v>-2.1</v>
@@ -6480,7 +6411,7 @@
         <v>-1.800000000000001</v>
       </c>
       <c r="R7">
-        <v>-0.06200000000000006</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="S7">
         <v>-0.8999999999999995</v>
@@ -6489,7 +6420,7 @@
         <v>-1.2</v>
       </c>
       <c r="U7">
-        <v>-0.01700000000000002</v>
+        <v>-0.0169999999999999</v>
       </c>
       <c r="X7">
         <v>0.4000000000000004</v>
@@ -6554,7 +6485,7 @@
         <v>7.4</v>
       </c>
       <c r="U8">
-        <v>0.6890000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="X8">
         <v>13.5</v>
@@ -6604,7 +6535,7 @@
         <v>22.4</v>
       </c>
       <c r="L9">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P9">
         <v>9.800000000000001</v>
@@ -6613,7 +6544,7 @@
         <v>22.4</v>
       </c>
       <c r="R9">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="S9">
         <v>2.7</v>
@@ -6622,7 +6553,7 @@
         <v>3.8</v>
       </c>
       <c r="U9">
-        <v>0.7040000000000001</v>
+        <v>0.704</v>
       </c>
       <c r="X9">
         <v>14.1</v>
@@ -6644,9 +6575,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>-3073</v>
-      </c>
       <c r="J10">
         <v>-1.799999999999999</v>
       </c>
@@ -6654,7 +6582,7 @@
         <v>2.099999999999998</v>
       </c>
       <c r="L10">
-        <v>-0.1369999999999999</v>
+        <v>-0.137</v>
       </c>
       <c r="P10">
         <v>-1.799999999999999</v>
@@ -6663,7 +6591,7 @@
         <v>2.099999999999998</v>
       </c>
       <c r="R10">
-        <v>-0.1369999999999999</v>
+        <v>-0.137</v>
       </c>
       <c r="S10">
         <v>-2.399999999999999</v>
@@ -6719,7 +6647,7 @@
         <v>19.6</v>
       </c>
       <c r="L11">
-        <v>0.5539999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="P11">
         <v>10.9</v>
@@ -6728,7 +6656,7 @@
         <v>19.6</v>
       </c>
       <c r="R11">
-        <v>0.5539999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="S11">
         <v>3.6</v>
@@ -6805,7 +6733,7 @@
         <v>4.6</v>
       </c>
       <c r="U12">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="X12">
         <v>12.7</v>
@@ -6827,9 +6755,6 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="I13">
-        <v>-2978</v>
-      </c>
       <c r="J13">
         <v>-3.2</v>
       </c>
@@ -6837,7 +6762,7 @@
         <v>-1.600000000000001</v>
       </c>
       <c r="L13">
-        <v>-0.1259999999999999</v>
+        <v>-0.1260000000000001</v>
       </c>
       <c r="P13">
         <v>-3.2</v>
@@ -6846,7 +6771,7 @@
         <v>-1.600000000000001</v>
       </c>
       <c r="R13">
-        <v>-0.1259999999999999</v>
+        <v>-0.1260000000000001</v>
       </c>
       <c r="S13">
         <v>-1.1</v>
@@ -6855,7 +6780,7 @@
         <v>-0.5</v>
       </c>
       <c r="U13">
-        <v>-0.17</v>
+        <v>-0.1699999999999999</v>
       </c>
       <c r="X13">
         <v>-0.8000000000000007</v>
@@ -6920,7 +6845,7 @@
         <v>4.3</v>
       </c>
       <c r="U14">
-        <v>0.7020000000000001</v>
+        <v>0.702</v>
       </c>
       <c r="V14">
         <v>2.9</v>
@@ -7034,9 +6959,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>-2790</v>
-      </c>
       <c r="J16">
         <v>1</v>
       </c>
@@ -7062,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.03399999999999992</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="V16">
         <v>0.3000000000000003</v>
@@ -7423,9 +7345,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I23">
-        <v>-2549</v>
-      </c>
       <c r="J23">
         <v>0.7000000000000011</v>
       </c>
@@ -7528,7 +7447,7 @@
         <v>5.6</v>
       </c>
       <c r="U24">
-        <v>0.7829999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="V24">
         <v>3</v>
@@ -7648,9 +7567,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>-2131</v>
-      </c>
       <c r="J26">
         <v>-0.3000000000000007</v>
       </c>
@@ -7676,7 +7592,7 @@
         <v>-3.2</v>
       </c>
       <c r="U26">
-        <v>-0.2269999999999999</v>
+        <v>-0.227</v>
       </c>
       <c r="V26">
         <v>0.7999999999999998</v>
@@ -7738,7 +7654,7 @@
         <v>15.4</v>
       </c>
       <c r="L27">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="P27">
         <v>8.9</v>
@@ -7747,7 +7663,7 @@
         <v>15.4</v>
       </c>
       <c r="R27">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S27">
         <v>4</v>
@@ -7839,7 +7755,7 @@
         <v>6.1</v>
       </c>
       <c r="U28">
-        <v>0.8390000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="V28">
         <v>1.8</v>
@@ -7876,9 +7792,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>-2790</v>
-      </c>
       <c r="J29">
         <v>-0.3000000000000007</v>
       </c>
@@ -7886,7 +7799,7 @@
         <v>-0.5</v>
       </c>
       <c r="L29">
-        <v>0.001999999999999891</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="P29">
         <v>-0.3000000000000007</v>
@@ -7895,7 +7808,7 @@
         <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>0.001999999999999891</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="S29">
         <v>1.1</v>
@@ -7904,7 +7817,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="U29">
-        <v>0.1030000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="V29">
         <v>-0.5999999999999999</v>
@@ -8058,7 +7971,7 @@
         <v>20.2</v>
       </c>
       <c r="L31">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -8073,7 +7986,7 @@
         <v>20.2</v>
       </c>
       <c r="R31">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="S31">
         <v>4.8</v>
@@ -8119,9 +8032,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>-2525</v>
-      </c>
       <c r="J32">
         <v>1.9</v>
       </c>
@@ -8129,7 +8039,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="L32">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -8144,7 +8054,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="R32">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="S32">
         <v>0.5999999999999996</v>
@@ -8242,7 +8152,7 @@
         <v>6.7</v>
       </c>
       <c r="U33">
-        <v>0.7659999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="V33">
         <v>2.4</v>
@@ -8331,7 +8241,7 @@
         <v>7.5</v>
       </c>
       <c r="U34">
-        <v>0.7140000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="V34">
         <v>3.5</v>
@@ -8368,9 +8278,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="I35">
-        <v>-2842</v>
-      </c>
       <c r="J35">
         <v>-2</v>
       </c>
@@ -8402,7 +8309,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="U35">
-        <v>-0.05199999999999982</v>
+        <v>-0.05200000000000005</v>
       </c>
       <c r="V35">
         <v>1.1</v>
@@ -8620,9 +8527,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="I38">
-        <v>-2184</v>
-      </c>
       <c r="J38">
         <v>-1.699999999999999</v>
       </c>
@@ -8746,7 +8650,7 @@
         <v>5.2</v>
       </c>
       <c r="U39">
-        <v>0.7490000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="V39">
         <v>2.4</v>
@@ -8875,9 +8779,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>-1966</v>
-      </c>
       <c r="J41">
         <v>-0.1999999999999993</v>
       </c>
@@ -8912,7 +8813,7 @@
         <v>1.3</v>
       </c>
       <c r="U41">
-        <v>0.005999999999999894</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="V41">
         <v>-0.8999999999999999</v>
@@ -9130,9 +9031,6 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="I44">
-        <v>-1855</v>
-      </c>
       <c r="J44">
         <v>-0.1000000000000014</v>
       </c>
@@ -9385,9 +9283,6 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="I47">
-        <v>-2020</v>
-      </c>
       <c r="J47">
         <v>0</v>
       </c>
@@ -9640,9 +9535,6 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="I50">
-        <v>-2140</v>
-      </c>
       <c r="J50">
         <v>1.299999999999999</v>
       </c>
@@ -9766,7 +9658,7 @@
         <v>5.1</v>
       </c>
       <c r="U51">
-        <v>0.7140000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="V51">
         <v>2.2</v>
@@ -9898,9 +9790,6 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="I53">
-        <v>-1882</v>
-      </c>
       <c r="J53">
         <v>-0.3000000000000007</v>
       </c>
@@ -9935,7 +9824,7 @@
         <v>2.800000000000001</v>
       </c>
       <c r="U53">
-        <v>0.08099999999999996</v>
+        <v>0.08100000000000007</v>
       </c>
       <c r="V53">
         <v>0.2999999999999998</v>
@@ -10159,9 +10048,6 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="I56">
-        <v>-1590</v>
-      </c>
       <c r="J56">
         <v>-0.4000000000000004</v>
       </c>
@@ -10169,7 +10055,7 @@
         <v>1.1</v>
       </c>
       <c r="L56">
-        <v>-0.06800000000000006</v>
+        <v>-0.068</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -10288,7 +10174,7 @@
         <v>3.5</v>
       </c>
       <c r="U57">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="V57">
         <v>2.2</v>
@@ -10417,9 +10303,6 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="I59">
-        <v>-1344</v>
-      </c>
       <c r="J59">
         <v>0.4000000000000004</v>
       </c>
@@ -10427,7 +10310,7 @@
         <v>1.1</v>
       </c>
       <c r="L59">
-        <v>-0.01200000000000001</v>
+        <v>-0.01199999999999996</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -10442,7 +10325,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="R59">
-        <v>-0.01400000000000007</v>
+        <v>-0.01399999999999996</v>
       </c>
       <c r="S59">
         <v>0.6000000000000001</v>
@@ -10451,7 +10334,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="U59">
-        <v>-0.01800000000000013</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="V59">
         <v>-0.9000000000000001</v>
@@ -10510,7 +10393,7 @@
         <v>16.8</v>
       </c>
       <c r="L60">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -10519,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="P60">
         <v>9.5</v>
@@ -10599,7 +10482,7 @@
         <v>17.3</v>
       </c>
       <c r="L61">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -10626,7 +10509,7 @@
         <v>5.9</v>
       </c>
       <c r="U61">
-        <v>0.7559999999999999</v>
+        <v>0.756</v>
       </c>
       <c r="V61">
         <v>2.5</v>
@@ -10663,9 +10546,6 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="I62">
-        <v>-31197</v>
-      </c>
       <c r="J62">
         <v>-0.09999999999999964</v>
       </c>
@@ -10673,7 +10553,7 @@
         <v>0.5</v>
       </c>
       <c r="L62">
-        <v>-0.02400000000000013</v>
+        <v>-0.02399999999999991</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -10682,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>-0.05599999999999999</v>
+        <v>-0.056</v>
       </c>
       <c r="P62">
         <v>-0.09999999999999964</v>
@@ -10700,7 +10580,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="U62">
-        <v>0.01899999999999991</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="V62">
         <v>0.1000000000000001</v>
@@ -10882,9 +10762,6 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="I65">
-        <v>-17398</v>
-      </c>
       <c r="J65">
         <v>-0.5999999999999996</v>
       </c>
@@ -10963,7 +10840,7 @@
         <v>17.7</v>
       </c>
       <c r="L66">
-        <v>0.5589999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -10972,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="P66">
         <v>9.9</v>
@@ -11049,7 +10926,7 @@
         <v>18</v>
       </c>
       <c r="L67">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -11067,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="R67">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="S67">
         <v>4.3</v>
@@ -11113,9 +10990,6 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="I68">
-        <v>-48595</v>
-      </c>
       <c r="J68">
         <v>-0.3000000000000007</v>
       </c>
@@ -11132,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>-0.05599999999999999</v>
+        <v>-0.056</v>
       </c>
       <c r="P68">
         <v>-0.3000000000000007</v>
@@ -11141,7 +11015,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="R68">
-        <v>-0.02700000000000014</v>
+        <v>-0.02700000000000002</v>
       </c>
       <c r="S68">
         <v>0.09999999999999964</v>
@@ -11342,7 +11216,7 @@
         <v>5.4</v>
       </c>
       <c r="U2">
-        <v>0.7020000000000001</v>
+        <v>0.702</v>
       </c>
       <c r="V2">
         <v>3.7</v>
@@ -11462,9 +11336,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-2790</v>
-      </c>
       <c r="J4">
         <v>2.200000000000001</v>
       </c>
@@ -11490,7 +11361,7 @@
         <v>0.3999999999999995</v>
       </c>
       <c r="U4">
-        <v>0.03399999999999992</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="V4">
         <v>0.5999999999999996</v>
@@ -11866,9 +11737,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>-2549</v>
-      </c>
       <c r="J11">
         <v>1.1</v>
       </c>
@@ -11974,7 +11842,7 @@
         <v>7</v>
       </c>
       <c r="U12">
-        <v>0.7829999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="V12">
         <v>3.7</v>
@@ -12106,9 +11974,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>-2131</v>
-      </c>
       <c r="J14">
         <v>0.6000000000000014</v>
       </c>
@@ -12134,7 +11999,7 @@
         <v>-3.7</v>
       </c>
       <c r="U14">
-        <v>-0.2269999999999999</v>
+        <v>-0.227</v>
       </c>
       <c r="V14">
         <v>1.399999999999999</v>
@@ -12202,7 +12067,7 @@
         <v>19.3</v>
       </c>
       <c r="L15">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="P15">
         <v>11.2</v>
@@ -12211,7 +12076,7 @@
         <v>19.3</v>
       </c>
       <c r="R15">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="S15">
         <v>5</v>
@@ -12309,7 +12174,7 @@
         <v>8</v>
       </c>
       <c r="U16">
-        <v>0.8390000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="V16">
         <v>2.3</v>
@@ -12352,9 +12217,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>-2790</v>
-      </c>
       <c r="J17">
         <v>0.2000000000000011</v>
       </c>
@@ -12362,7 +12224,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="L17">
-        <v>0.001999999999999891</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="P17">
         <v>0.2000000000000011</v>
@@ -12371,7 +12233,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="R17">
-        <v>0.001999999999999891</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="S17">
         <v>1.7</v>
@@ -12380,7 +12242,7 @@
         <v>1.2</v>
       </c>
       <c r="U17">
-        <v>0.1030000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="V17">
         <v>-0.7000000000000002</v>
@@ -12546,7 +12408,7 @@
         <v>26.3</v>
       </c>
       <c r="L19">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -12561,7 +12423,7 @@
         <v>26.3</v>
       </c>
       <c r="R19">
-        <v>0.5720000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="S19">
         <v>6.3</v>
@@ -12613,9 +12475,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="I20">
-        <v>-2525</v>
-      </c>
       <c r="J20">
         <v>2.799999999999999</v>
       </c>
@@ -12623,7 +12482,7 @@
         <v>6</v>
       </c>
       <c r="L20">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -12638,7 +12497,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>-0.03199999999999992</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -12742,7 +12601,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="U21">
-        <v>0.7659999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="V21">
         <v>3.1</v>
@@ -12837,7 +12696,7 @@
         <v>10.3</v>
       </c>
       <c r="U22">
-        <v>0.7140000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="V22">
         <v>4.8</v>
@@ -12880,9 +12739,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I23">
-        <v>-2842</v>
-      </c>
       <c r="J23">
         <v>-2.1</v>
       </c>
@@ -12914,7 +12770,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="U23">
-        <v>-0.05199999999999982</v>
+        <v>-0.05200000000000005</v>
       </c>
       <c r="V23">
         <v>1.7</v>
@@ -13150,9 +13006,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>-2184</v>
-      </c>
       <c r="J26">
         <v>-2.199999999999999</v>
       </c>
@@ -13282,7 +13135,7 @@
         <v>6.7</v>
       </c>
       <c r="U27">
-        <v>0.7490000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="V27">
         <v>3</v>
@@ -13423,9 +13276,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>-1966</v>
-      </c>
       <c r="J29">
         <v>0.09999999999999964</v>
       </c>
@@ -13460,7 +13310,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="U29">
-        <v>0.005999999999999894</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="V29">
         <v>-1</v>
@@ -13696,9 +13546,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>-1855</v>
-      </c>
       <c r="J32">
         <v>0.3000000000000007</v>
       </c>
@@ -13969,9 +13816,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="I35">
-        <v>-2020</v>
-      </c>
       <c r="J35">
         <v>-0.6000000000000014</v>
       </c>
@@ -14242,9 +14086,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="I38">
-        <v>-2140</v>
-      </c>
       <c r="J38">
         <v>2</v>
       </c>
@@ -14374,7 +14215,7 @@
         <v>6.6</v>
       </c>
       <c r="U39">
-        <v>0.7140000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="V39">
         <v>2.9</v>
@@ -14518,9 +14359,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>-1882</v>
-      </c>
       <c r="J41">
         <v>-0.2000000000000011</v>
       </c>
@@ -14555,7 +14393,7 @@
         <v>3.800000000000001</v>
       </c>
       <c r="U41">
-        <v>0.08099999999999996</v>
+        <v>0.08100000000000007</v>
       </c>
       <c r="V41">
         <v>0.3999999999999999</v>
@@ -14797,9 +14635,6 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="I44">
-        <v>-1590</v>
-      </c>
       <c r="J44">
         <v>0.09999999999999964</v>
       </c>
@@ -14807,7 +14642,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>-0.06800000000000006</v>
+        <v>-0.068</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -14932,7 +14767,7 @@
         <v>4.7</v>
       </c>
       <c r="U45">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="V45">
         <v>2.9</v>
@@ -15073,9 +14908,6 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="I47">
-        <v>-1344</v>
-      </c>
       <c r="J47">
         <v>0.9000000000000004</v>
       </c>
@@ -15083,7 +14915,7 @@
         <v>2.5</v>
       </c>
       <c r="L47">
-        <v>-0.01200000000000001</v>
+        <v>-0.01199999999999996</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -15098,7 +14930,7 @@
         <v>2.5</v>
       </c>
       <c r="R47">
-        <v>-0.01400000000000007</v>
+        <v>-0.01399999999999996</v>
       </c>
       <c r="S47">
         <v>0.9000000000000004</v>
@@ -15107,7 +14939,7 @@
         <v>1.5</v>
       </c>
       <c r="U47">
-        <v>-0.01800000000000013</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -15172,7 +15004,7 @@
         <v>21.6</v>
       </c>
       <c r="L48">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -15181,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="P48">
         <v>12.3</v>
@@ -15267,7 +15099,7 @@
         <v>22.9</v>
       </c>
       <c r="L49">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -15294,7 +15126,7 @@
         <v>7.9</v>
       </c>
       <c r="U49">
-        <v>0.7559999999999999</v>
+        <v>0.756</v>
       </c>
       <c r="V49">
         <v>3.3</v>
@@ -15337,9 +15169,6 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="I50">
-        <v>-31197</v>
-      </c>
       <c r="J50">
         <v>0.1999999999999993</v>
       </c>
@@ -15347,7 +15176,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="L50">
-        <v>-0.02400000000000013</v>
+        <v>-0.02399999999999991</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -15356,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>-0.05599999999999999</v>
+        <v>-0.056</v>
       </c>
       <c r="P50">
         <v>0.1999999999999993</v>
@@ -15374,7 +15203,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="U50">
-        <v>0.01899999999999991</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="V50">
         <v>0.1999999999999997</v>
@@ -15568,9 +15397,6 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="I53">
-        <v>-5537</v>
-      </c>
       <c r="J53">
         <v>1.5</v>
       </c>
@@ -15661,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="P54">
         <v>12.4</v>
@@ -15814,9 +15640,6 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="I56">
-        <v>-36734</v>
-      </c>
       <c r="J56">
         <v>0.2999999999999989</v>
       </c>
@@ -15833,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>-0.05599999999999999</v>
+        <v>-0.056</v>
       </c>
       <c r="P56">
         <v>0.2999999999999989</v>
@@ -16102,9 +15925,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>-3099</v>
-      </c>
       <c r="I4">
         <v>6.899999999999999</v>
       </c>
@@ -16112,7 +15932,7 @@
         <v>0.05599999999999994</v>
       </c>
       <c r="L4">
-        <v>0.002000000000000057</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="P4">
         <v>1.9</v>
@@ -16127,7 +15947,7 @@
         <v>-11.2</v>
       </c>
       <c r="Y4">
-        <v>0.09900000000000003</v>
+        <v>0.09899999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -16215,7 +16035,7 @@
         <v>25.3</v>
       </c>
       <c r="J6">
-        <v>0.5479999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="L6">
         <v>0.342</v>
@@ -16246,14 +16066,11 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>-2711</v>
-      </c>
       <c r="I7">
         <v>-3.699999999999999</v>
       </c>
       <c r="J7">
-        <v>-0.05800000000000005</v>
+        <v>-0.05799999999999994</v>
       </c>
       <c r="L7">
         <v>-0.02799999999999997</v>
@@ -16393,9 +16210,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="H10">
-        <v>-3073</v>
-      </c>
       <c r="I10">
         <v>-7.5</v>
       </c>
@@ -16540,9 +16354,6 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="H13">
-        <v>-2978</v>
-      </c>
       <c r="I13">
         <v>-10.8</v>
       </c>
@@ -16735,9 +16546,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="H16">
-        <v>-2790</v>
-      </c>
       <c r="I16">
         <v>3.900000000000002</v>
       </c>
@@ -16904,7 +16712,7 @@
         <v>27.2</v>
       </c>
       <c r="J19">
-        <v>0.5670000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="L19">
         <v>0.368</v>
@@ -17069,7 +16877,7 @@
         <v>32.4</v>
       </c>
       <c r="J22">
-        <v>0.6459999999999999</v>
+        <v>0.646</v>
       </c>
       <c r="L22">
         <v>0.496</v>
@@ -17124,14 +16932,11 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="H23">
-        <v>-2549</v>
-      </c>
       <c r="I23">
         <v>4.599999999999998</v>
       </c>
       <c r="J23">
-        <v>0.03799999999999992</v>
+        <v>0.03800000000000003</v>
       </c>
       <c r="L23">
         <v>0.146</v>
@@ -17164,7 +16969,7 @@
         <v>-14.6</v>
       </c>
       <c r="Y23">
-        <v>0.04899999999999999</v>
+        <v>0.04900000000000004</v>
       </c>
       <c r="AA23">
         <v>2.8</v>
@@ -17355,9 +17160,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="H26">
-        <v>-2131</v>
-      </c>
       <c r="I26">
         <v>-7.300000000000001</v>
       </c>
@@ -17592,9 +17394,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="H29">
-        <v>-2790</v>
-      </c>
       <c r="I29">
         <v>1</v>
       </c>
@@ -17602,7 +17401,7 @@
         <v>0.02400000000000002</v>
       </c>
       <c r="L29">
-        <v>0.05599999999999994</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="M29">
         <v>-1.6</v>
@@ -17638,7 +17437,7 @@
         <v>-12.7</v>
       </c>
       <c r="Y29">
-        <v>0.00300000000000003</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="AA29">
         <v>0.6000000000000005</v>
@@ -17835,9 +17634,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="H32">
-        <v>-2525</v>
-      </c>
       <c r="I32">
         <v>2.599999999999998</v>
       </c>
@@ -17884,7 +17680,7 @@
         <v>-11.5</v>
       </c>
       <c r="Y32">
-        <v>0.02600000000000002</v>
+        <v>0.026</v>
       </c>
       <c r="AA32">
         <v>2.600000000000001</v>
@@ -18081,9 +17877,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="H35">
-        <v>-2842</v>
-      </c>
       <c r="I35">
         <v>-3.100000000000001</v>
       </c>
@@ -18327,9 +18120,6 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="H38">
-        <v>-2184</v>
-      </c>
       <c r="I38">
         <v>-3.299999999999997</v>
       </c>
@@ -18340,7 +18130,7 @@
         <v>-0.002</v>
       </c>
       <c r="L38">
-        <v>0.05399999999999994</v>
+        <v>0.05399999999999999</v>
       </c>
       <c r="M38">
         <v>0.2000000000000002</v>
@@ -18376,7 +18166,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="Y38">
-        <v>-0.04799999999999999</v>
+        <v>-0.04800000000000001</v>
       </c>
       <c r="AA38">
         <v>-0.7999999999999998</v>
@@ -18573,9 +18363,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="H41">
-        <v>-1966</v>
-      </c>
       <c r="I41">
         <v>-0.8000000000000007</v>
       </c>
@@ -18755,7 +18542,7 @@
         <v>24</v>
       </c>
       <c r="J43">
-        <v>0.5920000000000001</v>
+        <v>0.592</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -18819,20 +18606,17 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="H44">
-        <v>-1855</v>
-      </c>
       <c r="I44">
         <v>2.699999999999999</v>
       </c>
       <c r="J44">
-        <v>-0.0159999999999999</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="K44">
         <v>-0.001</v>
       </c>
       <c r="L44">
-        <v>0.004999999999999949</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="M44">
         <v>1.000000000000001</v>
@@ -18868,7 +18652,7 @@
         <v>-5.600000000000001</v>
       </c>
       <c r="Y44">
-        <v>0.04300000000000001</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="AA44">
         <v>2.5</v>
@@ -19065,9 +18849,6 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="H47">
-        <v>-2020</v>
-      </c>
       <c r="I47">
         <v>-0.7999999999999972</v>
       </c>
@@ -19078,7 +18859,7 @@
         <v>-0.001</v>
       </c>
       <c r="L47">
-        <v>0.01599999999999996</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="M47">
         <v>2.100000000000001</v>
@@ -19114,7 +18895,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="Y47">
-        <v>-0.01000000000000001</v>
+        <v>-0.009999999999999981</v>
       </c>
       <c r="AA47">
         <v>-0.1000000000000001</v>
@@ -19311,9 +19092,6 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="H50">
-        <v>-2140</v>
-      </c>
       <c r="I50">
         <v>-1.5</v>
       </c>
@@ -19324,7 +19102,7 @@
         <v>-0.001</v>
       </c>
       <c r="L50">
-        <v>-0.1119999999999999</v>
+        <v>-0.112</v>
       </c>
       <c r="M50">
         <v>0.7999999999999998</v>
@@ -19360,7 +19138,7 @@
         <v>-9.200000000000001</v>
       </c>
       <c r="Y50">
-        <v>-0.04099999999999998</v>
+        <v>-0.04100000000000001</v>
       </c>
       <c r="AA50">
         <v>-0.5000000000000004</v>
@@ -19557,9 +19335,6 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="H53">
-        <v>-1882</v>
-      </c>
       <c r="I53">
         <v>1.5</v>
       </c>
@@ -19606,7 +19381,7 @@
         <v>-5.5</v>
       </c>
       <c r="Y53">
-        <v>0.02299999999999999</v>
+        <v>0.02300000000000002</v>
       </c>
       <c r="AA53">
         <v>0.8999999999999999</v>
@@ -19742,7 +19517,7 @@
         <v>0.504</v>
       </c>
       <c r="K55">
-        <v>0.006999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="L55">
         <v>0.234</v>
@@ -19781,7 +19556,7 @@
         <v>0.8</v>
       </c>
       <c r="Y55">
-        <v>0.05400000000000001</v>
+        <v>0.054</v>
       </c>
       <c r="AA55">
         <v>-1.4</v>
@@ -19803,9 +19578,6 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="H56">
-        <v>-1590</v>
-      </c>
       <c r="I56">
         <v>-2</v>
       </c>
@@ -19813,10 +19585,10 @@
         <v>-0.06599999999999995</v>
       </c>
       <c r="K56">
-        <v>0.005999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="L56">
-        <v>-0.064</v>
+        <v>-0.06399999999999997</v>
       </c>
       <c r="M56">
         <v>2.300000000000001</v>
@@ -19938,7 +19710,7 @@
         <v>2.9</v>
       </c>
       <c r="Y57">
-        <v>0.08199999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="AA57">
         <v>-1.9</v>
@@ -20049,9 +19821,6 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="H59">
-        <v>-1344</v>
-      </c>
       <c r="I59">
         <v>-1</v>
       </c>
@@ -20098,7 +19867,7 @@
         <v>-2.6</v>
       </c>
       <c r="Y59">
-        <v>-0.04399999999999999</v>
+        <v>-0.044</v>
       </c>
       <c r="AA59">
         <v>-0.7000000000000002</v>
@@ -20283,9 +20052,6 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="H62">
-        <v>-31197</v>
-      </c>
       <c r="I62">
         <v>-1.399999999999999</v>
       </c>
@@ -20370,7 +20136,7 @@
         <v>26.7</v>
       </c>
       <c r="J63">
-        <v>0.5770000000000001</v>
+        <v>0.577</v>
       </c>
       <c r="L63">
         <v>0.321</v>
@@ -20499,14 +20265,11 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="H65">
-        <v>-17398</v>
-      </c>
       <c r="I65">
         <v>-1.199999999999999</v>
       </c>
       <c r="J65">
-        <v>-0.03700000000000003</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="L65">
         <v>-0.04799999999999999</v>
@@ -20539,7 +20302,7 @@
         <v>-102.1</v>
       </c>
       <c r="Y65">
-        <v>-0.04000000000000001</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="AA65">
         <v>2.9</v>
@@ -20574,7 +20337,7 @@
         <v>24.6</v>
       </c>
       <c r="J66">
-        <v>0.5920000000000001</v>
+        <v>0.592</v>
       </c>
       <c r="K66">
         <v>0.001</v>
@@ -20654,7 +20417,7 @@
         <v>23</v>
       </c>
       <c r="J67">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="K67">
         <v>0.001</v>
@@ -20718,9 +20481,6 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="H68">
-        <v>-48595</v>
-      </c>
       <c r="I68">
         <v>-1.600000000000001</v>
       </c>
@@ -20731,7 +20491,7 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>-0.007999999999999952</v>
+        <v>-0.008000000000000007</v>
       </c>
       <c r="M68">
         <v>0.6000000000000005</v>

--- a/output/abdulka01.xlsx
+++ b/output/abdulka01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>
@@ -5290,9 +5290,6 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60">
-        <v>0.056</v>
-      </c>
       <c r="P60">
         <v>9.1</v>
       </c>
@@ -5382,9 +5379,6 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
       <c r="P61">
         <v>9.1</v>
       </c>
@@ -5456,9 +5450,6 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62">
-        <v>-0.056</v>
-      </c>
       <c r="P62">
         <v>0</v>
       </c>
@@ -5755,9 +5746,6 @@
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66">
-        <v>0.056</v>
-      </c>
       <c r="P66">
         <v>10.2</v>
       </c>
@@ -5844,9 +5832,6 @@
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
       <c r="P67">
         <v>9.9</v>
       </c>
@@ -5917,9 +5902,6 @@
       </c>
       <c r="N68">
         <v>0</v>
-      </c>
-      <c r="O68">
-        <v>-0.056</v>
       </c>
       <c r="P68">
         <v>-0.2999999999999989</v>
@@ -10401,9 +10383,6 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60">
-        <v>0.056</v>
-      </c>
       <c r="P60">
         <v>9.5</v>
       </c>
@@ -10490,9 +10469,6 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
       <c r="P61">
         <v>9.4</v>
       </c>
@@ -10561,9 +10537,6 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62">
-        <v>-0.056</v>
-      </c>
       <c r="P62">
         <v>-0.09999999999999964</v>
       </c>
@@ -10848,9 +10821,6 @@
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66">
-        <v>0.056</v>
-      </c>
       <c r="P66">
         <v>9.9</v>
       </c>
@@ -10934,9 +10904,6 @@
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
       <c r="P67">
         <v>9.6</v>
       </c>
@@ -11004,9 +10971,6 @@
       </c>
       <c r="N68">
         <v>0</v>
-      </c>
-      <c r="O68">
-        <v>-0.056</v>
       </c>
       <c r="P68">
         <v>-0.3000000000000007</v>
@@ -15012,9 +14976,6 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="O48">
-        <v>0.056</v>
-      </c>
       <c r="P48">
         <v>12.3</v>
       </c>
@@ -15107,9 +15068,6 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
       <c r="P49">
         <v>12.5</v>
       </c>
@@ -15184,9 +15142,6 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50">
-        <v>-0.056</v>
-      </c>
       <c r="P50">
         <v>0.1999999999999993</v>
       </c>
@@ -15486,9 +15441,6 @@
       <c r="N54">
         <v>0</v>
       </c>
-      <c r="O54">
-        <v>0.056</v>
-      </c>
       <c r="P54">
         <v>12.4</v>
       </c>
@@ -15578,9 +15530,6 @@
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
       <c r="P55">
         <v>12.7</v>
       </c>
@@ -15654,9 +15603,6 @@
       </c>
       <c r="N56">
         <v>0</v>
-      </c>
-      <c r="O56">
-        <v>-0.056</v>
       </c>
       <c r="P56">
         <v>0.2999999999999989</v>
@@ -17141,13 +17087,13 @@
         <v>0.13</v>
       </c>
       <c r="AA25">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
       <c r="AC25">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD25">
         <v>0.2</v>
@@ -17206,13 +17152,13 @@
         <v>-0.127</v>
       </c>
       <c r="AA26">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="AB26">
         <v>-1.6</v>
       </c>
       <c r="AC26">
-        <v>-5.500000000000001</v>
+        <v>-5.600000000000001</v>
       </c>
       <c r="AD26">
         <v>-6.3</v>
@@ -17381,7 +17327,7 @@
         <v>2.8</v>
       </c>
       <c r="AC28">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AD28">
         <v>0.9</v>
@@ -17446,7 +17392,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AD29">
         <v>-6.8</v>
@@ -17858,13 +17804,13 @@
         <v>0.159</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB34">
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD34">
         <v>0.2</v>
@@ -17926,13 +17872,13 @@
         <v>-0.07100000000000001</v>
       </c>
       <c r="AA35">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AB35">
         <v>-0.3999999999999999</v>
       </c>
       <c r="AC35">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD35">
         <v>-5.899999999999999</v>
@@ -18104,7 +18050,7 @@
         <v>3</v>
       </c>
       <c r="AB37">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC37">
         <v>4.4</v>
@@ -18172,7 +18118,7 @@
         <v>-0.7999999999999998</v>
       </c>
       <c r="AB38">
-        <v>0.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AC38">
         <v>-0.5999999999999996</v>
